--- a/experimental_validations/data/210125_mutvirus_titering_HAARVI.xlsx
+++ b/experimental_validations/data/210125_mutvirus_titering_HAARVI.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\VEP_DMS_Barcode\plate_reader\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/fh/fast/bloom_j/computational_notebooks/kdusenbu/2021/SARS-CoV-2-RBD_MAP_HAARVI_sera/experimental_validations/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F27CCD7-E7E8-4560-9A27-3D75228D0AB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D06134-2464-7B48-AC1E-6B5B92CD16E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4485" yWindow="2985" windowWidth="21600" windowHeight="11385" xr2:uid="{7C440C55-AA6A-41B3-88C0-D7663FC47812}"/>
+    <workbookView xWindow="4480" yWindow="2980" windowWidth="21600" windowHeight="11380" xr2:uid="{7C440C55-AA6A-41B3-88C0-D7663FC47812}"/>
   </bookViews>
   <sheets>
-    <sheet name="Plate5-2" sheetId="8" r:id="rId1"/>
-    <sheet name="Plate6" sheetId="7" r:id="rId2"/>
-    <sheet name="Plate5" sheetId="6" r:id="rId3"/>
-    <sheet name="Plate4" sheetId="5" r:id="rId4"/>
-    <sheet name="Plate3" sheetId="4" r:id="rId5"/>
-    <sheet name="Plate2" sheetId="3" r:id="rId6"/>
-    <sheet name="Plate1" sheetId="2" r:id="rId7"/>
+    <sheet name="Plate6" sheetId="7" r:id="rId1"/>
+    <sheet name="Plate5" sheetId="6" r:id="rId2"/>
+    <sheet name="Plate4" sheetId="5" r:id="rId3"/>
+    <sheet name="Plate3" sheetId="4" r:id="rId4"/>
+    <sheet name="Plate2" sheetId="3" r:id="rId5"/>
+    <sheet name="Plate1" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,100 +38,6 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Dusenbury Crawford, Katharine H</author>
-  </authors>
-  <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{6AFAB3EC-BD3D-4CBD-879F-60750E7C9714}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Tecan.At.Common, 3.9.1.0
-Tecan.At.Common.DocumentManagement, 3.9.1.0
-Tecan.At.Common.DocumentManagement.Reader, 3.6.1.0
-Tecan.At.Common.MCS, 3.9.1.0
-Tecan.At.Common.Results, 3.9.1.0
-Tecan.At.Common.UI, 3.9.1.0
-Tecan.At.Communication.Common, 3.9.1.0
-Tecan.At.Communication.Port.IP, 3.9.1.0
-Tecan.At.Communication.Port.RS232, 3.9.1.0
-Tecan.At.Communication.Port.SIM.Common, 3.9.1.0
-Tecan.At.Communication.Port.USB, 3.9.1.0
-Tecan.At.Communication.Server, 3.9.1.0
-Tecan.At.Communication.SIM.AMR, 3.6.1.0
-Tecan.At.Communication.SIM.AMRPlus, 3.6.1.0
-Tecan.At.Communication.SIM.Connect, 3.9.1.0
-Tecan.At.Communication.SIM.GeniosUltra, 3.6.1.0
-Tecan.At.Communication.SIM.Safire3, 3.6.1.0
-Tecan.At.Communication.SIM.Safire3Pro, 3.6.1.0
-Tecan.At.Communication.SIM.SunriseMini, 3.6.1.0
-Tecan.At.Instrument.Common, 3.9.1.0
-Tecan.At.Instrument.Common.GCM, 3.9.1.0
-Tecan.At.Instrument.Common.Reader, 3.6.1.0
-Tecan.At.Instrument.Common.Stacker, 3.9.1.0
-Tecan.At.Instrument.Gas.GCM, 3.9.1.0
-Tecan.At.Instrument.GCM.Server, 3.9.1.0
-Tecan.At.Instrument.Reader.AMR, 3.6.1.0
-Tecan.At.Instrument.Reader.AMRPlus, 3.6.1.0
-Tecan.At.Instrument.Reader.GeniosUltra, 3.6.1.0
-Tecan.At.Instrument.Reader.Safire3, 3.6.1.0
-Tecan.At.Instrument.Reader.Safire3Pro, 3.6.1.0
-Tecan.At.Instrument.Reader.SunriseMini, 3.6.1.0
-Tecan.At.Instrument.Server, 3.9.1.0
-Tecan.At.Instrument.Stacker.Connect, 3.9.1.0
-Tecan.At.Instrument.Stacker.Server, 3.9.1.0
-Tecan.At.Measurement.BuiltInTest.Common, 3.6.1.0
-Tecan.At.Measurement.Common, 3.6.1.0
-Tecan.At.Measurement.Server, 3.6.1.0
-Tecan.At.XFluor, 2.0.10.0
-Tecan.At.XFluor.Connect.Reader, 2.0.10.0
-Tecan.At.XFluor.Core, 2.0.10.0
-Tecan.At.XFluor.Device, 2.0.10.0
-Tecan.At.XFluor.Device.AMR, 2.0.10.0
-Tecan.At.XFluor.Device.AMRPlus, 2.0.10.0
-Tecan.At.XFluor.Device.GeniosUltra, 2.0.10.0
-Tecan.At.XFluor.Device.Reader, 2.0.10.0
-Tecan.At.XFluor.Device.Safire3, 2.0.10.0
-Tecan.At.XFluor.Device.Safire3Pro, 2.0.10.0
-Tecan.At.XFluor.Device.SunriseMini, 2.0.10.0
-Tecan.At.XFluor.ExcelOutput, 2.0.10.0
-Tecan.At.XFluor.NanoQuant, 2.0.10.0
-Tecan.At.XFluor.ReaderEditor, 2.0.10.0
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{4C4B634E-2D2E-40BE-AFDA-97D9AB9C847F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
-MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
-ABS, V 1.00 MCR Abs 4 Channel (V 1.00 MCR Abs 4 Channel)
-LUM, V_1.04_11/2011_LUMINESCENCE (Nov 02 2011/17.53.34)
-TCAN, V_1.00_02/2008_S3FTCAN (Feb 21 2008/17.19.16)
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Dusenbury Crawford, Katharine H</author>
@@ -226,7 +131,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Dusenbury Crawford, Katharine H</author>
@@ -320,7 +225,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Dusenbury Crawford, Katharine H</author>
@@ -414,7 +319,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Dusenbury Crawford, Katharine H</author>
@@ -508,7 +413,7 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Dusenbury Crawford, Katharine H</author>
@@ -602,7 +507,7 @@
 </comments>
 </file>
 
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Dusenbury Crawford, Katharine H</author>
@@ -697,7 +602,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="58">
   <si>
     <t>Application: Tecan i-control</t>
   </si>
@@ -871,12 +776,6 @@
   </si>
   <si>
     <t>1/25/2021 11:39:00 AM</t>
-  </si>
-  <si>
-    <t>11:39:37 AM</t>
-  </si>
-  <si>
-    <t>1/25/2021 11:39:46 AM</t>
   </si>
 </sst>
 </file>
@@ -1313,16 +1212,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E714B5-8E76-49A7-9FB0-22ACB6FBDDE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE957DD-4B1E-4CF1-B789-C10DBCD6B09A}">
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1330,7 +1229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1338,7 +1237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1346,7 +1245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1354,15 +1253,15 @@
         <v>44221</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1370,7 +1269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1378,7 +1277,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1386,17 +1285,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1404,7 +1303,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1412,7 +1311,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1423,7 +1322,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1434,20 +1333,20 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
@@ -1488,130 +1387,340 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
         <v>-1</v>
       </c>
-      <c r="C24">
-        <v>10</v>
-      </c>
-      <c r="D24">
-        <v>15</v>
-      </c>
-      <c r="E24">
-        <v>5</v>
-      </c>
       <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="H24">
+        <v>-1</v>
+      </c>
+      <c r="I24">
+        <v>17</v>
+      </c>
+      <c r="J24">
+        <v>8</v>
+      </c>
+      <c r="K24">
         <v>1</v>
       </c>
-      <c r="G24">
-        <v>5</v>
-      </c>
-      <c r="H24">
-        <v>8</v>
-      </c>
-      <c r="I24">
+      <c r="L24">
+        <v>11</v>
+      </c>
+      <c r="M24">
         <v>6</v>
       </c>
-      <c r="J24">
-        <v>5</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>4</v>
-      </c>
-      <c r="M24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B25">
-        <v>1336</v>
+        <v>4</v>
       </c>
       <c r="C25">
+        <v>804563</v>
+      </c>
+      <c r="D25">
+        <v>847001</v>
+      </c>
+      <c r="E25">
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <v>6</v>
+      </c>
+      <c r="G25">
+        <v>2291440</v>
+      </c>
+      <c r="H25">
+        <v>2020697</v>
+      </c>
+      <c r="I25">
         <v>8</v>
       </c>
-      <c r="D25">
+      <c r="J25">
+        <v>-2</v>
+      </c>
+      <c r="K25">
         <v>12</v>
       </c>
-      <c r="E25">
-        <v>2901954</v>
-      </c>
-      <c r="F25">
-        <v>2909645</v>
-      </c>
-      <c r="G25">
-        <v>23</v>
-      </c>
-      <c r="H25">
-        <v>5756326</v>
-      </c>
-      <c r="I25">
-        <v>5467299</v>
-      </c>
-      <c r="J25">
-        <v>7</v>
-      </c>
-      <c r="K25">
-        <v>355857</v>
-      </c>
       <c r="L25">
-        <v>339580</v>
+        <v>3</v>
       </c>
       <c r="M25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C26">
-        <v>8</v>
+        <v>399120</v>
       </c>
       <c r="D26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <v>335364</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>967128</v>
+      </c>
+      <c r="H26">
+        <v>964965</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>7</v>
+      </c>
+      <c r="M26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>178140</v>
+      </c>
+      <c r="D27">
+        <v>217937</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <v>488929</v>
+      </c>
+      <c r="H27">
+        <v>482451</v>
+      </c>
+      <c r="I27">
+        <v>27</v>
+      </c>
+      <c r="J27">
+        <v>5</v>
+      </c>
+      <c r="K27">
+        <v>10</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+      <c r="M27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <v>92452</v>
+      </c>
+      <c r="D28">
+        <v>83424</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>12</v>
+      </c>
+      <c r="G28">
+        <v>224252</v>
+      </c>
+      <c r="H28">
+        <v>293340</v>
+      </c>
+      <c r="I28">
+        <v>5</v>
+      </c>
+      <c r="J28">
+        <v>6</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>4</v>
+      </c>
+      <c r="M28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>49553</v>
+      </c>
+      <c r="D29">
+        <v>40622</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>-1</v>
+      </c>
+      <c r="G29">
+        <v>103408</v>
+      </c>
+      <c r="H29">
+        <v>146895</v>
+      </c>
+      <c r="I29">
+        <v>-1</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>-2</v>
+      </c>
+      <c r="L29">
+        <v>-2</v>
+      </c>
+      <c r="M29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>30360</v>
+      </c>
+      <c r="D30">
+        <v>28383</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>-1</v>
+      </c>
+      <c r="G30">
+        <v>73513</v>
+      </c>
+      <c r="H30">
+        <v>69376</v>
+      </c>
+      <c r="I30">
+        <v>10</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>6</v>
+      </c>
+      <c r="L30">
+        <v>-1</v>
+      </c>
+      <c r="M30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>12622</v>
+      </c>
+      <c r="D31">
+        <v>22245</v>
+      </c>
+      <c r="E31">
+        <v>-4</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>63755</v>
+      </c>
+      <c r="H31">
+        <v>43754</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+      <c r="J31">
+        <v>3</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>7</v>
+      </c>
+      <c r="M31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>36</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1621,16 +1730,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE957DD-4B1E-4CF1-B789-C10DBCD6B09A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE0FE0C5-4B20-4A31-800C-BDC3CDA40DD1}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1638,7 +1747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1646,7 +1755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1654,7 +1763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1662,15 +1771,15 @@
         <v>44221</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1678,7 +1787,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1686,7 +1795,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1694,17 +1803,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1712,7 +1821,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1720,7 +1829,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1731,7 +1840,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1742,20 +1851,20 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
@@ -1796,340 +1905,340 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>9</v>
+      </c>
+      <c r="E24">
         <v>6</v>
       </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24">
+      <c r="F24">
+        <v>11</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>7</v>
+      </c>
+      <c r="I24">
+        <v>10</v>
+      </c>
+      <c r="J24">
+        <v>10</v>
+      </c>
+      <c r="K24">
         <v>4</v>
       </c>
-      <c r="E24">
+      <c r="L24">
+        <v>5</v>
+      </c>
+      <c r="M24">
         <v>-1</v>
       </c>
-      <c r="F24">
-        <v>3</v>
-      </c>
-      <c r="G24">
-        <v>4</v>
-      </c>
-      <c r="H24">
-        <v>-1</v>
-      </c>
-      <c r="I24">
-        <v>17</v>
-      </c>
-      <c r="J24">
-        <v>8</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>11</v>
-      </c>
-      <c r="M24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B25">
+        <v>1669</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>15</v>
+      </c>
+      <c r="E25">
+        <v>3640446</v>
+      </c>
+      <c r="F25">
+        <v>3659406</v>
+      </c>
+      <c r="G25">
+        <v>25</v>
+      </c>
+      <c r="H25">
+        <v>7313032</v>
+      </c>
+      <c r="I25">
+        <v>7047822</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+      <c r="K25">
+        <v>435272</v>
+      </c>
+      <c r="L25">
+        <v>423752</v>
+      </c>
+      <c r="M25">
         <v>4</v>
       </c>
-      <c r="C25">
-        <v>804563</v>
-      </c>
-      <c r="D25">
-        <v>847001</v>
-      </c>
-      <c r="E25">
-        <v>9</v>
-      </c>
-      <c r="F25">
-        <v>6</v>
-      </c>
-      <c r="G25">
-        <v>2291440</v>
-      </c>
-      <c r="H25">
-        <v>2020697</v>
-      </c>
-      <c r="I25">
-        <v>8</v>
-      </c>
-      <c r="J25">
-        <v>-2</v>
-      </c>
-      <c r="K25">
-        <v>12</v>
-      </c>
-      <c r="L25">
-        <v>3</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
         <v>9</v>
       </c>
-      <c r="C26">
-        <v>399120</v>
-      </c>
-      <c r="D26">
-        <v>335364</v>
-      </c>
       <c r="E26">
-        <v>3</v>
+        <v>1638490</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>1590940</v>
       </c>
       <c r="G26">
-        <v>967128</v>
+        <v>14</v>
       </c>
       <c r="H26">
-        <v>964965</v>
+        <v>3197663</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>3008704</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>210358</v>
       </c>
       <c r="L26">
-        <v>7</v>
+        <v>219747</v>
       </c>
       <c r="M26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>864155</v>
+      </c>
+      <c r="F27">
+        <v>810267</v>
+      </c>
+      <c r="G27">
+        <v>84</v>
+      </c>
+      <c r="H27">
+        <v>1436343</v>
+      </c>
+      <c r="I27">
+        <v>1408322</v>
+      </c>
+      <c r="J27">
+        <v>36</v>
+      </c>
+      <c r="K27">
+        <v>104648</v>
+      </c>
+      <c r="L27">
+        <v>129925</v>
+      </c>
+      <c r="M27">
         <v>5</v>
       </c>
-      <c r="C27">
-        <v>178140</v>
-      </c>
-      <c r="D27">
-        <v>217937</v>
-      </c>
-      <c r="E27">
-        <v>5</v>
-      </c>
-      <c r="F27">
-        <v>4</v>
-      </c>
-      <c r="G27">
-        <v>488929</v>
-      </c>
-      <c r="H27">
-        <v>482451</v>
-      </c>
-      <c r="I27">
-        <v>27</v>
-      </c>
-      <c r="J27">
-        <v>5</v>
-      </c>
-      <c r="K27">
-        <v>10</v>
-      </c>
-      <c r="L27">
-        <v>2</v>
-      </c>
-      <c r="M27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <v>9</v>
+      </c>
+      <c r="E28">
+        <v>385472</v>
+      </c>
+      <c r="F28">
+        <v>382861</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>679514</v>
+      </c>
+      <c r="I28">
+        <v>676590</v>
+      </c>
+      <c r="J28">
         <v>7</v>
       </c>
-      <c r="C28">
-        <v>92452</v>
-      </c>
-      <c r="D28">
-        <v>83424</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>12</v>
-      </c>
-      <c r="G28">
-        <v>224252</v>
-      </c>
-      <c r="H28">
-        <v>293340</v>
-      </c>
-      <c r="I28">
-        <v>5</v>
-      </c>
-      <c r="J28">
+      <c r="K28">
+        <v>54037</v>
+      </c>
+      <c r="L28">
+        <v>56551</v>
+      </c>
+      <c r="M28">
         <v>6</v>
       </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="L28">
-        <v>4</v>
-      </c>
-      <c r="M28">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
         <v>1</v>
       </c>
-      <c r="C29">
-        <v>49553</v>
-      </c>
-      <c r="D29">
-        <v>40622</v>
-      </c>
       <c r="E29">
+        <v>168567</v>
+      </c>
+      <c r="F29">
+        <v>222324</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>337218</v>
+      </c>
+      <c r="I29">
+        <v>338056</v>
+      </c>
+      <c r="J29">
+        <v>6</v>
+      </c>
+      <c r="K29">
+        <v>16851</v>
+      </c>
+      <c r="L29">
+        <v>20993</v>
+      </c>
+      <c r="M29">
         <v>4</v>
       </c>
-      <c r="F29">
-        <v>-1</v>
-      </c>
-      <c r="G29">
-        <v>103408</v>
-      </c>
-      <c r="H29">
-        <v>146895</v>
-      </c>
-      <c r="I29">
-        <v>-1</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>-2</v>
-      </c>
-      <c r="L29">
-        <v>-2</v>
-      </c>
-      <c r="M29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>30360</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>28383</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>89895</v>
       </c>
       <c r="F30">
-        <v>-1</v>
+        <v>125786</v>
       </c>
       <c r="G30">
-        <v>73513</v>
+        <v>3</v>
       </c>
       <c r="H30">
-        <v>69376</v>
+        <v>187957</v>
       </c>
       <c r="I30">
-        <v>10</v>
+        <v>179616</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K30">
-        <v>6</v>
+        <v>4632</v>
       </c>
       <c r="L30">
-        <v>-1</v>
+        <v>11823</v>
       </c>
       <c r="M30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C31">
-        <v>12622</v>
+        <v>2</v>
       </c>
       <c r="D31">
-        <v>22245</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>-4</v>
+        <v>62932</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>83233</v>
       </c>
       <c r="G31">
-        <v>63755</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>43754</v>
+        <v>138972</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>141860</v>
       </c>
       <c r="J31">
         <v>3</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>2834</v>
       </c>
       <c r="L31">
-        <v>7</v>
+        <v>17823</v>
       </c>
       <c r="M31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2139,16 +2248,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE0FE0C5-4B20-4A31-800C-BDC3CDA40DD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88FD1ECF-0FCF-4686-86B8-8928FDB7A442}">
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2156,7 +2265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2164,7 +2273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2172,7 +2281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2180,15 +2289,15 @@
         <v>44221</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2196,7 +2305,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2204,7 +2313,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2212,17 +2321,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -2230,7 +2339,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2238,7 +2347,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -2249,7 +2358,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -2260,20 +2369,20 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
@@ -2314,36 +2423,36 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C24">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>-4</v>
+      </c>
+      <c r="E24">
+        <v>-2</v>
+      </c>
+      <c r="F24">
+        <v>8</v>
+      </c>
+      <c r="G24">
+        <v>8</v>
+      </c>
+      <c r="H24">
         <v>5</v>
       </c>
-      <c r="D24">
-        <v>9</v>
-      </c>
-      <c r="E24">
+      <c r="I24">
         <v>6</v>
       </c>
-      <c r="F24">
-        <v>11</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>7</v>
-      </c>
-      <c r="I24">
-        <v>10</v>
-      </c>
       <c r="J24">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K24">
         <v>4</v>
@@ -2352,302 +2461,302 @@
         <v>5</v>
       </c>
       <c r="M24">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B25">
-        <v>1669</v>
+        <v>1621275</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>1459671</v>
       </c>
       <c r="D25">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E25">
-        <v>3640446</v>
+        <v>64134</v>
       </c>
       <c r="F25">
-        <v>3659406</v>
+        <v>62968</v>
       </c>
       <c r="G25">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="H25">
-        <v>7313032</v>
+        <v>292192</v>
       </c>
       <c r="I25">
-        <v>7047822</v>
+        <v>338237</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K25">
-        <v>435272</v>
+        <v>1662983</v>
       </c>
       <c r="L25">
-        <v>423752</v>
+        <v>1837891</v>
       </c>
       <c r="M25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B26">
-        <v>7</v>
+        <v>850320</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>553226</v>
       </c>
       <c r="D26">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E26">
-        <v>1638490</v>
+        <v>16539</v>
       </c>
       <c r="F26">
-        <v>1590940</v>
+        <v>33533</v>
       </c>
       <c r="G26">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H26">
-        <v>3197663</v>
+        <v>162254</v>
       </c>
       <c r="I26">
-        <v>3008704</v>
+        <v>147502</v>
       </c>
       <c r="J26">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K26">
-        <v>210358</v>
+        <v>722931</v>
       </c>
       <c r="L26">
-        <v>219747</v>
+        <v>893943</v>
       </c>
       <c r="M26">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B27">
+        <v>415060</v>
+      </c>
+      <c r="C27">
+        <v>316564</v>
+      </c>
+      <c r="D27">
         <v>4</v>
       </c>
-      <c r="C27">
-        <v>3</v>
-      </c>
-      <c r="D27">
-        <v>3</v>
-      </c>
       <c r="E27">
-        <v>864155</v>
+        <v>8150</v>
       </c>
       <c r="F27">
-        <v>810267</v>
+        <v>5680</v>
       </c>
       <c r="G27">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="H27">
-        <v>1436343</v>
+        <v>71580</v>
       </c>
       <c r="I27">
-        <v>1408322</v>
+        <v>61621</v>
       </c>
       <c r="J27">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="K27">
-        <v>104648</v>
+        <v>457262</v>
       </c>
       <c r="L27">
-        <v>129925</v>
+        <v>414742</v>
       </c>
       <c r="M27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>215645</v>
       </c>
       <c r="C28">
+        <v>159192</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>6137</v>
+      </c>
+      <c r="F28">
+        <v>14463</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>45128</v>
+      </c>
+      <c r="I28">
+        <v>43194</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>211361</v>
+      </c>
+      <c r="L28">
+        <v>235140</v>
+      </c>
+      <c r="M28">
         <v>8</v>
       </c>
-      <c r="D28">
-        <v>9</v>
-      </c>
-      <c r="E28">
-        <v>385472</v>
-      </c>
-      <c r="F28">
-        <v>382861</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>679514</v>
-      </c>
-      <c r="I28">
-        <v>676590</v>
-      </c>
-      <c r="J28">
-        <v>7</v>
-      </c>
-      <c r="K28">
-        <v>54037</v>
-      </c>
-      <c r="L28">
-        <v>56551</v>
-      </c>
-      <c r="M28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B29">
+        <v>84261</v>
+      </c>
+      <c r="C29">
+        <v>103085</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>3247</v>
+      </c>
+      <c r="F29">
+        <v>12084</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>9277</v>
+      </c>
+      <c r="I29">
+        <v>19888</v>
+      </c>
+      <c r="J29">
+        <v>4</v>
+      </c>
+      <c r="K29">
+        <v>96577</v>
+      </c>
+      <c r="L29">
+        <v>112420</v>
+      </c>
+      <c r="M29">
         <v>2</v>
       </c>
-      <c r="C29">
-        <v>4</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>168567</v>
-      </c>
-      <c r="F29">
-        <v>222324</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>337218</v>
-      </c>
-      <c r="I29">
-        <v>338056</v>
-      </c>
-      <c r="J29">
-        <v>6</v>
-      </c>
-      <c r="K29">
-        <v>16851</v>
-      </c>
-      <c r="L29">
-        <v>20993</v>
-      </c>
-      <c r="M29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B30">
+        <v>72715</v>
+      </c>
+      <c r="C30">
+        <v>62301</v>
+      </c>
+      <c r="D30">
         <v>3</v>
       </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
       <c r="E30">
-        <v>89895</v>
+        <v>292</v>
       </c>
       <c r="F30">
-        <v>125786</v>
+        <v>3196</v>
       </c>
       <c r="G30">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H30">
-        <v>187957</v>
+        <v>6344</v>
       </c>
       <c r="I30">
-        <v>179616</v>
+        <v>9324</v>
       </c>
       <c r="J30">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="K30">
-        <v>4632</v>
+        <v>61856</v>
       </c>
       <c r="L30">
-        <v>11823</v>
+        <v>54536</v>
       </c>
       <c r="M30">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B31">
-        <v>7</v>
+        <v>23198</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>38869</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E31">
-        <v>62932</v>
+        <v>758</v>
       </c>
       <c r="F31">
-        <v>83233</v>
+        <v>198</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H31">
-        <v>138972</v>
+        <v>7022</v>
       </c>
       <c r="I31">
-        <v>141860</v>
+        <v>6799</v>
       </c>
       <c r="J31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>2834</v>
+        <v>39038</v>
       </c>
       <c r="L31">
-        <v>17823</v>
+        <v>51613</v>
       </c>
       <c r="M31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2657,16 +2766,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88FD1ECF-0FCF-4686-86B8-8928FDB7A442}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9057604-2C4E-4E98-AF9F-A64A93960B03}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
-    </sheetView>
+    <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2674,7 +2781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2682,7 +2789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2690,7 +2797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2698,15 +2805,15 @@
         <v>44221</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2714,7 +2821,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2722,7 +2829,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2730,17 +2837,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -2748,7 +2855,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2756,7 +2863,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -2767,7 +2874,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -2778,20 +2885,20 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
@@ -2832,340 +2939,340 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C24">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D24">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="E24">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G24">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I24">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L24">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B25">
-        <v>1621275</v>
+        <v>3293498</v>
       </c>
       <c r="C25">
-        <v>1459671</v>
+        <v>3648073</v>
       </c>
       <c r="D25">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E25">
-        <v>64134</v>
+        <v>5048155</v>
       </c>
       <c r="F25">
-        <v>62968</v>
+        <v>4794377</v>
       </c>
       <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>431205</v>
+      </c>
+      <c r="I25">
+        <v>409466</v>
+      </c>
+      <c r="J25">
         <v>9</v>
       </c>
-      <c r="H25">
-        <v>292192</v>
-      </c>
-      <c r="I25">
-        <v>338237</v>
-      </c>
-      <c r="J25">
+      <c r="K25">
+        <v>4015410</v>
+      </c>
+      <c r="L25">
+        <v>4314482</v>
+      </c>
+      <c r="M25">
         <v>4</v>
       </c>
-      <c r="K25">
-        <v>1662983</v>
-      </c>
-      <c r="L25">
-        <v>1837891</v>
-      </c>
-      <c r="M25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B26">
-        <v>850320</v>
+        <v>2082302</v>
       </c>
       <c r="C26">
-        <v>553226</v>
+        <v>1976333</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E26">
-        <v>16539</v>
+        <v>2209800</v>
       </c>
       <c r="F26">
-        <v>33533</v>
+        <v>2214552</v>
       </c>
       <c r="G26">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H26">
-        <v>162254</v>
+        <v>174102</v>
       </c>
       <c r="I26">
-        <v>147502</v>
+        <v>216021</v>
       </c>
       <c r="J26">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="K26">
-        <v>722931</v>
+        <v>1697735</v>
       </c>
       <c r="L26">
-        <v>893943</v>
+        <v>1831759</v>
       </c>
       <c r="M26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B27">
-        <v>415060</v>
+        <v>1064818</v>
       </c>
       <c r="C27">
-        <v>316564</v>
+        <v>956730</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E27">
-        <v>8150</v>
+        <v>1148826</v>
       </c>
       <c r="F27">
-        <v>5680</v>
+        <v>1024829</v>
       </c>
       <c r="G27">
+        <v>6</v>
+      </c>
+      <c r="H27">
+        <v>95860</v>
+      </c>
+      <c r="I27">
+        <v>93888</v>
+      </c>
+      <c r="J27">
+        <v>9</v>
+      </c>
+      <c r="K27">
+        <v>838643</v>
+      </c>
+      <c r="L27">
+        <v>817484</v>
+      </c>
+      <c r="M27">
         <v>2</v>
       </c>
-      <c r="H27">
-        <v>71580</v>
-      </c>
-      <c r="I27">
-        <v>61621</v>
-      </c>
-      <c r="J27">
-        <v>19</v>
-      </c>
-      <c r="K27">
-        <v>457262</v>
-      </c>
-      <c r="L27">
-        <v>414742</v>
-      </c>
-      <c r="M27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B28">
-        <v>215645</v>
+        <v>549842</v>
       </c>
       <c r="C28">
-        <v>159192</v>
+        <v>477471</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E28">
-        <v>6137</v>
+        <v>496629</v>
       </c>
       <c r="F28">
-        <v>14463</v>
+        <v>607508</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H28">
-        <v>45128</v>
+        <v>50946</v>
       </c>
       <c r="I28">
-        <v>43194</v>
+        <v>41294</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K28">
-        <v>211361</v>
+        <v>440661</v>
       </c>
       <c r="L28">
-        <v>235140</v>
+        <v>479166</v>
       </c>
       <c r="M28">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B29">
-        <v>84261</v>
+        <v>276512</v>
       </c>
       <c r="C29">
-        <v>103085</v>
+        <v>231141</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E29">
-        <v>3247</v>
+        <v>303847</v>
       </c>
       <c r="F29">
-        <v>12084</v>
+        <v>338408</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29">
-        <v>9277</v>
+        <v>14410</v>
       </c>
       <c r="I29">
-        <v>19888</v>
+        <v>32050</v>
       </c>
       <c r="J29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K29">
-        <v>96577</v>
+        <v>238097</v>
       </c>
       <c r="L29">
-        <v>112420</v>
+        <v>242904</v>
       </c>
       <c r="M29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B30">
-        <v>72715</v>
+        <v>147895</v>
       </c>
       <c r="C30">
-        <v>62301</v>
+        <v>131359</v>
       </c>
       <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>152729</v>
+      </c>
+      <c r="F30">
+        <v>109817</v>
+      </c>
+      <c r="G30">
+        <v>4</v>
+      </c>
+      <c r="H30">
+        <v>18870</v>
+      </c>
+      <c r="I30">
+        <v>15217</v>
+      </c>
+      <c r="J30">
         <v>3</v>
       </c>
-      <c r="E30">
-        <v>292</v>
-      </c>
-      <c r="F30">
-        <v>3196</v>
-      </c>
-      <c r="G30">
-        <v>13</v>
-      </c>
-      <c r="H30">
-        <v>6344</v>
-      </c>
-      <c r="I30">
-        <v>9324</v>
-      </c>
-      <c r="J30">
-        <v>2</v>
-      </c>
       <c r="K30">
-        <v>61856</v>
+        <v>137455</v>
       </c>
       <c r="L30">
-        <v>54536</v>
+        <v>101169</v>
       </c>
       <c r="M30">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B31">
-        <v>23198</v>
+        <v>60683</v>
       </c>
       <c r="C31">
-        <v>38869</v>
+        <v>76084</v>
       </c>
       <c r="D31">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>758</v>
+        <v>88948</v>
       </c>
       <c r="F31">
-        <v>198</v>
+        <v>96177</v>
       </c>
       <c r="G31">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="H31">
-        <v>7022</v>
+        <v>4403</v>
       </c>
       <c r="I31">
-        <v>6799</v>
+        <v>10742</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K31">
-        <v>39038</v>
+        <v>66935</v>
       </c>
       <c r="L31">
-        <v>51613</v>
+        <v>90590</v>
       </c>
       <c r="M31">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3175,14 +3282,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9057604-2C4E-4E98-AF9F-A64A93960B03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63EFB9D7-6E60-4C2D-8098-FCA035AB52BF}">
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3190,7 +3297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3198,7 +3305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3206,7 +3313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3214,15 +3321,15 @@
         <v>44221</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -3230,7 +3337,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3238,7 +3345,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -3246,17 +3353,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -3264,7 +3371,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -3272,7 +3379,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -3283,7 +3390,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -3294,20 +3401,20 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
@@ -3348,340 +3455,340 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B24">
-        <v>7</v>
+        <v>-3</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="G24">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>-6</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="L24">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B25">
-        <v>3293498</v>
+        <v>2942782</v>
       </c>
       <c r="C25">
-        <v>3648073</v>
+        <v>2588953</v>
       </c>
       <c r="D25">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="E25">
-        <v>5048155</v>
+        <v>1123663</v>
       </c>
       <c r="F25">
-        <v>4794377</v>
+        <v>954722</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H25">
-        <v>431205</v>
+        <v>472663</v>
       </c>
       <c r="I25">
-        <v>409466</v>
+        <v>435249</v>
       </c>
       <c r="J25">
-        <v>9</v>
+        <v>-3</v>
       </c>
       <c r="K25">
-        <v>4015410</v>
+        <v>465951</v>
       </c>
       <c r="L25">
-        <v>4314482</v>
+        <v>473945</v>
       </c>
       <c r="M25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B26">
-        <v>2082302</v>
+        <v>1375626</v>
       </c>
       <c r="C26">
-        <v>1976333</v>
+        <v>1016591</v>
       </c>
       <c r="D26">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E26">
-        <v>2209800</v>
+        <v>536871</v>
       </c>
       <c r="F26">
-        <v>2214552</v>
+        <v>559965</v>
       </c>
       <c r="G26">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H26">
-        <v>174102</v>
+        <v>215862</v>
       </c>
       <c r="I26">
-        <v>216021</v>
+        <v>211406</v>
       </c>
       <c r="J26">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K26">
-        <v>1697735</v>
+        <v>248876</v>
       </c>
       <c r="L26">
-        <v>1831759</v>
+        <v>235268</v>
       </c>
       <c r="M26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B27">
-        <v>1064818</v>
+        <v>757047</v>
       </c>
       <c r="C27">
-        <v>956730</v>
+        <v>615331</v>
       </c>
       <c r="D27">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>1148826</v>
+        <v>284545</v>
       </c>
       <c r="F27">
-        <v>1024829</v>
+        <v>282980</v>
       </c>
       <c r="G27">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="H27">
-        <v>95860</v>
+        <v>127259</v>
       </c>
       <c r="I27">
-        <v>93888</v>
+        <v>103277</v>
       </c>
       <c r="J27">
-        <v>9</v>
+        <v>-2</v>
       </c>
       <c r="K27">
-        <v>838643</v>
+        <v>102315</v>
       </c>
       <c r="L27">
-        <v>817484</v>
+        <v>97570</v>
       </c>
       <c r="M27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B28">
-        <v>549842</v>
+        <v>339679</v>
       </c>
       <c r="C28">
-        <v>477471</v>
+        <v>295432</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E28">
-        <v>496629</v>
+        <v>150649</v>
       </c>
       <c r="F28">
-        <v>607508</v>
+        <v>135728</v>
       </c>
       <c r="G28">
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="H28">
-        <v>50946</v>
+        <v>39127</v>
       </c>
       <c r="I28">
-        <v>41294</v>
+        <v>70470</v>
       </c>
       <c r="J28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>440661</v>
+        <v>72824</v>
       </c>
       <c r="L28">
-        <v>479166</v>
+        <v>43031</v>
       </c>
       <c r="M28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B29">
-        <v>276512</v>
+        <v>200576</v>
       </c>
       <c r="C29">
-        <v>231141</v>
+        <v>143854</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>-7</v>
       </c>
       <c r="E29">
-        <v>303847</v>
+        <v>65482</v>
       </c>
       <c r="F29">
-        <v>338408</v>
+        <v>78607</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="H29">
-        <v>14410</v>
+        <v>20974</v>
       </c>
       <c r="I29">
-        <v>32050</v>
+        <v>18878</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>238097</v>
+        <v>10087</v>
       </c>
       <c r="L29">
-        <v>242904</v>
+        <v>19865</v>
       </c>
       <c r="M29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B30">
-        <v>147895</v>
+        <v>87095</v>
       </c>
       <c r="C30">
-        <v>131359</v>
+        <v>62764</v>
       </c>
       <c r="D30">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="E30">
-        <v>152729</v>
+        <v>26603</v>
       </c>
       <c r="F30">
-        <v>109817</v>
+        <v>34206</v>
       </c>
       <c r="G30">
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="H30">
-        <v>18870</v>
+        <v>6221</v>
       </c>
       <c r="I30">
-        <v>15217</v>
+        <v>12742</v>
       </c>
       <c r="J30">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="K30">
-        <v>137455</v>
+        <v>17243</v>
       </c>
       <c r="L30">
-        <v>101169</v>
+        <v>6293</v>
       </c>
       <c r="M30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B31">
-        <v>60683</v>
+        <v>55187</v>
       </c>
       <c r="C31">
-        <v>76084</v>
+        <v>27903</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E31">
-        <v>88948</v>
+        <v>14915</v>
       </c>
       <c r="F31">
-        <v>96177</v>
+        <v>26129</v>
       </c>
       <c r="G31">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="H31">
-        <v>4403</v>
+        <v>8033</v>
       </c>
       <c r="I31">
-        <v>10742</v>
+        <v>13368</v>
       </c>
       <c r="J31">
-        <v>9</v>
+        <v>-3</v>
       </c>
       <c r="K31">
-        <v>66935</v>
+        <v>10856</v>
       </c>
       <c r="L31">
-        <v>90590</v>
+        <v>8250</v>
       </c>
       <c r="M31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -3691,522 +3798,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63EFB9D7-6E60-4C2D-8098-FCA035AB52BF}">
-  <dimension ref="A1:M36"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1">
-        <v>44221</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>1000</v>
-      </c>
-      <c r="F18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="3">
-        <v>1</v>
-      </c>
-      <c r="C23" s="3">
-        <v>2</v>
-      </c>
-      <c r="D23" s="3">
-        <v>3</v>
-      </c>
-      <c r="E23" s="3">
-        <v>4</v>
-      </c>
-      <c r="F23" s="3">
-        <v>5</v>
-      </c>
-      <c r="G23" s="3">
-        <v>6</v>
-      </c>
-      <c r="H23" s="3">
-        <v>7</v>
-      </c>
-      <c r="I23" s="3">
-        <v>8</v>
-      </c>
-      <c r="J23" s="3">
-        <v>9</v>
-      </c>
-      <c r="K23" s="3">
-        <v>10</v>
-      </c>
-      <c r="L23" s="3">
-        <v>11</v>
-      </c>
-      <c r="M23" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24">
-        <v>-3</v>
-      </c>
-      <c r="C24">
-        <v>-1</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>-3</v>
-      </c>
-      <c r="G24">
-        <v>-3</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>-6</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>-7</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25">
-        <v>2942782</v>
-      </c>
-      <c r="C25">
-        <v>2588953</v>
-      </c>
-      <c r="D25">
-        <v>-1</v>
-      </c>
-      <c r="E25">
-        <v>1123663</v>
-      </c>
-      <c r="F25">
-        <v>954722</v>
-      </c>
-      <c r="G25">
-        <v>7</v>
-      </c>
-      <c r="H25">
-        <v>472663</v>
-      </c>
-      <c r="I25">
-        <v>435249</v>
-      </c>
-      <c r="J25">
-        <v>-3</v>
-      </c>
-      <c r="K25">
-        <v>465951</v>
-      </c>
-      <c r="L25">
-        <v>473945</v>
-      </c>
-      <c r="M25">
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26">
-        <v>1375626</v>
-      </c>
-      <c r="C26">
-        <v>1016591</v>
-      </c>
-      <c r="D26">
-        <v>4</v>
-      </c>
-      <c r="E26">
-        <v>536871</v>
-      </c>
-      <c r="F26">
-        <v>559965</v>
-      </c>
-      <c r="G26">
-        <v>12</v>
-      </c>
-      <c r="H26">
-        <v>215862</v>
-      </c>
-      <c r="I26">
-        <v>211406</v>
-      </c>
-      <c r="J26">
-        <v>12</v>
-      </c>
-      <c r="K26">
-        <v>248876</v>
-      </c>
-      <c r="L26">
-        <v>235268</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27">
-        <v>757047</v>
-      </c>
-      <c r="C27">
-        <v>615331</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>284545</v>
-      </c>
-      <c r="F27">
-        <v>282980</v>
-      </c>
-      <c r="G27">
-        <v>24</v>
-      </c>
-      <c r="H27">
-        <v>127259</v>
-      </c>
-      <c r="I27">
-        <v>103277</v>
-      </c>
-      <c r="J27">
-        <v>-2</v>
-      </c>
-      <c r="K27">
-        <v>102315</v>
-      </c>
-      <c r="L27">
-        <v>97570</v>
-      </c>
-      <c r="M27">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28">
-        <v>339679</v>
-      </c>
-      <c r="C28">
-        <v>295432</v>
-      </c>
-      <c r="D28">
-        <v>6</v>
-      </c>
-      <c r="E28">
-        <v>150649</v>
-      </c>
-      <c r="F28">
-        <v>135728</v>
-      </c>
-      <c r="G28">
-        <v>-3</v>
-      </c>
-      <c r="H28">
-        <v>39127</v>
-      </c>
-      <c r="I28">
-        <v>70470</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>72824</v>
-      </c>
-      <c r="L28">
-        <v>43031</v>
-      </c>
-      <c r="M28">
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29">
-        <v>200576</v>
-      </c>
-      <c r="C29">
-        <v>143854</v>
-      </c>
-      <c r="D29">
-        <v>-7</v>
-      </c>
-      <c r="E29">
-        <v>65482</v>
-      </c>
-      <c r="F29">
-        <v>78607</v>
-      </c>
-      <c r="G29">
-        <v>-2</v>
-      </c>
-      <c r="H29">
-        <v>20974</v>
-      </c>
-      <c r="I29">
-        <v>18878</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>10087</v>
-      </c>
-      <c r="L29">
-        <v>19865</v>
-      </c>
-      <c r="M29">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30">
-        <v>87095</v>
-      </c>
-      <c r="C30">
-        <v>62764</v>
-      </c>
-      <c r="D30">
-        <v>-7</v>
-      </c>
-      <c r="E30">
-        <v>26603</v>
-      </c>
-      <c r="F30">
-        <v>34206</v>
-      </c>
-      <c r="G30">
-        <v>-3</v>
-      </c>
-      <c r="H30">
-        <v>6221</v>
-      </c>
-      <c r="I30">
-        <v>12742</v>
-      </c>
-      <c r="J30">
-        <v>-1</v>
-      </c>
-      <c r="K30">
-        <v>17243</v>
-      </c>
-      <c r="L30">
-        <v>6293</v>
-      </c>
-      <c r="M30">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31">
-        <v>55187</v>
-      </c>
-      <c r="C31">
-        <v>27903</v>
-      </c>
-      <c r="D31">
-        <v>5</v>
-      </c>
-      <c r="E31">
-        <v>14915</v>
-      </c>
-      <c r="F31">
-        <v>26129</v>
-      </c>
-      <c r="G31">
-        <v>-6</v>
-      </c>
-      <c r="H31">
-        <v>8033</v>
-      </c>
-      <c r="I31">
-        <v>13368</v>
-      </c>
-      <c r="J31">
-        <v>-3</v>
-      </c>
-      <c r="K31">
-        <v>10856</v>
-      </c>
-      <c r="L31">
-        <v>8250</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27FE5241-38BE-4DAB-B42C-1399CFD01C4D}">
   <dimension ref="A1:M36"/>
   <sheetViews>
@@ -4214,9 +3805,9 @@
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4224,7 +3815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4232,7 +3823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -4240,7 +3831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -4248,7 +3839,7 @@
         <v>44221</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -4256,7 +3847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -4264,7 +3855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -4272,7 +3863,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -4280,17 +3871,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -4298,7 +3889,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -4306,7 +3897,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -4317,7 +3908,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -4328,7 +3919,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -4336,12 +3927,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
@@ -4382,7 +3973,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
@@ -4423,7 +4014,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>29</v>
       </c>
@@ -4464,7 +4055,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>30</v>
       </c>
@@ -4505,7 +4096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>31</v>
       </c>
@@ -4546,7 +4137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
@@ -4587,7 +4178,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>33</v>
       </c>
@@ -4628,7 +4219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>34</v>
       </c>
@@ -4669,7 +4260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>35</v>
       </c>
@@ -4710,7 +4301,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>36</v>
       </c>

--- a/experimental_validations/data/210125_mutvirus_titering_HAARVI.xlsx
+++ b/experimental_validations/data/210125_mutvirus_titering_HAARVI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/fh/fast/bloom_j/computational_notebooks/kdusenbu/2021/SARS-CoV-2-RBD_MAP_HAARVI_sera/experimental_validations/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D06134-2464-7B48-AC1E-6B5B92CD16E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32983409-5BC3-5D47-B6D8-E10C3B0F13A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4480" yWindow="2980" windowWidth="21600" windowHeight="11380" xr2:uid="{7C440C55-AA6A-41B3-88C0-D7663FC47812}"/>
+    <workbookView xWindow="-36640" yWindow="1300" windowWidth="32780" windowHeight="17900" xr2:uid="{7C440C55-AA6A-41B3-88C0-D7663FC47812}"/>
   </bookViews>
   <sheets>
     <sheet name="Plate6" sheetId="7" r:id="rId1"/>
@@ -602,7 +602,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="67">
   <si>
     <t>Application: Tecan i-control</t>
   </si>
@@ -777,12 +777,39 @@
   <si>
     <t>1/25/2021 11:39:00 AM</t>
   </si>
+  <si>
+    <t>Vol Virus Added</t>
+  </si>
+  <si>
+    <t>titers</t>
+  </si>
+  <si>
+    <t>Virus number</t>
+  </si>
+  <si>
+    <t>Use row-a cells only as background</t>
+  </si>
+  <si>
+    <t>Avg. BG</t>
+  </si>
+  <si>
+    <t>BG subtracted</t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t>Avg of Avgs:</t>
+  </si>
+  <si>
+    <t>Use row A cells only as background (or 0 if row A avg. negative)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -810,6 +837,11 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="10">
@@ -887,11 +919,13 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1213,13 +1247,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE957DD-4B1E-4CF1-B789-C10DBCD6B09A}">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:AA47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="17" max="18" width="9.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1303,7 +1340,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1311,7 +1348,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1322,7 +1359,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1333,7 +1370,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1341,12 +1378,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
@@ -1386,8 +1426,50 @@
       <c r="M23" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P23" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>2</v>
+      </c>
+      <c r="R23" s="3">
+        <v>3</v>
+      </c>
+      <c r="S23" s="3">
+        <v>4</v>
+      </c>
+      <c r="T23" s="3">
+        <v>5</v>
+      </c>
+      <c r="U23" s="3">
+        <v>6</v>
+      </c>
+      <c r="V23" s="3">
+        <v>7</v>
+      </c>
+      <c r="W23" s="3">
+        <v>8</v>
+      </c>
+      <c r="X23" s="3">
+        <v>9</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>10</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>11</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
@@ -1427,8 +1509,63 @@
       <c r="M24">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N24">
+        <f>AVERAGE(B24:M24)</f>
+        <v>5</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24">
+        <f>B24-$N$24</f>
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" ref="Q24:AA24" si="0">C24-$N$24</f>
+        <v>-3</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>29</v>
       </c>
@@ -1468,8 +1605,59 @@
       <c r="M25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P25">
+        <f t="shared" ref="P25:P31" si="1">B25-$N$24</f>
+        <v>-1</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" ref="Q25:Q31" si="2">C25-$N$24</f>
+        <v>804558</v>
+      </c>
+      <c r="R25">
+        <f t="shared" ref="R25:R31" si="3">D25-$N$24</f>
+        <v>846996</v>
+      </c>
+      <c r="S25">
+        <f t="shared" ref="S25:S31" si="4">E25-$N$24</f>
+        <v>4</v>
+      </c>
+      <c r="T25">
+        <f t="shared" ref="T25:T31" si="5">F25-$N$24</f>
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <f t="shared" ref="U25:U31" si="6">G25-$N$24</f>
+        <v>2291435</v>
+      </c>
+      <c r="V25">
+        <f t="shared" ref="V25:V31" si="7">H25-$N$24</f>
+        <v>2020692</v>
+      </c>
+      <c r="W25">
+        <f t="shared" ref="W25:W31" si="8">I25-$N$24</f>
+        <v>3</v>
+      </c>
+      <c r="X25">
+        <f t="shared" ref="X25:X31" si="9">J25-$N$24</f>
+        <v>-7</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" ref="Y25:Y31" si="10">K25-$N$24</f>
+        <v>7</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" ref="Z25:Z31" si="11">L25-$N$24</f>
+        <v>-2</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" ref="AA25:AA31" si="12">M25-$N$24</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>30</v>
       </c>
@@ -1509,8 +1697,59 @@
       <c r="M26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="2"/>
+        <v>399115</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="3"/>
+        <v>335359</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="5"/>
+        <v>-4</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="6"/>
+        <v>967123</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="7"/>
+        <v>964960</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="8"/>
+        <v>-3</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="9"/>
+        <v>-4</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="10"/>
+        <v>-3</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="12"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>31</v>
       </c>
@@ -1550,8 +1789,59 @@
       <c r="M27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="2"/>
+        <v>178135</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="3"/>
+        <v>217932</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="6"/>
+        <v>488924</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="7"/>
+        <v>482446</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="11"/>
+        <v>-3</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="12"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
@@ -1591,8 +1881,59 @@
       <c r="M28">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="2"/>
+        <v>92447</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="3"/>
+        <v>83419</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="4"/>
+        <v>-5</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="6"/>
+        <v>224247</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="7"/>
+        <v>293335</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="10"/>
+        <v>-4</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>33</v>
       </c>
@@ -1632,8 +1973,59 @@
       <c r="M29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="2"/>
+        <v>49548</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="3"/>
+        <v>40617</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="5"/>
+        <v>-6</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="6"/>
+        <v>103403</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="7"/>
+        <v>146890</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="8"/>
+        <v>-6</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="9"/>
+        <v>-5</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="10"/>
+        <v>-7</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="11"/>
+        <v>-7</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="12"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>34</v>
       </c>
@@ -1673,8 +2065,59 @@
       <c r="M30">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="2"/>
+        <v>30355</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="3"/>
+        <v>28378</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="4"/>
+        <v>-3</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="5"/>
+        <v>-6</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="6"/>
+        <v>73508</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="7"/>
+        <v>69371</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="9"/>
+        <v>-5</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="11"/>
+        <v>-6</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="12"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>35</v>
       </c>
@@ -1714,13 +2157,426 @@
       <c r="M31">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="2"/>
+        <v>12617</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="3"/>
+        <v>22240</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="4"/>
+        <v>-9</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="5"/>
+        <v>-5</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="6"/>
+        <v>63750</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="7"/>
+        <v>43749</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="8"/>
+        <v>-2</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="10"/>
+        <v>-5</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="12"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="O34" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q34">
+        <v>21</v>
+      </c>
+      <c r="R34">
+        <v>21</v>
+      </c>
+      <c r="U34">
+        <v>22</v>
+      </c>
+      <c r="V34">
+        <v>22</v>
+      </c>
+      <c r="Y34">
+        <v>23</v>
+      </c>
+      <c r="Z34">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="N35" t="s">
+        <v>58</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P35" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>2</v>
+      </c>
+      <c r="R35" s="3">
+        <v>3</v>
+      </c>
+      <c r="S35" s="3">
+        <v>4</v>
+      </c>
+      <c r="T35" s="3">
+        <v>5</v>
+      </c>
+      <c r="U35" s="3">
+        <v>6</v>
+      </c>
+      <c r="V35" s="3">
+        <v>7</v>
+      </c>
+      <c r="W35" s="3">
+        <v>8</v>
+      </c>
+      <c r="X35" s="3">
+        <v>9</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>10</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>11</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>57</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="N37">
+        <v>0.01</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q37" s="5">
+        <f>Q25/$N37</f>
+        <v>80455800</v>
+      </c>
+      <c r="R37" s="5">
+        <f>R25/$N37</f>
+        <v>84699600</v>
+      </c>
+      <c r="U37" s="5">
+        <f>U25/$N37</f>
+        <v>229143500</v>
+      </c>
+      <c r="V37" s="5">
+        <f>V25/$N37</f>
+        <v>202069200</v>
+      </c>
+      <c r="Y37" s="5">
+        <f>Y25/$N37</f>
+        <v>700</v>
+      </c>
+      <c r="Z37" s="5">
+        <f>Z25/$N37</f>
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="N38">
+        <f t="shared" ref="N38:N43" si="13">N37/2</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q38" s="5">
+        <f t="shared" ref="Q38:R38" si="14">Q26/$N38</f>
+        <v>79823000</v>
+      </c>
+      <c r="R38" s="5">
+        <f t="shared" si="14"/>
+        <v>67071800</v>
+      </c>
+      <c r="U38" s="5">
+        <f t="shared" ref="U38:V38" si="15">U26/$N38</f>
+        <v>193424600</v>
+      </c>
+      <c r="V38" s="5">
+        <f t="shared" si="15"/>
+        <v>192992000</v>
+      </c>
+      <c r="Y38" s="5">
+        <f t="shared" ref="Y38:Z38" si="16">Y26/$N38</f>
+        <v>-600</v>
+      </c>
+      <c r="Z38" s="5">
+        <f t="shared" si="16"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="N39">
+        <f t="shared" si="13"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q39" s="5">
+        <f t="shared" ref="Q39:R39" si="17">Q27/$N39</f>
+        <v>71254000</v>
+      </c>
+      <c r="R39" s="5">
+        <f t="shared" si="17"/>
+        <v>87172800</v>
+      </c>
+      <c r="U39" s="5">
+        <f t="shared" ref="U39:V39" si="18">U27/$N39</f>
+        <v>195569600</v>
+      </c>
+      <c r="V39" s="5">
+        <f t="shared" si="18"/>
+        <v>192978400</v>
+      </c>
+      <c r="Y39" s="5">
+        <f t="shared" ref="Y39:Z39" si="19">Y27/$N39</f>
+        <v>2000</v>
+      </c>
+      <c r="Z39" s="5">
+        <f t="shared" si="19"/>
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="N40">
+        <f t="shared" si="13"/>
+        <v>1.25E-3</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q40" s="5">
+        <f t="shared" ref="Q40:R40" si="20">Q28/$N40</f>
+        <v>73957600</v>
+      </c>
+      <c r="R40" s="5">
+        <f t="shared" si="20"/>
+        <v>66735200</v>
+      </c>
+      <c r="U40" s="5">
+        <f t="shared" ref="U40:V40" si="21">U28/$N40</f>
+        <v>179397600</v>
+      </c>
+      <c r="V40" s="5">
+        <f t="shared" si="21"/>
+        <v>234668000</v>
+      </c>
+      <c r="Y40" s="5">
+        <f t="shared" ref="Y40:Z40" si="22">Y28/$N40</f>
+        <v>-3200</v>
+      </c>
+      <c r="Z40" s="5">
+        <f t="shared" si="22"/>
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="N41">
+        <f t="shared" si="13"/>
+        <v>6.2500000000000001E-4</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q41" s="5">
+        <f t="shared" ref="Q41:R41" si="23">Q29/$N41</f>
+        <v>79276800</v>
+      </c>
+      <c r="R41" s="5">
+        <f t="shared" si="23"/>
+        <v>64987200</v>
+      </c>
+      <c r="U41" s="5">
+        <f t="shared" ref="U41:V41" si="24">U29/$N41</f>
+        <v>165444800</v>
+      </c>
+      <c r="V41" s="5">
+        <f t="shared" si="24"/>
+        <v>235024000</v>
+      </c>
+      <c r="Y41" s="5">
+        <f t="shared" ref="Y41:Z41" si="25">Y29/$N41</f>
+        <v>-11200</v>
+      </c>
+      <c r="Z41" s="5">
+        <f t="shared" si="25"/>
+        <v>-11200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="N42">
+        <f t="shared" si="13"/>
+        <v>3.1250000000000001E-4</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q42" s="5">
+        <f t="shared" ref="Q42:R42" si="26">Q30/$N42</f>
+        <v>97136000</v>
+      </c>
+      <c r="R42" s="5">
+        <f t="shared" si="26"/>
+        <v>90809600</v>
+      </c>
+      <c r="U42" s="5">
+        <f t="shared" ref="U42:V42" si="27">U30/$N42</f>
+        <v>235225600</v>
+      </c>
+      <c r="V42" s="5">
+        <f t="shared" si="27"/>
+        <v>221987200</v>
+      </c>
+      <c r="Y42" s="5">
+        <f t="shared" ref="Y42:Z42" si="28">Y30/$N42</f>
+        <v>3200</v>
+      </c>
+      <c r="Z42" s="5">
+        <f t="shared" si="28"/>
+        <v>-19200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="N43">
+        <f t="shared" si="13"/>
+        <v>1.5625E-4</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q43" s="5">
+        <f t="shared" ref="Q43:R43" si="29">Q31/$N43</f>
+        <v>80748800</v>
+      </c>
+      <c r="R43" s="5">
+        <f t="shared" si="29"/>
+        <v>142336000</v>
+      </c>
+      <c r="U43" s="5">
+        <f t="shared" ref="U43:V43" si="30">U31/$N43</f>
+        <v>408000000</v>
+      </c>
+      <c r="V43" s="5">
+        <f t="shared" si="30"/>
+        <v>279993600</v>
+      </c>
+      <c r="Y43" s="5">
+        <f t="shared" ref="Y43:Z43" si="31">Y31/$N43</f>
+        <v>-32000</v>
+      </c>
+      <c r="Z43" s="5">
+        <f t="shared" si="31"/>
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="Q44" t="s">
+        <v>64</v>
+      </c>
+      <c r="U44" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="Q45" s="5">
+        <f>AVERAGE(Q37:Q43)</f>
+        <v>80378857.142857149</v>
+      </c>
+      <c r="R45" s="5">
+        <f>AVERAGE(R37:R43)</f>
+        <v>86258885.714285716</v>
+      </c>
+      <c r="U45" s="5">
+        <f>AVERAGE(U37:U43)</f>
+        <v>229457957.14285713</v>
+      </c>
+      <c r="V45" s="5">
+        <f>AVERAGE(V37:V43)</f>
+        <v>222816057.14285713</v>
+      </c>
+      <c r="Y45" s="5">
+        <f>AVERAGE(Y37:Y43)</f>
+        <v>-5871.4285714285716</v>
+      </c>
+      <c r="Z45" s="5">
+        <f>AVERAGE(Z37:Z43)</f>
+        <v>-2771.4285714285716</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="Q46" t="s">
+        <v>65</v>
+      </c>
+      <c r="U46" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="Q47" s="5">
+        <f>AVERAGE(Q45:R45)</f>
+        <v>83318871.428571433</v>
+      </c>
+      <c r="U47" s="5">
+        <f>AVERAGE(U45:V45)</f>
+        <v>226137007.14285713</v>
+      </c>
+      <c r="Y47" s="5">
+        <f>AVERAGE(Y45:Z45)</f>
+        <v>-4321.4285714285716</v>
       </c>
     </row>
   </sheetData>
@@ -1731,10 +2587,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE0FE0C5-4B20-4A31-800C-BDC3CDA40DD1}">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:AA47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="P49" sqref="P49:P52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1821,7 +2677,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1829,7 +2685,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1840,7 +2696,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1851,7 +2707,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1859,12 +2715,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
@@ -1904,8 +2763,50 @@
       <c r="M23" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P23" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>2</v>
+      </c>
+      <c r="R23" s="3">
+        <v>3</v>
+      </c>
+      <c r="S23" s="3">
+        <v>4</v>
+      </c>
+      <c r="T23" s="3">
+        <v>5</v>
+      </c>
+      <c r="U23" s="3">
+        <v>6</v>
+      </c>
+      <c r="V23" s="3">
+        <v>7</v>
+      </c>
+      <c r="W23" s="3">
+        <v>8</v>
+      </c>
+      <c r="X23" s="3">
+        <v>9</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>10</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>11</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
@@ -1945,8 +2846,63 @@
       <c r="M24">
         <v>-1</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N24">
+        <f>AVERAGE(B24:M24)</f>
+        <v>6.416666666666667</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24">
+        <f>B24-$N$24</f>
+        <v>3.583333333333333</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" ref="Q24:AA31" si="0">C24-$N$24</f>
+        <v>-1.416666666666667</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="0"/>
+        <v>2.583333333333333</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="0"/>
+        <v>-0.41666666666666696</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="0"/>
+        <v>4.583333333333333</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="0"/>
+        <v>-5.416666666666667</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="0"/>
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="0"/>
+        <v>3.583333333333333</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="0"/>
+        <v>3.583333333333333</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="0"/>
+        <v>-2.416666666666667</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="0"/>
+        <v>-1.416666666666667</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="0"/>
+        <v>-7.416666666666667</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>29</v>
       </c>
@@ -1986,8 +2942,59 @@
       <c r="M25">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P25">
+        <f t="shared" ref="P25:P31" si="1">B25-$N$24</f>
+        <v>1662.5833333333333</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="0"/>
+        <v>-3.416666666666667</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="0"/>
+        <v>8.5833333333333321</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="0"/>
+        <v>3640439.5833333335</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="0"/>
+        <v>3659399.5833333335</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="0"/>
+        <v>18.583333333333332</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="0"/>
+        <v>7313025.583333333</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="0"/>
+        <v>7047815.583333333</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="0"/>
+        <v>-3.416666666666667</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="0"/>
+        <v>435265.58333333331</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="0"/>
+        <v>423745.58333333331</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="0"/>
+        <v>-2.416666666666667</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>30</v>
       </c>
@@ -2027,8 +3034,59 @@
       <c r="M26">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="1"/>
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="0"/>
+        <v>-2.416666666666667</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="0"/>
+        <v>2.583333333333333</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="0"/>
+        <v>1638483.5833333333</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="0"/>
+        <v>1590933.5833333333</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="0"/>
+        <v>7.583333333333333</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="0"/>
+        <v>3197656.5833333335</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="0"/>
+        <v>3008697.5833333335</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="0"/>
+        <v>10.583333333333332</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="0"/>
+        <v>210351.58333333334</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="0"/>
+        <v>219740.58333333334</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="0"/>
+        <v>1.583333333333333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>31</v>
       </c>
@@ -2068,8 +3126,59 @@
       <c r="M27">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="1"/>
+        <v>-2.416666666666667</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="0"/>
+        <v>-3.416666666666667</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="0"/>
+        <v>-3.416666666666667</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="0"/>
+        <v>864148.58333333337</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="0"/>
+        <v>810260.58333333337</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="0"/>
+        <v>77.583333333333329</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="0"/>
+        <v>1436336.5833333333</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="0"/>
+        <v>1408315.5833333333</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="0"/>
+        <v>29.583333333333332</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="0"/>
+        <v>104641.58333333333</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="0"/>
+        <v>129918.58333333333</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="0"/>
+        <v>-1.416666666666667</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
@@ -2109,8 +3218,59 @@
       <c r="M28">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="1"/>
+        <v>-5.416666666666667</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="0"/>
+        <v>1.583333333333333</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="0"/>
+        <v>2.583333333333333</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="0"/>
+        <v>385465.58333333331</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="0"/>
+        <v>382854.58333333331</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="0"/>
+        <v>-6.416666666666667</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="0"/>
+        <v>679507.58333333337</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="0"/>
+        <v>676583.58333333337</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="0"/>
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="0"/>
+        <v>54030.583333333336</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="0"/>
+        <v>56544.583333333336</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="0"/>
+        <v>-0.41666666666666696</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>33</v>
       </c>
@@ -2150,8 +3310,59 @@
       <c r="M29">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="1"/>
+        <v>-4.416666666666667</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="0"/>
+        <v>-2.416666666666667</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="0"/>
+        <v>-5.416666666666667</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="0"/>
+        <v>168560.58333333334</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="0"/>
+        <v>222317.58333333334</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="0"/>
+        <v>-5.416666666666667</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="0"/>
+        <v>337211.58333333331</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="0"/>
+        <v>338049.58333333331</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="0"/>
+        <v>-0.41666666666666696</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="0"/>
+        <v>16844.583333333332</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="0"/>
+        <v>20986.583333333332</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="0"/>
+        <v>-2.416666666666667</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>34</v>
       </c>
@@ -2191,8 +3402,59 @@
       <c r="M30">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="1"/>
+        <v>-3.416666666666667</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="0"/>
+        <v>-6.416666666666667</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="0"/>
+        <v>-6.416666666666667</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="0"/>
+        <v>89888.583333333328</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="0"/>
+        <v>125779.58333333333</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="0"/>
+        <v>-3.416666666666667</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="0"/>
+        <v>187950.58333333334</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="0"/>
+        <v>179609.58333333334</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="0"/>
+        <v>4.583333333333333</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="0"/>
+        <v>4625.583333333333</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="0"/>
+        <v>11816.583333333334</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="0"/>
+        <v>1.583333333333333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>35</v>
       </c>
@@ -2232,13 +3494,514 @@
       <c r="M31">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="1"/>
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="0"/>
+        <v>-4.416666666666667</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="0"/>
+        <v>-6.416666666666667</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="0"/>
+        <v>62925.583333333336</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="0"/>
+        <v>83226.583333333328</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="0"/>
+        <v>-6.416666666666667</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="0"/>
+        <v>138965.58333333334</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="0"/>
+        <v>141853.58333333334</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="0"/>
+        <v>-3.416666666666667</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="0"/>
+        <v>2827.5833333333335</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="0"/>
+        <v>17816.583333333332</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="0"/>
+        <v>-2.416666666666667</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="O34" t="s">
+        <v>60</v>
+      </c>
+      <c r="P34">
+        <v>17</v>
+      </c>
+      <c r="Q34">
+        <v>17</v>
+      </c>
+      <c r="S34">
+        <v>18</v>
+      </c>
+      <c r="T34">
+        <v>18</v>
+      </c>
+      <c r="V34">
+        <v>19</v>
+      </c>
+      <c r="W34">
+        <v>19</v>
+      </c>
+      <c r="Y34">
+        <v>20</v>
+      </c>
+      <c r="Z34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="N35" t="s">
+        <v>58</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P35" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>2</v>
+      </c>
+      <c r="R35" s="3">
+        <v>3</v>
+      </c>
+      <c r="S35" s="3">
+        <v>4</v>
+      </c>
+      <c r="T35" s="3">
+        <v>5</v>
+      </c>
+      <c r="U35" s="3">
+        <v>6</v>
+      </c>
+      <c r="V35" s="3">
+        <v>7</v>
+      </c>
+      <c r="W35" s="3">
+        <v>8</v>
+      </c>
+      <c r="X35" s="3">
+        <v>9</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>10</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>11</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>53</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="L37" s="5"/>
+      <c r="N37">
+        <v>0.01</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P37" s="5">
+        <f>P25/$N37</f>
+        <v>166258.33333333331</v>
+      </c>
+      <c r="Q37" s="5">
+        <f>Q25/$N37</f>
+        <v>-341.66666666666669</v>
+      </c>
+      <c r="S37" s="5">
+        <f>S25/$N37</f>
+        <v>364043958.33333331</v>
+      </c>
+      <c r="T37" s="5">
+        <f>T25/$N37</f>
+        <v>365939958.33333331</v>
+      </c>
+      <c r="V37" s="5">
+        <f>V25/$N37</f>
+        <v>731302558.33333325</v>
+      </c>
+      <c r="W37" s="5">
+        <f>W25/$N37</f>
+        <v>704781558.33333325</v>
+      </c>
+      <c r="Y37" s="5">
+        <f>Y25/$N37</f>
+        <v>43526558.333333328</v>
+      </c>
+      <c r="Z37" s="5">
+        <f>Z25/$N37</f>
+        <v>42374558.333333328</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="L38" s="5"/>
+      <c r="N38">
+        <f t="shared" ref="N38:N43" si="2">N37/2</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P38" s="5">
+        <f t="shared" ref="P38:Q43" si="3">P26/$N38</f>
+        <v>116.6666666666666</v>
+      </c>
+      <c r="Q38" s="5">
+        <f t="shared" si="3"/>
+        <v>-483.33333333333337</v>
+      </c>
+      <c r="S38" s="5">
+        <f t="shared" ref="S38:T43" si="4">S26/$N38</f>
+        <v>327696716.66666663</v>
+      </c>
+      <c r="T38" s="5">
+        <f t="shared" si="4"/>
+        <v>318186716.66666663</v>
+      </c>
+      <c r="V38" s="5">
+        <f t="shared" ref="V38:W38" si="5">V26/$N38</f>
+        <v>639531316.66666663</v>
+      </c>
+      <c r="W38" s="5">
+        <f t="shared" si="5"/>
+        <v>601739516.66666663</v>
+      </c>
+      <c r="Y38" s="5">
+        <f t="shared" ref="Y38:Z43" si="6">Y26/$N38</f>
+        <v>42070316.666666664</v>
+      </c>
+      <c r="Z38" s="5">
+        <f t="shared" si="6"/>
+        <v>43948116.666666664</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="L39" s="5"/>
+      <c r="N39">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P39" s="5">
+        <f t="shared" si="3"/>
+        <v>-966.66666666666674</v>
+      </c>
+      <c r="Q39" s="5">
+        <f t="shared" si="3"/>
+        <v>-1366.6666666666667</v>
+      </c>
+      <c r="S39" s="5">
+        <f t="shared" si="4"/>
+        <v>345659433.33333331</v>
+      </c>
+      <c r="T39" s="5">
+        <f t="shared" si="4"/>
+        <v>324104233.33333331</v>
+      </c>
+      <c r="V39" s="5">
+        <f t="shared" ref="V39:W39" si="7">V27/$N39</f>
+        <v>574534633.33333325</v>
+      </c>
+      <c r="W39" s="5">
+        <f t="shared" si="7"/>
+        <v>563326233.33333325</v>
+      </c>
+      <c r="Y39" s="5">
+        <f t="shared" si="6"/>
+        <v>41856633.333333328</v>
+      </c>
+      <c r="Z39" s="5">
+        <f t="shared" si="6"/>
+        <v>51967433.333333328</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="L40" s="5"/>
+      <c r="N40">
+        <f t="shared" si="2"/>
+        <v>1.25E-3</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P40" s="5">
+        <f t="shared" si="3"/>
+        <v>-4333.333333333333</v>
+      </c>
+      <c r="Q40" s="5">
+        <f t="shared" si="3"/>
+        <v>1266.6666666666665</v>
+      </c>
+      <c r="S40" s="5">
+        <f t="shared" si="4"/>
+        <v>308372466.66666663</v>
+      </c>
+      <c r="T40" s="5">
+        <f t="shared" si="4"/>
+        <v>306283666.66666663</v>
+      </c>
+      <c r="V40" s="5">
+        <f t="shared" ref="V40:W40" si="8">V28/$N40</f>
+        <v>543606066.66666663</v>
+      </c>
+      <c r="W40" s="5">
+        <f t="shared" si="8"/>
+        <v>541266866.66666663</v>
+      </c>
+      <c r="Y40" s="5">
+        <f t="shared" si="6"/>
+        <v>43224466.666666664</v>
+      </c>
+      <c r="Z40" s="5">
+        <f t="shared" si="6"/>
+        <v>45235666.666666664</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="L41" s="5"/>
+      <c r="N41">
+        <f t="shared" si="2"/>
+        <v>6.2500000000000001E-4</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P41" s="5">
+        <f t="shared" si="3"/>
+        <v>-7066.666666666667</v>
+      </c>
+      <c r="Q41" s="5">
+        <f t="shared" si="3"/>
+        <v>-3866.666666666667</v>
+      </c>
+      <c r="S41" s="5">
+        <f t="shared" si="4"/>
+        <v>269696933.33333331</v>
+      </c>
+      <c r="T41" s="5">
+        <f t="shared" si="4"/>
+        <v>355708133.33333331</v>
+      </c>
+      <c r="V41" s="5">
+        <f t="shared" ref="V41:W41" si="9">V29/$N41</f>
+        <v>539538533.33333325</v>
+      </c>
+      <c r="W41" s="5">
+        <f t="shared" si="9"/>
+        <v>540879333.33333325</v>
+      </c>
+      <c r="Y41" s="5">
+        <f t="shared" si="6"/>
+        <v>26951333.333333332</v>
+      </c>
+      <c r="Z41" s="5">
+        <f t="shared" si="6"/>
+        <v>33578533.333333328</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="L42" s="5"/>
+      <c r="N42">
+        <f t="shared" si="2"/>
+        <v>3.1250000000000001E-4</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P42" s="5">
+        <f t="shared" si="3"/>
+        <v>-10933.333333333334</v>
+      </c>
+      <c r="Q42" s="5">
+        <f t="shared" si="3"/>
+        <v>-20533.333333333332</v>
+      </c>
+      <c r="S42" s="5">
+        <f t="shared" si="4"/>
+        <v>287643466.66666663</v>
+      </c>
+      <c r="T42" s="5">
+        <f t="shared" si="4"/>
+        <v>402494666.66666663</v>
+      </c>
+      <c r="V42" s="5">
+        <f t="shared" ref="V42:W42" si="10">V30/$N42</f>
+        <v>601441866.66666663</v>
+      </c>
+      <c r="W42" s="5">
+        <f t="shared" si="10"/>
+        <v>574750666.66666663</v>
+      </c>
+      <c r="Y42" s="5">
+        <f t="shared" si="6"/>
+        <v>14801866.666666666</v>
+      </c>
+      <c r="Z42" s="5">
+        <f t="shared" si="6"/>
+        <v>37813066.666666664</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="L43" s="5"/>
+      <c r="N43">
+        <f t="shared" si="2"/>
+        <v>1.5625E-4</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P43" s="5">
+        <f t="shared" si="3"/>
+        <v>3733.3333333333312</v>
+      </c>
+      <c r="Q43" s="5">
+        <f t="shared" si="3"/>
+        <v>-28266.666666666668</v>
+      </c>
+      <c r="S43" s="5">
+        <f t="shared" si="4"/>
+        <v>402723733.33333331</v>
+      </c>
+      <c r="T43" s="5">
+        <f t="shared" si="4"/>
+        <v>532650133.33333331</v>
+      </c>
+      <c r="V43" s="5">
+        <f t="shared" ref="V43:W43" si="11">V31/$N43</f>
+        <v>889379733.33333337</v>
+      </c>
+      <c r="W43" s="5">
+        <f t="shared" si="11"/>
+        <v>907862933.33333337</v>
+      </c>
+      <c r="Y43" s="5">
+        <f t="shared" si="6"/>
+        <v>18096533.333333332</v>
+      </c>
+      <c r="Z43" s="5">
+        <f t="shared" si="6"/>
+        <v>114026133.33333333</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="P44" t="s">
+        <v>64</v>
+      </c>
+      <c r="S44" t="s">
+        <v>64</v>
+      </c>
+      <c r="V44" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="L45" s="5"/>
+      <c r="P45" s="5">
+        <f>AVERAGE(P37:P43)</f>
+        <v>20972.619047619046</v>
+      </c>
+      <c r="Q45" s="5">
+        <f>AVERAGE(Q37:Q43)</f>
+        <v>-7655.9523809523816</v>
+      </c>
+      <c r="S45" s="5">
+        <f>AVERAGE(S37:S43)</f>
+        <v>329405244.04761904</v>
+      </c>
+      <c r="T45" s="5">
+        <f>AVERAGE(T37:T43)</f>
+        <v>372195358.33333337</v>
+      </c>
+      <c r="V45" s="5">
+        <f>AVERAGE(V37:V43)</f>
+        <v>645619244.04761899</v>
+      </c>
+      <c r="W45" s="5">
+        <f>AVERAGE(W37:W43)</f>
+        <v>633515301.19047618</v>
+      </c>
+      <c r="Y45" s="5">
+        <f>AVERAGE(Y37:Y43)</f>
+        <v>32932529.761904765</v>
+      </c>
+      <c r="Z45" s="5">
+        <f>AVERAGE(Z37:Z43)</f>
+        <v>52706215.47619047</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="P46" t="s">
+        <v>65</v>
+      </c>
+      <c r="S46" t="s">
+        <v>65</v>
+      </c>
+      <c r="V46" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="P47" s="5">
+        <f>AVERAGE(P45:Q45)</f>
+        <v>6658.3333333333321</v>
+      </c>
+      <c r="S47" s="5">
+        <f>AVERAGE(S45:T45)</f>
+        <v>350800301.19047618</v>
+      </c>
+      <c r="V47" s="5">
+        <f>AVERAGE(V45:W45)</f>
+        <v>639567272.61904764</v>
+      </c>
+      <c r="Y47" s="5">
+        <f>AVERAGE(Y45:Z45)</f>
+        <v>42819372.619047619</v>
       </c>
     </row>
   </sheetData>
@@ -2249,10 +4012,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88FD1ECF-0FCF-4686-86B8-8928FDB7A442}">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:AA47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="P50" sqref="P50:P53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2339,7 +4102,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2347,7 +4110,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -2358,7 +4121,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -2369,7 +4132,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -2377,12 +4140,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
@@ -2422,8 +4188,50 @@
       <c r="M23" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P23" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>2</v>
+      </c>
+      <c r="R23" s="3">
+        <v>3</v>
+      </c>
+      <c r="S23" s="3">
+        <v>4</v>
+      </c>
+      <c r="T23" s="3">
+        <v>5</v>
+      </c>
+      <c r="U23" s="3">
+        <v>6</v>
+      </c>
+      <c r="V23" s="3">
+        <v>7</v>
+      </c>
+      <c r="W23" s="3">
+        <v>8</v>
+      </c>
+      <c r="X23" s="3">
+        <v>9</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>10</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>11</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
@@ -2463,8 +4271,63 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N24">
+        <f>AVERAGE(B24:M24)</f>
+        <v>4</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24">
+        <f>B24-$N$24</f>
+        <v>2</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" ref="Q24:AA31" si="0">C24-$N$24</f>
+        <v>4</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="0"/>
+        <v>-8</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>29</v>
       </c>
@@ -2504,8 +4367,59 @@
       <c r="M25">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P25">
+        <f t="shared" ref="P25:P31" si="1">B25-$N$24</f>
+        <v>1621271</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="0"/>
+        <v>1459667</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="0"/>
+        <v>64130</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="0"/>
+        <v>62964</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="0"/>
+        <v>292188</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="0"/>
+        <v>338233</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="0"/>
+        <v>1662979</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="0"/>
+        <v>1837887</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>30</v>
       </c>
@@ -2545,8 +4459,59 @@
       <c r="M26">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="1"/>
+        <v>850316</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="0"/>
+        <v>553222</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="0"/>
+        <v>16535</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="0"/>
+        <v>33529</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="0"/>
+        <v>162250</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="0"/>
+        <v>147498</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="0"/>
+        <v>722927</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="0"/>
+        <v>893939</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>31</v>
       </c>
@@ -2586,8 +4551,59 @@
       <c r="M27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="1"/>
+        <v>415056</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="0"/>
+        <v>316560</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="0"/>
+        <v>8146</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="0"/>
+        <v>5676</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="0"/>
+        <v>71576</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="0"/>
+        <v>61617</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="0"/>
+        <v>457258</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="0"/>
+        <v>414738</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
@@ -2627,8 +4643,59 @@
       <c r="M28">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="1"/>
+        <v>215641</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="0"/>
+        <v>159188</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="0"/>
+        <v>6133</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="0"/>
+        <v>14459</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="0"/>
+        <v>45124</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="0"/>
+        <v>43190</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="0"/>
+        <v>211357</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="0"/>
+        <v>235136</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>33</v>
       </c>
@@ -2668,8 +4735,59 @@
       <c r="M29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="1"/>
+        <v>84257</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="0"/>
+        <v>103081</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="0"/>
+        <v>3243</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="0"/>
+        <v>12080</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="0"/>
+        <v>9273</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="0"/>
+        <v>19884</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="0"/>
+        <v>96573</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="0"/>
+        <v>112416</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>34</v>
       </c>
@@ -2709,8 +4827,59 @@
       <c r="M30">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="1"/>
+        <v>72711</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="0"/>
+        <v>62297</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="0"/>
+        <v>288</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="0"/>
+        <v>3192</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="0"/>
+        <v>6340</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="0"/>
+        <v>9320</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="0"/>
+        <v>61852</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="0"/>
+        <v>54532</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>35</v>
       </c>
@@ -2750,13 +4919,506 @@
       <c r="M31">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="1"/>
+        <v>23194</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="0"/>
+        <v>38865</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="0"/>
+        <v>754</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="0"/>
+        <v>194</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="0"/>
+        <v>7018</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="0"/>
+        <v>6795</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="0"/>
+        <v>39034</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="0"/>
+        <v>51609</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="O34" t="s">
+        <v>60</v>
+      </c>
+      <c r="P34">
+        <v>13</v>
+      </c>
+      <c r="Q34">
+        <v>13</v>
+      </c>
+      <c r="S34">
+        <v>14</v>
+      </c>
+      <c r="T34">
+        <v>14</v>
+      </c>
+      <c r="V34">
+        <v>15</v>
+      </c>
+      <c r="W34">
+        <v>15</v>
+      </c>
+      <c r="Y34">
+        <v>16</v>
+      </c>
+      <c r="Z34">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="N35" t="s">
+        <v>58</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P35" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>2</v>
+      </c>
+      <c r="R35" s="3">
+        <v>3</v>
+      </c>
+      <c r="S35" s="3">
+        <v>4</v>
+      </c>
+      <c r="T35" s="3">
+        <v>5</v>
+      </c>
+      <c r="U35" s="3">
+        <v>6</v>
+      </c>
+      <c r="V35" s="3">
+        <v>7</v>
+      </c>
+      <c r="W35" s="3">
+        <v>8</v>
+      </c>
+      <c r="X35" s="3">
+        <v>9</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>10</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>11</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>49</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="N37">
+        <v>0.01</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P37" s="5">
+        <f>P25/$N37</f>
+        <v>162127100</v>
+      </c>
+      <c r="Q37" s="5">
+        <f>Q25/$N37</f>
+        <v>145966700</v>
+      </c>
+      <c r="S37" s="5">
+        <f>S25/$N37</f>
+        <v>6413000</v>
+      </c>
+      <c r="T37" s="5">
+        <f>T25/$N37</f>
+        <v>6296400</v>
+      </c>
+      <c r="V37" s="5">
+        <f>V25/$N37</f>
+        <v>29218800</v>
+      </c>
+      <c r="W37" s="5">
+        <f>W25/$N37</f>
+        <v>33823300</v>
+      </c>
+      <c r="Y37" s="5">
+        <f>Y25/$N37</f>
+        <v>166297900</v>
+      </c>
+      <c r="Z37" s="5">
+        <f>Z25/$N37</f>
+        <v>183788700</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="N38">
+        <f t="shared" ref="N38:N43" si="2">N37/2</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P38" s="5">
+        <f t="shared" ref="P38:Q43" si="3">P26/$N38</f>
+        <v>170063200</v>
+      </c>
+      <c r="Q38" s="5">
+        <f t="shared" si="3"/>
+        <v>110644400</v>
+      </c>
+      <c r="S38" s="5">
+        <f t="shared" ref="S38:T43" si="4">S26/$N38</f>
+        <v>3307000</v>
+      </c>
+      <c r="T38" s="5">
+        <f t="shared" si="4"/>
+        <v>6705800</v>
+      </c>
+      <c r="V38" s="5">
+        <f t="shared" ref="V38:W43" si="5">V26/$N38</f>
+        <v>32450000</v>
+      </c>
+      <c r="W38" s="5">
+        <f t="shared" si="5"/>
+        <v>29499600</v>
+      </c>
+      <c r="Y38" s="5">
+        <f t="shared" ref="Y38:Z43" si="6">Y26/$N38</f>
+        <v>144585400</v>
+      </c>
+      <c r="Z38" s="5">
+        <f t="shared" si="6"/>
+        <v>178787800</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="N39">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P39" s="5">
+        <f t="shared" si="3"/>
+        <v>166022400</v>
+      </c>
+      <c r="Q39" s="5">
+        <f t="shared" si="3"/>
+        <v>126624000</v>
+      </c>
+      <c r="S39" s="5">
+        <f t="shared" si="4"/>
+        <v>3258400</v>
+      </c>
+      <c r="T39" s="5">
+        <f t="shared" si="4"/>
+        <v>2270400</v>
+      </c>
+      <c r="V39" s="5">
+        <f t="shared" si="5"/>
+        <v>28630400</v>
+      </c>
+      <c r="W39" s="5">
+        <f t="shared" si="5"/>
+        <v>24646800</v>
+      </c>
+      <c r="Y39" s="5">
+        <f t="shared" si="6"/>
+        <v>182903200</v>
+      </c>
+      <c r="Z39" s="5">
+        <f t="shared" si="6"/>
+        <v>165895200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="N40">
+        <f t="shared" si="2"/>
+        <v>1.25E-3</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P40" s="5">
+        <f t="shared" si="3"/>
+        <v>172512800</v>
+      </c>
+      <c r="Q40" s="5">
+        <f t="shared" si="3"/>
+        <v>127350400</v>
+      </c>
+      <c r="S40" s="5">
+        <f t="shared" si="4"/>
+        <v>4906400</v>
+      </c>
+      <c r="T40" s="5">
+        <f t="shared" si="4"/>
+        <v>11567200</v>
+      </c>
+      <c r="V40" s="5">
+        <f t="shared" si="5"/>
+        <v>36099200</v>
+      </c>
+      <c r="W40" s="5">
+        <f t="shared" si="5"/>
+        <v>34552000</v>
+      </c>
+      <c r="Y40" s="5">
+        <f t="shared" si="6"/>
+        <v>169085600</v>
+      </c>
+      <c r="Z40" s="5">
+        <f t="shared" si="6"/>
+        <v>188108800</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="N41">
+        <f t="shared" si="2"/>
+        <v>6.2500000000000001E-4</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P41" s="5">
+        <f t="shared" si="3"/>
+        <v>134811200</v>
+      </c>
+      <c r="Q41" s="5">
+        <f t="shared" si="3"/>
+        <v>164929600</v>
+      </c>
+      <c r="S41" s="5">
+        <f t="shared" si="4"/>
+        <v>5188800</v>
+      </c>
+      <c r="T41" s="5">
+        <f t="shared" si="4"/>
+        <v>19328000</v>
+      </c>
+      <c r="V41" s="5">
+        <f t="shared" si="5"/>
+        <v>14836800</v>
+      </c>
+      <c r="W41" s="5">
+        <f t="shared" si="5"/>
+        <v>31814400</v>
+      </c>
+      <c r="Y41" s="5">
+        <f t="shared" si="6"/>
+        <v>154516800</v>
+      </c>
+      <c r="Z41" s="5">
+        <f t="shared" si="6"/>
+        <v>179865600</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="N42">
+        <f t="shared" si="2"/>
+        <v>3.1250000000000001E-4</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P42" s="5">
+        <f t="shared" si="3"/>
+        <v>232675200</v>
+      </c>
+      <c r="Q42" s="5">
+        <f t="shared" si="3"/>
+        <v>199350400</v>
+      </c>
+      <c r="S42" s="5">
+        <f t="shared" si="4"/>
+        <v>921600</v>
+      </c>
+      <c r="T42" s="5">
+        <f t="shared" si="4"/>
+        <v>10214400</v>
+      </c>
+      <c r="V42" s="5">
+        <f t="shared" si="5"/>
+        <v>20288000</v>
+      </c>
+      <c r="W42" s="5">
+        <f t="shared" si="5"/>
+        <v>29824000</v>
+      </c>
+      <c r="Y42" s="5">
+        <f t="shared" si="6"/>
+        <v>197926400</v>
+      </c>
+      <c r="Z42" s="5">
+        <f t="shared" si="6"/>
+        <v>174502400</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="N43">
+        <f t="shared" si="2"/>
+        <v>1.5625E-4</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P43" s="5">
+        <f t="shared" si="3"/>
+        <v>148441600</v>
+      </c>
+      <c r="Q43" s="5">
+        <f t="shared" si="3"/>
+        <v>248736000</v>
+      </c>
+      <c r="S43" s="5">
+        <f t="shared" si="4"/>
+        <v>4825600</v>
+      </c>
+      <c r="T43" s="5">
+        <f t="shared" si="4"/>
+        <v>1241600</v>
+      </c>
+      <c r="V43" s="5">
+        <f t="shared" si="5"/>
+        <v>44915200</v>
+      </c>
+      <c r="W43" s="5">
+        <f t="shared" si="5"/>
+        <v>43488000</v>
+      </c>
+      <c r="Y43" s="5">
+        <f t="shared" si="6"/>
+        <v>249817600</v>
+      </c>
+      <c r="Z43" s="5">
+        <f t="shared" si="6"/>
+        <v>330297600</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="P44" t="s">
+        <v>64</v>
+      </c>
+      <c r="S44" t="s">
+        <v>64</v>
+      </c>
+      <c r="V44" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="P45" s="5">
+        <f>AVERAGE(P37:P43)</f>
+        <v>169521928.57142857</v>
+      </c>
+      <c r="Q45" s="5">
+        <f>AVERAGE(Q37:Q43)</f>
+        <v>160514500</v>
+      </c>
+      <c r="S45" s="5">
+        <f>AVERAGE(S37:S43)</f>
+        <v>4117257.1428571427</v>
+      </c>
+      <c r="T45" s="5">
+        <f>AVERAGE(T37:T43)</f>
+        <v>8231971.4285714282</v>
+      </c>
+      <c r="V45" s="5">
+        <f>AVERAGE(V37:V43)</f>
+        <v>29491200</v>
+      </c>
+      <c r="W45" s="5">
+        <f>AVERAGE(W37:W43)</f>
+        <v>32521157.142857142</v>
+      </c>
+      <c r="Y45" s="5">
+        <f>AVERAGE(Y37:Y43)</f>
+        <v>180733271.42857143</v>
+      </c>
+      <c r="Z45" s="5">
+        <f>AVERAGE(Z37:Z43)</f>
+        <v>200178014.2857143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="P46" t="s">
+        <v>65</v>
+      </c>
+      <c r="S46" t="s">
+        <v>65</v>
+      </c>
+      <c r="V46" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="P47" s="5">
+        <f>AVERAGE(P45:Q45)</f>
+        <v>165018214.28571427</v>
+      </c>
+      <c r="S47" s="5">
+        <f>AVERAGE(S45:T45)</f>
+        <v>6174614.2857142854</v>
+      </c>
+      <c r="V47" s="5">
+        <f>AVERAGE(V45:W45)</f>
+        <v>31006178.571428571</v>
+      </c>
+      <c r="Y47" s="5">
+        <f>AVERAGE(Y45:Z45)</f>
+        <v>190455642.85714287</v>
       </c>
     </row>
   </sheetData>
@@ -2767,9 +5429,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9057604-2C4E-4E98-AF9F-A64A93960B03}">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:AA47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="P49" sqref="P49:P52"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -2855,7 +5519,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2863,7 +5527,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -2874,7 +5538,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -2885,7 +5549,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -2893,12 +5557,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
@@ -2938,8 +5605,50 @@
       <c r="M23" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P23" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>2</v>
+      </c>
+      <c r="R23" s="3">
+        <v>3</v>
+      </c>
+      <c r="S23" s="3">
+        <v>4</v>
+      </c>
+      <c r="T23" s="3">
+        <v>5</v>
+      </c>
+      <c r="U23" s="3">
+        <v>6</v>
+      </c>
+      <c r="V23" s="3">
+        <v>7</v>
+      </c>
+      <c r="W23" s="3">
+        <v>8</v>
+      </c>
+      <c r="X23" s="3">
+        <v>9</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>10</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>11</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
@@ -2979,8 +5688,63 @@
       <c r="M24">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N24">
+        <f>AVERAGE(B24:M24)</f>
+        <v>5</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24">
+        <f>B24-$N$24</f>
+        <v>2</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" ref="Q24:AA31" si="0">C24-$N$24</f>
+        <v>-1</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>29</v>
       </c>
@@ -3020,8 +5784,59 @@
       <c r="M25">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P25">
+        <f t="shared" ref="P25:P31" si="1">B25-$N$24</f>
+        <v>3293493</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="0"/>
+        <v>3648068</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="0"/>
+        <v>5048150</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="0"/>
+        <v>4794372</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="0"/>
+        <v>431200</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="0"/>
+        <v>409461</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="0"/>
+        <v>4015405</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="0"/>
+        <v>4314477</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>30</v>
       </c>
@@ -3061,8 +5876,59 @@
       <c r="M26">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="1"/>
+        <v>2082297</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="0"/>
+        <v>1976328</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="0"/>
+        <v>2209795</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="0"/>
+        <v>2214547</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="0"/>
+        <v>174097</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="0"/>
+        <v>216016</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="0"/>
+        <v>1697730</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="0"/>
+        <v>1831754</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>31</v>
       </c>
@@ -3102,8 +5968,59 @@
       <c r="M27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="1"/>
+        <v>1064813</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="0"/>
+        <v>956725</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="0"/>
+        <v>1148821</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="0"/>
+        <v>1024824</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="0"/>
+        <v>95855</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="0"/>
+        <v>93883</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="0"/>
+        <v>838638</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="0"/>
+        <v>817479</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
@@ -3143,8 +6060,59 @@
       <c r="M28">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="1"/>
+        <v>549837</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="0"/>
+        <v>477466</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="0"/>
+        <v>496624</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="0"/>
+        <v>607503</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="0"/>
+        <v>50941</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="0"/>
+        <v>41289</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="0"/>
+        <v>440656</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="0"/>
+        <v>479161</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>33</v>
       </c>
@@ -3184,8 +6152,59 @@
       <c r="M29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="1"/>
+        <v>276507</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="0"/>
+        <v>231136</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="0"/>
+        <v>303842</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="0"/>
+        <v>338403</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="0"/>
+        <v>14405</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="0"/>
+        <v>32045</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="0"/>
+        <v>238092</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="0"/>
+        <v>242899</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>34</v>
       </c>
@@ -3225,8 +6244,59 @@
       <c r="M30">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="1"/>
+        <v>147890</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="0"/>
+        <v>131354</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="0"/>
+        <v>152724</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="0"/>
+        <v>109812</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="0"/>
+        <v>18865</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="0"/>
+        <v>15212</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="0"/>
+        <v>137450</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="0"/>
+        <v>101164</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>35</v>
       </c>
@@ -3266,13 +6336,506 @@
       <c r="M31">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="1"/>
+        <v>60678</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="0"/>
+        <v>76079</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="0"/>
+        <v>88943</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="0"/>
+        <v>96172</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="0"/>
+        <v>4398</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="0"/>
+        <v>10737</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="0"/>
+        <v>66930</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="0"/>
+        <v>90585</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="O34" t="s">
+        <v>60</v>
+      </c>
+      <c r="P34">
+        <v>9</v>
+      </c>
+      <c r="Q34">
+        <v>9</v>
+      </c>
+      <c r="S34">
+        <v>10</v>
+      </c>
+      <c r="T34">
+        <v>10</v>
+      </c>
+      <c r="V34">
+        <v>11</v>
+      </c>
+      <c r="W34">
+        <v>11</v>
+      </c>
+      <c r="Y34">
+        <v>12</v>
+      </c>
+      <c r="Z34">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="N35" t="s">
+        <v>58</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P35" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>2</v>
+      </c>
+      <c r="R35" s="3">
+        <v>3</v>
+      </c>
+      <c r="S35" s="3">
+        <v>4</v>
+      </c>
+      <c r="T35" s="3">
+        <v>5</v>
+      </c>
+      <c r="U35" s="3">
+        <v>6</v>
+      </c>
+      <c r="V35" s="3">
+        <v>7</v>
+      </c>
+      <c r="W35" s="3">
+        <v>8</v>
+      </c>
+      <c r="X35" s="3">
+        <v>9</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>10</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>11</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>45</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="N37">
+        <v>0.01</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P37" s="5">
+        <f>P25/$N37</f>
+        <v>329349300</v>
+      </c>
+      <c r="Q37" s="5">
+        <f>Q25/$N37</f>
+        <v>364806800</v>
+      </c>
+      <c r="S37" s="5">
+        <f>S25/$N37</f>
+        <v>504815000</v>
+      </c>
+      <c r="T37" s="5">
+        <f>T25/$N37</f>
+        <v>479437200</v>
+      </c>
+      <c r="V37" s="5">
+        <f>V25/$N37</f>
+        <v>43120000</v>
+      </c>
+      <c r="W37" s="5">
+        <f>W25/$N37</f>
+        <v>40946100</v>
+      </c>
+      <c r="Y37" s="5">
+        <f>Y25/$N37</f>
+        <v>401540500</v>
+      </c>
+      <c r="Z37" s="5">
+        <f>Z25/$N37</f>
+        <v>431447700</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="N38">
+        <f t="shared" ref="N38:N43" si="2">N37/2</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P38" s="5">
+        <f t="shared" ref="P38:Q43" si="3">P26/$N38</f>
+        <v>416459400</v>
+      </c>
+      <c r="Q38" s="5">
+        <f t="shared" si="3"/>
+        <v>395265600</v>
+      </c>
+      <c r="S38" s="5">
+        <f t="shared" ref="S38:T43" si="4">S26/$N38</f>
+        <v>441959000</v>
+      </c>
+      <c r="T38" s="5">
+        <f t="shared" si="4"/>
+        <v>442909400</v>
+      </c>
+      <c r="V38" s="5">
+        <f t="shared" ref="V38:W43" si="5">V26/$N38</f>
+        <v>34819400</v>
+      </c>
+      <c r="W38" s="5">
+        <f t="shared" si="5"/>
+        <v>43203200</v>
+      </c>
+      <c r="Y38" s="5">
+        <f t="shared" ref="Y38:Z43" si="6">Y26/$N38</f>
+        <v>339546000</v>
+      </c>
+      <c r="Z38" s="5">
+        <f t="shared" si="6"/>
+        <v>366350800</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="N39">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P39" s="5">
+        <f t="shared" si="3"/>
+        <v>425925200</v>
+      </c>
+      <c r="Q39" s="5">
+        <f t="shared" si="3"/>
+        <v>382690000</v>
+      </c>
+      <c r="S39" s="5">
+        <f t="shared" si="4"/>
+        <v>459528400</v>
+      </c>
+      <c r="T39" s="5">
+        <f t="shared" si="4"/>
+        <v>409929600</v>
+      </c>
+      <c r="V39" s="5">
+        <f t="shared" si="5"/>
+        <v>38342000</v>
+      </c>
+      <c r="W39" s="5">
+        <f t="shared" si="5"/>
+        <v>37553200</v>
+      </c>
+      <c r="Y39" s="5">
+        <f t="shared" si="6"/>
+        <v>335455200</v>
+      </c>
+      <c r="Z39" s="5">
+        <f t="shared" si="6"/>
+        <v>326991600</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="N40">
+        <f t="shared" si="2"/>
+        <v>1.25E-3</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P40" s="5">
+        <f t="shared" si="3"/>
+        <v>439869600</v>
+      </c>
+      <c r="Q40" s="5">
+        <f t="shared" si="3"/>
+        <v>381972800</v>
+      </c>
+      <c r="S40" s="5">
+        <f t="shared" si="4"/>
+        <v>397299200</v>
+      </c>
+      <c r="T40" s="5">
+        <f t="shared" si="4"/>
+        <v>486002400</v>
+      </c>
+      <c r="V40" s="5">
+        <f t="shared" si="5"/>
+        <v>40752800</v>
+      </c>
+      <c r="W40" s="5">
+        <f t="shared" si="5"/>
+        <v>33031200</v>
+      </c>
+      <c r="Y40" s="5">
+        <f t="shared" si="6"/>
+        <v>352524800</v>
+      </c>
+      <c r="Z40" s="5">
+        <f t="shared" si="6"/>
+        <v>383328800</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="N41">
+        <f t="shared" si="2"/>
+        <v>6.2500000000000001E-4</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P41" s="5">
+        <f t="shared" si="3"/>
+        <v>442411200</v>
+      </c>
+      <c r="Q41" s="5">
+        <f t="shared" si="3"/>
+        <v>369817600</v>
+      </c>
+      <c r="S41" s="5">
+        <f t="shared" si="4"/>
+        <v>486147200</v>
+      </c>
+      <c r="T41" s="5">
+        <f t="shared" si="4"/>
+        <v>541444800</v>
+      </c>
+      <c r="V41" s="5">
+        <f t="shared" si="5"/>
+        <v>23048000</v>
+      </c>
+      <c r="W41" s="5">
+        <f t="shared" si="5"/>
+        <v>51272000</v>
+      </c>
+      <c r="Y41" s="5">
+        <f t="shared" si="6"/>
+        <v>380947200</v>
+      </c>
+      <c r="Z41" s="5">
+        <f t="shared" si="6"/>
+        <v>388638400</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="N42">
+        <f t="shared" si="2"/>
+        <v>3.1250000000000001E-4</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P42" s="5">
+        <f t="shared" si="3"/>
+        <v>473248000</v>
+      </c>
+      <c r="Q42" s="5">
+        <f t="shared" si="3"/>
+        <v>420332800</v>
+      </c>
+      <c r="S42" s="5">
+        <f t="shared" si="4"/>
+        <v>488716800</v>
+      </c>
+      <c r="T42" s="5">
+        <f t="shared" si="4"/>
+        <v>351398400</v>
+      </c>
+      <c r="V42" s="5">
+        <f t="shared" si="5"/>
+        <v>60368000</v>
+      </c>
+      <c r="W42" s="5">
+        <f t="shared" si="5"/>
+        <v>48678400</v>
+      </c>
+      <c r="Y42" s="5">
+        <f t="shared" si="6"/>
+        <v>439840000</v>
+      </c>
+      <c r="Z42" s="5">
+        <f t="shared" si="6"/>
+        <v>323724800</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="N43">
+        <f t="shared" si="2"/>
+        <v>1.5625E-4</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P43" s="5">
+        <f t="shared" si="3"/>
+        <v>388339200</v>
+      </c>
+      <c r="Q43" s="5">
+        <f t="shared" si="3"/>
+        <v>486905600</v>
+      </c>
+      <c r="S43" s="5">
+        <f t="shared" si="4"/>
+        <v>569235200</v>
+      </c>
+      <c r="T43" s="5">
+        <f t="shared" si="4"/>
+        <v>615500800</v>
+      </c>
+      <c r="V43" s="5">
+        <f t="shared" si="5"/>
+        <v>28147200</v>
+      </c>
+      <c r="W43" s="5">
+        <f t="shared" si="5"/>
+        <v>68716800</v>
+      </c>
+      <c r="Y43" s="5">
+        <f t="shared" si="6"/>
+        <v>428352000</v>
+      </c>
+      <c r="Z43" s="5">
+        <f t="shared" si="6"/>
+        <v>579744000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="P44" t="s">
+        <v>64</v>
+      </c>
+      <c r="S44" t="s">
+        <v>64</v>
+      </c>
+      <c r="V44" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="P45" s="5">
+        <f>AVERAGE(P37:P43)</f>
+        <v>416514557.14285713</v>
+      </c>
+      <c r="Q45" s="5">
+        <f>AVERAGE(Q37:Q43)</f>
+        <v>400255885.71428573</v>
+      </c>
+      <c r="S45" s="5">
+        <f>AVERAGE(S37:S43)</f>
+        <v>478242971.4285714</v>
+      </c>
+      <c r="T45" s="5">
+        <f>AVERAGE(T37:T43)</f>
+        <v>475231800</v>
+      </c>
+      <c r="V45" s="5">
+        <f>AVERAGE(V37:V43)</f>
+        <v>38371057.142857142</v>
+      </c>
+      <c r="W45" s="5">
+        <f>AVERAGE(W37:W43)</f>
+        <v>46200128.571428575</v>
+      </c>
+      <c r="Y45" s="5">
+        <f>AVERAGE(Y37:Y43)</f>
+        <v>382600814.28571427</v>
+      </c>
+      <c r="Z45" s="5">
+        <f>AVERAGE(Z37:Z43)</f>
+        <v>400032300</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="P46" t="s">
+        <v>65</v>
+      </c>
+      <c r="S46" t="s">
+        <v>65</v>
+      </c>
+      <c r="V46" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="P47" s="5">
+        <f>AVERAGE(P45:Q45)</f>
+        <v>408385221.42857146</v>
+      </c>
+      <c r="S47" s="5">
+        <f>AVERAGE(S45:T45)</f>
+        <v>476737385.71428573</v>
+      </c>
+      <c r="V47" s="5">
+        <f>AVERAGE(V45:W45)</f>
+        <v>42285592.857142858</v>
+      </c>
+      <c r="Y47" s="5">
+        <f>AVERAGE(Y45:Z45)</f>
+        <v>391316557.14285713</v>
       </c>
     </row>
   </sheetData>
@@ -3283,9 +6846,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63EFB9D7-6E60-4C2D-8098-FCA035AB52BF}">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:AA47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="P49" sqref="P49:P52"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -3371,7 +6936,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -3379,7 +6944,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -3390,7 +6955,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -3401,7 +6966,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -3409,12 +6974,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
@@ -3454,8 +7022,50 @@
       <c r="M23" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P23" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>2</v>
+      </c>
+      <c r="R23" s="3">
+        <v>3</v>
+      </c>
+      <c r="S23" s="3">
+        <v>4</v>
+      </c>
+      <c r="T23" s="3">
+        <v>5</v>
+      </c>
+      <c r="U23" s="3">
+        <v>6</v>
+      </c>
+      <c r="V23" s="3">
+        <v>7</v>
+      </c>
+      <c r="W23" s="3">
+        <v>8</v>
+      </c>
+      <c r="X23" s="3">
+        <v>9</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>10</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>11</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
@@ -3495,8 +7105,63 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N24">
+        <f>MAX(0, AVERAGE(B24:M24))</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24">
+        <f>B24-$N$24</f>
+        <v>-3</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" ref="Q24:AA31" si="0">C24-$N$24</f>
+        <v>-1</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>29</v>
       </c>
@@ -3536,8 +7201,59 @@
       <c r="M25">
         <v>-6</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P25">
+        <f t="shared" ref="P25:P31" si="1">B25-$N$24</f>
+        <v>2942782</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="0"/>
+        <v>2588953</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="0"/>
+        <v>1123663</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="0"/>
+        <v>954722</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="0"/>
+        <v>472663</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="0"/>
+        <v>435249</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="0"/>
+        <v>465951</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="0"/>
+        <v>473945</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>30</v>
       </c>
@@ -3577,8 +7293,59 @@
       <c r="M26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="1"/>
+        <v>1375626</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="0"/>
+        <v>1016591</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="0"/>
+        <v>536871</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="0"/>
+        <v>559965</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="0"/>
+        <v>215862</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="0"/>
+        <v>211406</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="0"/>
+        <v>248876</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="0"/>
+        <v>235268</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>31</v>
       </c>
@@ -3618,8 +7385,59 @@
       <c r="M27">
         <v>-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="1"/>
+        <v>757047</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="0"/>
+        <v>615331</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="0"/>
+        <v>284545</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="0"/>
+        <v>282980</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="0"/>
+        <v>127259</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="0"/>
+        <v>103277</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="0"/>
+        <v>102315</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="0"/>
+        <v>97570</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
@@ -3659,8 +7477,59 @@
       <c r="M28">
         <v>-7</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="1"/>
+        <v>339679</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="0"/>
+        <v>295432</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="0"/>
+        <v>150649</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="0"/>
+        <v>135728</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="0"/>
+        <v>39127</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="0"/>
+        <v>70470</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="0"/>
+        <v>72824</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="0"/>
+        <v>43031</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>33</v>
       </c>
@@ -3700,8 +7569,59 @@
       <c r="M29">
         <v>-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="1"/>
+        <v>200576</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="0"/>
+        <v>143854</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="0"/>
+        <v>65482</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="0"/>
+        <v>78607</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="0"/>
+        <v>20974</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="0"/>
+        <v>18878</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="0"/>
+        <v>10087</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="0"/>
+        <v>19865</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>34</v>
       </c>
@@ -3741,8 +7661,59 @@
       <c r="M30">
         <v>-5</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="1"/>
+        <v>87095</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="0"/>
+        <v>62764</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="0"/>
+        <v>26603</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="0"/>
+        <v>34206</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="0"/>
+        <v>6221</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="0"/>
+        <v>12742</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="0"/>
+        <v>17243</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="0"/>
+        <v>6293</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>35</v>
       </c>
@@ -3782,13 +7753,506 @@
       <c r="M31">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="1"/>
+        <v>55187</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="0"/>
+        <v>27903</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="0"/>
+        <v>14915</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="0"/>
+        <v>26129</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="0"/>
+        <v>8033</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="0"/>
+        <v>13368</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="0"/>
+        <v>10856</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="0"/>
+        <v>8250</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="O34" t="s">
+        <v>60</v>
+      </c>
+      <c r="P34">
+        <v>5</v>
+      </c>
+      <c r="Q34">
+        <v>5</v>
+      </c>
+      <c r="S34">
+        <v>6</v>
+      </c>
+      <c r="T34">
+        <v>6</v>
+      </c>
+      <c r="V34">
+        <v>7</v>
+      </c>
+      <c r="W34">
+        <v>7</v>
+      </c>
+      <c r="Y34">
+        <v>8</v>
+      </c>
+      <c r="Z34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="N35" t="s">
+        <v>58</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P35" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>2</v>
+      </c>
+      <c r="R35" s="3">
+        <v>3</v>
+      </c>
+      <c r="S35" s="3">
+        <v>4</v>
+      </c>
+      <c r="T35" s="3">
+        <v>5</v>
+      </c>
+      <c r="U35" s="3">
+        <v>6</v>
+      </c>
+      <c r="V35" s="3">
+        <v>7</v>
+      </c>
+      <c r="W35" s="3">
+        <v>8</v>
+      </c>
+      <c r="X35" s="3">
+        <v>9</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>10</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>11</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>41</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="N37">
+        <v>0.01</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P37" s="5">
+        <f>P25/$N37</f>
+        <v>294278200</v>
+      </c>
+      <c r="Q37" s="5">
+        <f>Q25/$N37</f>
+        <v>258895300</v>
+      </c>
+      <c r="S37" s="5">
+        <f>S25/$N37</f>
+        <v>112366300</v>
+      </c>
+      <c r="T37" s="5">
+        <f>T25/$N37</f>
+        <v>95472200</v>
+      </c>
+      <c r="V37" s="5">
+        <f>V25/$N37</f>
+        <v>47266300</v>
+      </c>
+      <c r="W37" s="5">
+        <f>W25/$N37</f>
+        <v>43524900</v>
+      </c>
+      <c r="Y37" s="5">
+        <f>Y25/$N37</f>
+        <v>46595100</v>
+      </c>
+      <c r="Z37" s="5">
+        <f>Z25/$N37</f>
+        <v>47394500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="N38">
+        <f t="shared" ref="N38:N43" si="2">N37/2</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P38" s="5">
+        <f>P26/$N38</f>
+        <v>275125200</v>
+      </c>
+      <c r="Q38" s="5">
+        <f t="shared" ref="P38:Q43" si="3">Q26/$N38</f>
+        <v>203318200</v>
+      </c>
+      <c r="S38" s="5">
+        <f t="shared" ref="S38:T43" si="4">S26/$N38</f>
+        <v>107374200</v>
+      </c>
+      <c r="T38" s="5">
+        <f t="shared" si="4"/>
+        <v>111993000</v>
+      </c>
+      <c r="V38" s="5">
+        <f t="shared" ref="V38:W43" si="5">V26/$N38</f>
+        <v>43172400</v>
+      </c>
+      <c r="W38" s="5">
+        <f t="shared" si="5"/>
+        <v>42281200</v>
+      </c>
+      <c r="Y38" s="5">
+        <f t="shared" ref="Y38:Z43" si="6">Y26/$N38</f>
+        <v>49775200</v>
+      </c>
+      <c r="Z38" s="5">
+        <f t="shared" si="6"/>
+        <v>47053600</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="N39">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P39" s="5">
+        <f t="shared" si="3"/>
+        <v>302818800</v>
+      </c>
+      <c r="Q39" s="5">
+        <f t="shared" si="3"/>
+        <v>246132400</v>
+      </c>
+      <c r="S39" s="5">
+        <f t="shared" si="4"/>
+        <v>113818000</v>
+      </c>
+      <c r="T39" s="5">
+        <f t="shared" si="4"/>
+        <v>113192000</v>
+      </c>
+      <c r="V39" s="5">
+        <f t="shared" si="5"/>
+        <v>50903600</v>
+      </c>
+      <c r="W39" s="5">
+        <f t="shared" si="5"/>
+        <v>41310800</v>
+      </c>
+      <c r="Y39" s="5">
+        <f t="shared" si="6"/>
+        <v>40926000</v>
+      </c>
+      <c r="Z39" s="5">
+        <f t="shared" si="6"/>
+        <v>39028000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="N40">
+        <f t="shared" si="2"/>
+        <v>1.25E-3</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P40" s="5">
+        <f t="shared" si="3"/>
+        <v>271743200</v>
+      </c>
+      <c r="Q40" s="5">
+        <f t="shared" si="3"/>
+        <v>236345600</v>
+      </c>
+      <c r="S40" s="5">
+        <f t="shared" si="4"/>
+        <v>120519200</v>
+      </c>
+      <c r="T40" s="5">
+        <f t="shared" si="4"/>
+        <v>108582400</v>
+      </c>
+      <c r="V40" s="5">
+        <f t="shared" si="5"/>
+        <v>31301600</v>
+      </c>
+      <c r="W40" s="5">
+        <f t="shared" si="5"/>
+        <v>56376000</v>
+      </c>
+      <c r="Y40" s="5">
+        <f t="shared" si="6"/>
+        <v>58259200</v>
+      </c>
+      <c r="Z40" s="5">
+        <f t="shared" si="6"/>
+        <v>34424800</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="N41">
+        <f t="shared" si="2"/>
+        <v>6.2500000000000001E-4</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P41" s="5">
+        <f t="shared" si="3"/>
+        <v>320921600</v>
+      </c>
+      <c r="Q41" s="5">
+        <f t="shared" si="3"/>
+        <v>230166400</v>
+      </c>
+      <c r="S41" s="5">
+        <f t="shared" si="4"/>
+        <v>104771200</v>
+      </c>
+      <c r="T41" s="5">
+        <f t="shared" si="4"/>
+        <v>125771200</v>
+      </c>
+      <c r="V41" s="5">
+        <f t="shared" si="5"/>
+        <v>33558400</v>
+      </c>
+      <c r="W41" s="5">
+        <f t="shared" si="5"/>
+        <v>30204800</v>
+      </c>
+      <c r="Y41" s="5">
+        <f t="shared" si="6"/>
+        <v>16139200</v>
+      </c>
+      <c r="Z41" s="5">
+        <f t="shared" si="6"/>
+        <v>31784000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="N42">
+        <f t="shared" si="2"/>
+        <v>3.1250000000000001E-4</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P42" s="5">
+        <f t="shared" si="3"/>
+        <v>278704000</v>
+      </c>
+      <c r="Q42" s="5">
+        <f t="shared" si="3"/>
+        <v>200844800</v>
+      </c>
+      <c r="S42" s="5">
+        <f t="shared" si="4"/>
+        <v>85129600</v>
+      </c>
+      <c r="T42" s="5">
+        <f t="shared" si="4"/>
+        <v>109459200</v>
+      </c>
+      <c r="V42" s="5">
+        <f t="shared" si="5"/>
+        <v>19907200</v>
+      </c>
+      <c r="W42" s="5">
+        <f t="shared" si="5"/>
+        <v>40774400</v>
+      </c>
+      <c r="Y42" s="5">
+        <f t="shared" si="6"/>
+        <v>55177600</v>
+      </c>
+      <c r="Z42" s="5">
+        <f t="shared" si="6"/>
+        <v>20137600</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="N43">
+        <f t="shared" si="2"/>
+        <v>1.5625E-4</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P43" s="5">
+        <f t="shared" si="3"/>
+        <v>353196800</v>
+      </c>
+      <c r="Q43" s="5">
+        <f t="shared" si="3"/>
+        <v>178579200</v>
+      </c>
+      <c r="S43" s="5">
+        <f t="shared" si="4"/>
+        <v>95456000</v>
+      </c>
+      <c r="T43" s="5">
+        <f t="shared" si="4"/>
+        <v>167225600</v>
+      </c>
+      <c r="V43" s="5">
+        <f t="shared" si="5"/>
+        <v>51411200</v>
+      </c>
+      <c r="W43" s="5">
+        <f t="shared" si="5"/>
+        <v>85555200</v>
+      </c>
+      <c r="Y43" s="5">
+        <f t="shared" si="6"/>
+        <v>69478400</v>
+      </c>
+      <c r="Z43" s="5">
+        <f t="shared" si="6"/>
+        <v>52800000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="P44" t="s">
+        <v>64</v>
+      </c>
+      <c r="S44" t="s">
+        <v>64</v>
+      </c>
+      <c r="V44" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="P45" s="5">
+        <f>AVERAGE(P37:P43)</f>
+        <v>299541114.28571427</v>
+      </c>
+      <c r="Q45" s="5">
+        <f>AVERAGE(Q37:Q43)</f>
+        <v>222040271.42857143</v>
+      </c>
+      <c r="S45" s="5">
+        <f>AVERAGE(S37:S43)</f>
+        <v>105633500</v>
+      </c>
+      <c r="T45" s="5">
+        <f>AVERAGE(T37:T43)</f>
+        <v>118813657.14285715</v>
+      </c>
+      <c r="V45" s="5">
+        <f>AVERAGE(V37:V43)</f>
+        <v>39645814.285714284</v>
+      </c>
+      <c r="W45" s="5">
+        <f>AVERAGE(W37:W43)</f>
+        <v>48575328.571428575</v>
+      </c>
+      <c r="Y45" s="5">
+        <f>AVERAGE(Y37:Y43)</f>
+        <v>48050100</v>
+      </c>
+      <c r="Z45" s="5">
+        <f>AVERAGE(Z37:Z43)</f>
+        <v>38946071.428571425</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="P46" t="s">
+        <v>65</v>
+      </c>
+      <c r="S46" t="s">
+        <v>65</v>
+      </c>
+      <c r="V46" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="P47" s="5">
+        <f>AVERAGE(P45:Q45)</f>
+        <v>260790692.85714287</v>
+      </c>
+      <c r="S47" s="5">
+        <f>AVERAGE(S45:T45)</f>
+        <v>112223578.57142857</v>
+      </c>
+      <c r="V47" s="5">
+        <f>AVERAGE(V45:W45)</f>
+        <v>44110571.428571433</v>
+      </c>
+      <c r="Y47" s="5">
+        <f>AVERAGE(Y45:Z45)</f>
+        <v>43498085.714285716</v>
       </c>
     </row>
   </sheetData>
@@ -3799,10 +8263,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27FE5241-38BE-4DAB-B42C-1399CFD01C4D}">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:AA47"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="V48" sqref="V48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3889,7 +8353,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -3897,7 +8361,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -3908,7 +8372,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -3919,7 +8383,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -3927,12 +8391,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
@@ -3972,8 +8439,50 @@
       <c r="M23" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P23" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>2</v>
+      </c>
+      <c r="R23" s="3">
+        <v>3</v>
+      </c>
+      <c r="S23" s="3">
+        <v>4</v>
+      </c>
+      <c r="T23" s="3">
+        <v>5</v>
+      </c>
+      <c r="U23" s="3">
+        <v>6</v>
+      </c>
+      <c r="V23" s="3">
+        <v>7</v>
+      </c>
+      <c r="W23" s="3">
+        <v>8</v>
+      </c>
+      <c r="X23" s="3">
+        <v>9</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>10</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>11</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
@@ -4013,8 +8522,63 @@
       <c r="M24">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N24">
+        <f>MAX(0, AVERAGE(B24:M24))</f>
+        <v>2.25</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24">
+        <f>B24-$N$24</f>
+        <v>1.75</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" ref="Q24:AA31" si="0">C24-$N$24</f>
+        <v>2.75</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="0"/>
+        <v>-2.25</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="0"/>
+        <v>-1.25</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="0"/>
+        <v>-0.25</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="0"/>
+        <v>-3.25</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="0"/>
+        <v>4.75</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="0"/>
+        <v>-5.25</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="0"/>
+        <v>-1.25</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="0"/>
+        <v>-1.25</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="0"/>
+        <v>-0.25</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="0"/>
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>29</v>
       </c>
@@ -4054,8 +8618,59 @@
       <c r="M25">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P25">
+        <f t="shared" ref="P25:P31" si="1">B25-$N$24</f>
+        <v>3981606.75</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="0"/>
+        <v>3937160.75</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="0"/>
+        <v>1765696.75</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="0"/>
+        <v>1799840.75</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="0"/>
+        <v>2924562.75</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="0"/>
+        <v>2087433.75</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="0"/>
+        <v>-2.25</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="0"/>
+        <v>663224.75</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="0"/>
+        <v>624483.75</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>30</v>
       </c>
@@ -4095,8 +8710,59 @@
       <c r="M26">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="1"/>
+        <v>1920669.75</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="0"/>
+        <v>1866718.75</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="0"/>
+        <v>1.75</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="0"/>
+        <v>971865.75</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="0"/>
+        <v>949709.75</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="0"/>
+        <v>7.75</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="0"/>
+        <v>1553452.75</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="0"/>
+        <v>1128645.75</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="0"/>
+        <v>5.75</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="0"/>
+        <v>323458.75</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="0"/>
+        <v>351509.75</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="0"/>
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>31</v>
       </c>
@@ -4136,8 +8802,59 @@
       <c r="M27">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="1"/>
+        <v>959042.75</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="0"/>
+        <v>838207.75</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="0"/>
+        <v>7.75</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="0"/>
+        <v>416445.75</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="0"/>
+        <v>453675.75</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="0"/>
+        <v>2.75</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="0"/>
+        <v>710630.75</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="0"/>
+        <v>527935.75</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="0"/>
+        <v>8.75</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="0"/>
+        <v>125413.75</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="0"/>
+        <v>136326.75</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="0"/>
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
@@ -4177,8 +8894,59 @@
       <c r="M28">
         <v>-5</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="1"/>
+        <v>521030.75</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="0"/>
+        <v>472085.75</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="0"/>
+        <v>2.75</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="0"/>
+        <v>233499.75</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="0"/>
+        <v>260490.75</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="0"/>
+        <v>5.75</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="0"/>
+        <v>357095.75</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="0"/>
+        <v>250694.75</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="0"/>
+        <v>-1.25</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="0"/>
+        <v>95087.75</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="0"/>
+        <v>56967.75</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="0"/>
+        <v>-7.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>33</v>
       </c>
@@ -4218,8 +8986,59 @@
       <c r="M29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="1"/>
+        <v>217041.75</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="0"/>
+        <v>221566.75</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="0"/>
+        <v>-3.25</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="0"/>
+        <v>118481.75</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="0"/>
+        <v>93285.75</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="0"/>
+        <v>-0.25</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="0"/>
+        <v>193816.75</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="0"/>
+        <v>122335.75</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="0"/>
+        <v>50593.75</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="0"/>
+        <v>28432.75</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="0"/>
+        <v>-2.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>34</v>
       </c>
@@ -4259,8 +9078,59 @@
       <c r="M30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="1"/>
+        <v>157138.75</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="0"/>
+        <v>112031.75</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="0"/>
+        <v>-4.25</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="0"/>
+        <v>70644.75</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="0"/>
+        <v>73468.75</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="0"/>
+        <v>-1.25</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="0"/>
+        <v>93707.75</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="0"/>
+        <v>47524.75</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="0"/>
+        <v>2.75</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="0"/>
+        <v>25953.75</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="0"/>
+        <v>13452.75</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="0"/>
+        <v>-2.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>35</v>
       </c>
@@ -4300,13 +9170,506 @@
       <c r="M31">
         <v>-3</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="1"/>
+        <v>57919.75</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="0"/>
+        <v>64394.75</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="0"/>
+        <v>1.75</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="0"/>
+        <v>50252.75</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="0"/>
+        <v>32653.75</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="0"/>
+        <v>-2.25</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="0"/>
+        <v>54408.75</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="0"/>
+        <v>40127.75</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="0"/>
+        <v>-1.25</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="0"/>
+        <v>13963.75</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="0"/>
+        <v>7685.75</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="0"/>
+        <v>-5.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="O34" t="s">
+        <v>60</v>
+      </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>1</v>
+      </c>
+      <c r="S34">
+        <v>2</v>
+      </c>
+      <c r="T34">
+        <v>2</v>
+      </c>
+      <c r="V34">
+        <v>3</v>
+      </c>
+      <c r="W34">
+        <v>3</v>
+      </c>
+      <c r="Y34">
+        <v>4</v>
+      </c>
+      <c r="Z34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="N35" t="s">
+        <v>58</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P35" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>2</v>
+      </c>
+      <c r="R35" s="3">
+        <v>3</v>
+      </c>
+      <c r="S35" s="3">
+        <v>4</v>
+      </c>
+      <c r="T35" s="3">
+        <v>5</v>
+      </c>
+      <c r="U35" s="3">
+        <v>6</v>
+      </c>
+      <c r="V35" s="3">
+        <v>7</v>
+      </c>
+      <c r="W35" s="3">
+        <v>8</v>
+      </c>
+      <c r="X35" s="3">
+        <v>9</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>10</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>11</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>37</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="N37">
+        <v>0.01</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P37" s="5">
+        <f>P25/$N37</f>
+        <v>398160675</v>
+      </c>
+      <c r="Q37" s="5">
+        <f>Q25/$N37</f>
+        <v>393716075</v>
+      </c>
+      <c r="S37" s="5">
+        <f>S25/$N37</f>
+        <v>176569675</v>
+      </c>
+      <c r="T37" s="5">
+        <f>T25/$N37</f>
+        <v>179984075</v>
+      </c>
+      <c r="V37" s="5">
+        <f>V25/$N37</f>
+        <v>292456275</v>
+      </c>
+      <c r="W37" s="5">
+        <f>W25/$N37</f>
+        <v>208743375</v>
+      </c>
+      <c r="Y37" s="5">
+        <f>Y25/$N37</f>
+        <v>66322475</v>
+      </c>
+      <c r="Z37" s="5">
+        <f>Z25/$N37</f>
+        <v>62448375</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="N38">
+        <f t="shared" ref="N38:N43" si="2">N37/2</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P38" s="5">
+        <f>P26/$N38</f>
+        <v>384133950</v>
+      </c>
+      <c r="Q38" s="5">
+        <f t="shared" ref="P38:R43" si="3">Q26/$N38</f>
+        <v>373343750</v>
+      </c>
+      <c r="S38" s="5">
+        <f t="shared" ref="S38:T43" si="4">S26/$N38</f>
+        <v>194373150</v>
+      </c>
+      <c r="T38" s="5">
+        <f t="shared" si="4"/>
+        <v>189941950</v>
+      </c>
+      <c r="V38" s="5">
+        <f t="shared" ref="V38:W43" si="5">V26/$N38</f>
+        <v>310690550</v>
+      </c>
+      <c r="W38" s="5">
+        <f t="shared" si="5"/>
+        <v>225729150</v>
+      </c>
+      <c r="Y38" s="5">
+        <f t="shared" ref="Y38:Z43" si="6">Y26/$N38</f>
+        <v>64691750</v>
+      </c>
+      <c r="Z38" s="5">
+        <f t="shared" si="6"/>
+        <v>70301950</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="N39">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P39" s="5">
+        <f t="shared" si="3"/>
+        <v>383617100</v>
+      </c>
+      <c r="Q39" s="5">
+        <f t="shared" si="3"/>
+        <v>335283100</v>
+      </c>
+      <c r="S39" s="5">
+        <f t="shared" si="4"/>
+        <v>166578300</v>
+      </c>
+      <c r="T39" s="5">
+        <f t="shared" si="4"/>
+        <v>181470300</v>
+      </c>
+      <c r="V39" s="5">
+        <f t="shared" si="5"/>
+        <v>284252300</v>
+      </c>
+      <c r="W39" s="5">
+        <f t="shared" si="5"/>
+        <v>211174300</v>
+      </c>
+      <c r="Y39" s="5">
+        <f t="shared" si="6"/>
+        <v>50165500</v>
+      </c>
+      <c r="Z39" s="5">
+        <f t="shared" si="6"/>
+        <v>54530700</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="N40">
+        <f t="shared" si="2"/>
+        <v>1.25E-3</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P40" s="5">
+        <f t="shared" si="3"/>
+        <v>416824600</v>
+      </c>
+      <c r="Q40" s="5">
+        <f t="shared" si="3"/>
+        <v>377668600</v>
+      </c>
+      <c r="S40" s="5">
+        <f t="shared" si="4"/>
+        <v>186799800</v>
+      </c>
+      <c r="T40" s="5">
+        <f t="shared" si="4"/>
+        <v>208392600</v>
+      </c>
+      <c r="V40" s="5">
+        <f t="shared" si="5"/>
+        <v>285676600</v>
+      </c>
+      <c r="W40" s="5">
+        <f t="shared" si="5"/>
+        <v>200555800</v>
+      </c>
+      <c r="Y40" s="5">
+        <f t="shared" si="6"/>
+        <v>76070200</v>
+      </c>
+      <c r="Z40" s="5">
+        <f t="shared" si="6"/>
+        <v>45574200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="N41">
+        <f t="shared" si="2"/>
+        <v>6.2500000000000001E-4</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P41" s="5">
+        <f t="shared" si="3"/>
+        <v>347266800</v>
+      </c>
+      <c r="Q41" s="5">
+        <f t="shared" si="3"/>
+        <v>354506800</v>
+      </c>
+      <c r="S41" s="5">
+        <f t="shared" si="4"/>
+        <v>189570800</v>
+      </c>
+      <c r="T41" s="5">
+        <f t="shared" si="4"/>
+        <v>149257200</v>
+      </c>
+      <c r="V41" s="5">
+        <f t="shared" si="5"/>
+        <v>310106800</v>
+      </c>
+      <c r="W41" s="5">
+        <f t="shared" si="5"/>
+        <v>195737200</v>
+      </c>
+      <c r="Y41" s="5">
+        <f t="shared" si="6"/>
+        <v>80950000</v>
+      </c>
+      <c r="Z41" s="5">
+        <f t="shared" si="6"/>
+        <v>45492400</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="N42">
+        <f t="shared" si="2"/>
+        <v>3.1250000000000001E-4</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P42" s="5">
+        <f t="shared" si="3"/>
+        <v>502844000</v>
+      </c>
+      <c r="Q42" s="5">
+        <f t="shared" si="3"/>
+        <v>358501600</v>
+      </c>
+      <c r="S42" s="5">
+        <f t="shared" si="4"/>
+        <v>226063200</v>
+      </c>
+      <c r="T42" s="5">
+        <f t="shared" si="4"/>
+        <v>235100000</v>
+      </c>
+      <c r="V42" s="5">
+        <f t="shared" si="5"/>
+        <v>299864800</v>
+      </c>
+      <c r="W42" s="5">
+        <f t="shared" si="5"/>
+        <v>152079200</v>
+      </c>
+      <c r="Y42" s="5">
+        <f t="shared" si="6"/>
+        <v>83052000</v>
+      </c>
+      <c r="Z42" s="5">
+        <f t="shared" si="6"/>
+        <v>43048800</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="N43">
+        <f t="shared" si="2"/>
+        <v>1.5625E-4</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P43" s="5">
+        <f t="shared" si="3"/>
+        <v>370686400</v>
+      </c>
+      <c r="Q43" s="5">
+        <f t="shared" si="3"/>
+        <v>412126400</v>
+      </c>
+      <c r="S43" s="5">
+        <f t="shared" si="4"/>
+        <v>321617600</v>
+      </c>
+      <c r="T43" s="5">
+        <f t="shared" si="4"/>
+        <v>208984000</v>
+      </c>
+      <c r="V43" s="5">
+        <f t="shared" si="5"/>
+        <v>348216000</v>
+      </c>
+      <c r="W43" s="5">
+        <f t="shared" si="5"/>
+        <v>256817600</v>
+      </c>
+      <c r="Y43" s="5">
+        <f t="shared" si="6"/>
+        <v>89368000</v>
+      </c>
+      <c r="Z43" s="5">
+        <f t="shared" si="6"/>
+        <v>49188800</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="P44" t="s">
+        <v>64</v>
+      </c>
+      <c r="S44" t="s">
+        <v>64</v>
+      </c>
+      <c r="V44" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="P45" s="5">
+        <f>AVERAGE(P37:P43)</f>
+        <v>400504789.28571427</v>
+      </c>
+      <c r="Q45" s="5">
+        <f>AVERAGE(Q37:Q43)</f>
+        <v>372163760.71428573</v>
+      </c>
+      <c r="S45" s="5">
+        <f>AVERAGE(S37:S43)</f>
+        <v>208796075</v>
+      </c>
+      <c r="T45" s="5">
+        <f>AVERAGE(T37:T43)</f>
+        <v>193304303.57142857</v>
+      </c>
+      <c r="V45" s="5">
+        <f>AVERAGE(V37:V43)</f>
+        <v>304466189.28571427</v>
+      </c>
+      <c r="W45" s="5">
+        <f>AVERAGE(W37:W43)</f>
+        <v>207262375</v>
+      </c>
+      <c r="Y45" s="5">
+        <f>AVERAGE(Y37:Y43)</f>
+        <v>72945703.571428567</v>
+      </c>
+      <c r="Z45" s="5">
+        <f>AVERAGE(Z37:Z43)</f>
+        <v>52940746.428571425</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="P46" t="s">
+        <v>65</v>
+      </c>
+      <c r="S46" t="s">
+        <v>65</v>
+      </c>
+      <c r="V46" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="P47" s="5">
+        <f>AVERAGE(P45:Q45)</f>
+        <v>386334275</v>
+      </c>
+      <c r="S47" s="5">
+        <f>AVERAGE(S45:T45)</f>
+        <v>201050189.28571427</v>
+      </c>
+      <c r="V47" s="5">
+        <f>AVERAGE(V45:W45)</f>
+        <v>255864282.14285713</v>
+      </c>
+      <c r="Y47" s="5">
+        <f>AVERAGE(Y45:Z45)</f>
+        <v>62943225</v>
       </c>
     </row>
   </sheetData>

--- a/experimental_validations/data/210125_mutvirus_titering_HAARVI.xlsx
+++ b/experimental_validations/data/210125_mutvirus_titering_HAARVI.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/fh/fast/bloom_j/computational_notebooks/kdusenbu/2021/SARS-CoV-2-RBD_MAP_HAARVI_sera/experimental_validations/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/fast/bloom_j/computational_notebooks/kdusenbu/2021/SARS-CoV-2-RBD_MAP_HAARVI_sera/experimental_validations/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32983409-5BC3-5D47-B6D8-E10C3B0F13A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42695A59-8FAB-5346-A1CD-06550C7872F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-36640" yWindow="1300" windowWidth="32780" windowHeight="17900" xr2:uid="{7C440C55-AA6A-41B3-88C0-D7663FC47812}"/>
   </bookViews>
@@ -51,7 +51,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.9.1.0
 Tecan.At.Common.DocumentManagement, 3.9.1.0
@@ -116,7 +116,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
 MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
@@ -145,7 +145,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.9.1.0
 Tecan.At.Common.DocumentManagement, 3.9.1.0
@@ -210,7 +210,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
 MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
@@ -239,7 +239,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.9.1.0
 Tecan.At.Common.DocumentManagement, 3.9.1.0
@@ -304,7 +304,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
 MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
@@ -333,7 +333,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.9.1.0
 Tecan.At.Common.DocumentManagement, 3.9.1.0
@@ -398,7 +398,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
 MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
@@ -427,7 +427,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.9.1.0
 Tecan.At.Common.DocumentManagement, 3.9.1.0
@@ -492,7 +492,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
 MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
@@ -521,7 +521,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.9.1.0
 Tecan.At.Common.DocumentManagement, 3.9.1.0
@@ -586,7 +586,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
 MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
@@ -602,7 +602,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="67">
   <si>
     <t>Application: Tecan i-control</t>
   </si>
@@ -787,9 +787,6 @@
     <t>Virus number</t>
   </si>
   <si>
-    <t>Use row-a cells only as background</t>
-  </si>
-  <si>
     <t>Avg. BG</t>
   </si>
   <si>
@@ -802,7 +799,10 @@
     <t>Avg of Avgs:</t>
   </si>
   <si>
-    <t>Use row A cells only as background (or 0 if row A avg. negative)</t>
+    <t>Background is essentially 0, do not subtract</t>
+  </si>
+  <si>
+    <t>Median</t>
   </si>
 </sst>
 </file>
@@ -836,7 +836,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1247,10 +1247,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE957DD-4B1E-4CF1-B789-C10DBCD6B09A}">
-  <dimension ref="A1:AA47"/>
+  <dimension ref="A1:AA49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="T56" sqref="P52:T56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1383,7 +1383,7 @@
         <v>56</v>
       </c>
       <c r="N22" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
@@ -1427,10 +1427,10 @@
         <v>12</v>
       </c>
       <c r="N23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O23" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="P23" s="3">
         <v>1</v>
@@ -1510,59 +1510,58 @@
         <v>6</v>
       </c>
       <c r="N24">
-        <f>AVERAGE(B24:M24)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>28</v>
       </c>
       <c r="P24">
         <f>B24-$N$24</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q24">
         <f t="shared" ref="Q24:AA24" si="0">C24-$N$24</f>
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="R24">
         <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="S24">
-        <f t="shared" si="0"/>
-        <v>-6</v>
-      </c>
       <c r="T24">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="U24">
         <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="V24">
-        <f t="shared" si="0"/>
-        <v>-6</v>
-      </c>
       <c r="W24">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="X24">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Y24">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="Z24">
         <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="0"/>
         <v>6</v>
-      </c>
-      <c r="AA24">
-        <f t="shared" si="0"/>
-        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
@@ -1610,51 +1609,51 @@
       </c>
       <c r="P25">
         <f t="shared" ref="P25:P31" si="1">B25-$N$24</f>
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Q25">
         <f t="shared" ref="Q25:Q31" si="2">C25-$N$24</f>
-        <v>804558</v>
+        <v>804563</v>
       </c>
       <c r="R25">
         <f t="shared" ref="R25:R31" si="3">D25-$N$24</f>
-        <v>846996</v>
+        <v>847001</v>
       </c>
       <c r="S25">
         <f t="shared" ref="S25:S31" si="4">E25-$N$24</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="T25">
         <f t="shared" ref="T25:T31" si="5">F25-$N$24</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U25">
         <f t="shared" ref="U25:U31" si="6">G25-$N$24</f>
-        <v>2291435</v>
+        <v>2291440</v>
       </c>
       <c r="V25">
         <f t="shared" ref="V25:V31" si="7">H25-$N$24</f>
-        <v>2020692</v>
+        <v>2020697</v>
       </c>
       <c r="W25">
         <f t="shared" ref="W25:W31" si="8">I25-$N$24</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="X25">
         <f t="shared" ref="X25:X31" si="9">J25-$N$24</f>
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="Y25">
         <f t="shared" ref="Y25:Y31" si="10">K25-$N$24</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Z25">
         <f t="shared" ref="Z25:Z31" si="11">L25-$N$24</f>
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="AA25">
         <f t="shared" ref="AA25:AA31" si="12">M25-$N$24</f>
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
@@ -1702,51 +1701,51 @@
       </c>
       <c r="P26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Q26">
         <f t="shared" si="2"/>
-        <v>399115</v>
+        <v>399120</v>
       </c>
       <c r="R26">
         <f t="shared" si="3"/>
-        <v>335359</v>
+        <v>335364</v>
       </c>
       <c r="S26">
         <f t="shared" si="4"/>
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="T26">
         <f t="shared" si="5"/>
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="U26">
         <f t="shared" si="6"/>
-        <v>967123</v>
+        <v>967128</v>
       </c>
       <c r="V26">
         <f t="shared" si="7"/>
-        <v>964960</v>
+        <v>964965</v>
       </c>
       <c r="W26">
         <f t="shared" si="8"/>
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="X26">
         <f t="shared" si="9"/>
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="Y26">
         <f t="shared" si="10"/>
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="Z26">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA26">
         <f t="shared" si="12"/>
-        <v>-3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
@@ -1794,51 +1793,51 @@
       </c>
       <c r="P27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q27">
         <f t="shared" si="2"/>
-        <v>178135</v>
+        <v>178140</v>
       </c>
       <c r="R27">
         <f t="shared" si="3"/>
-        <v>217932</v>
+        <v>217937</v>
       </c>
       <c r="S27">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T27">
         <f t="shared" si="5"/>
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="U27">
         <f t="shared" si="6"/>
-        <v>488924</v>
+        <v>488929</v>
       </c>
       <c r="V27">
         <f t="shared" si="7"/>
-        <v>482446</v>
+        <v>482451</v>
       </c>
       <c r="W27">
         <f t="shared" si="8"/>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="X27">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y27">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Z27">
         <f t="shared" si="11"/>
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="AA27">
         <f t="shared" si="12"/>
-        <v>-3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
@@ -1886,51 +1885,51 @@
       </c>
       <c r="P28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q28">
         <f t="shared" si="2"/>
-        <v>92447</v>
+        <v>92452</v>
       </c>
       <c r="R28">
         <f t="shared" si="3"/>
-        <v>83419</v>
+        <v>83424</v>
       </c>
       <c r="S28">
         <f t="shared" si="4"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="T28">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="U28">
         <f t="shared" si="6"/>
-        <v>224247</v>
+        <v>224252</v>
       </c>
       <c r="V28">
         <f t="shared" si="7"/>
-        <v>293335</v>
+        <v>293340</v>
       </c>
       <c r="W28">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X28">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Y28">
         <f t="shared" si="10"/>
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="Z28">
         <f t="shared" si="11"/>
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AA28">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
@@ -1978,51 +1977,51 @@
       </c>
       <c r="P29">
         <f t="shared" si="1"/>
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="Q29">
         <f t="shared" si="2"/>
-        <v>49548</v>
+        <v>49553</v>
       </c>
       <c r="R29">
         <f t="shared" si="3"/>
-        <v>40617</v>
+        <v>40622</v>
       </c>
       <c r="S29">
         <f t="shared" si="4"/>
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="T29">
         <f t="shared" si="5"/>
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="U29">
         <f t="shared" si="6"/>
-        <v>103403</v>
+        <v>103408</v>
       </c>
       <c r="V29">
         <f t="shared" si="7"/>
-        <v>146890</v>
+        <v>146895</v>
       </c>
       <c r="W29">
         <f t="shared" si="8"/>
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <f t="shared" si="9"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="Y29">
         <f t="shared" si="10"/>
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="Z29">
         <f t="shared" si="11"/>
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="AA29">
         <f t="shared" si="12"/>
-        <v>-3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.2">
@@ -2070,51 +2069,51 @@
       </c>
       <c r="P30">
         <f t="shared" si="1"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="Q30">
         <f t="shared" si="2"/>
-        <v>30355</v>
+        <v>30360</v>
       </c>
       <c r="R30">
         <f t="shared" si="3"/>
-        <v>28378</v>
+        <v>28383</v>
       </c>
       <c r="S30">
         <f t="shared" si="4"/>
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="T30">
         <f t="shared" si="5"/>
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="U30">
         <f t="shared" si="6"/>
-        <v>73508</v>
+        <v>73513</v>
       </c>
       <c r="V30">
         <f t="shared" si="7"/>
-        <v>69371</v>
+        <v>69376</v>
       </c>
       <c r="W30">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="X30">
         <f t="shared" si="9"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="Y30">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Z30">
         <f t="shared" si="11"/>
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
         <f t="shared" si="12"/>
-        <v>-3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.2">
@@ -2162,51 +2161,51 @@
       </c>
       <c r="P31">
         <f t="shared" si="1"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="Q31">
         <f t="shared" si="2"/>
-        <v>12617</v>
+        <v>12622</v>
       </c>
       <c r="R31">
         <f t="shared" si="3"/>
-        <v>22240</v>
+        <v>22245</v>
       </c>
       <c r="S31">
         <f t="shared" si="4"/>
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="T31">
         <f t="shared" si="5"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="U31">
         <f t="shared" si="6"/>
-        <v>63750</v>
+        <v>63755</v>
       </c>
       <c r="V31">
         <f t="shared" si="7"/>
-        <v>43749</v>
+        <v>43754</v>
       </c>
       <c r="W31">
         <f t="shared" si="8"/>
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="X31">
         <f t="shared" si="9"/>
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="Y31">
         <f t="shared" si="10"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="Z31">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA31">
         <f t="shared" si="12"/>
-        <v>-3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.2">
@@ -2296,27 +2295,27 @@
       </c>
       <c r="Q37" s="5">
         <f>Q25/$N37</f>
-        <v>80455800</v>
+        <v>80456300</v>
       </c>
       <c r="R37" s="5">
         <f>R25/$N37</f>
-        <v>84699600</v>
+        <v>84700100</v>
       </c>
       <c r="U37" s="5">
         <f>U25/$N37</f>
-        <v>229143500</v>
+        <v>229144000</v>
       </c>
       <c r="V37" s="5">
         <f>V25/$N37</f>
-        <v>202069200</v>
+        <v>202069700</v>
       </c>
       <c r="Y37" s="5">
         <f>Y25/$N37</f>
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="Z37" s="5">
         <f>Z25/$N37</f>
-        <v>-200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.2">
@@ -2329,27 +2328,27 @@
       </c>
       <c r="Q38" s="5">
         <f t="shared" ref="Q38:R38" si="14">Q26/$N38</f>
-        <v>79823000</v>
+        <v>79824000</v>
       </c>
       <c r="R38" s="5">
         <f t="shared" si="14"/>
-        <v>67071800</v>
+        <v>67072800</v>
       </c>
       <c r="U38" s="5">
         <f t="shared" ref="U38:V38" si="15">U26/$N38</f>
-        <v>193424600</v>
+        <v>193425600</v>
       </c>
       <c r="V38" s="5">
         <f t="shared" si="15"/>
-        <v>192992000</v>
+        <v>192993000</v>
       </c>
       <c r="Y38" s="5">
         <f t="shared" ref="Y38:Z38" si="16">Y26/$N38</f>
-        <v>-600</v>
+        <v>400</v>
       </c>
       <c r="Z38" s="5">
         <f t="shared" si="16"/>
-        <v>400</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.2">
@@ -2362,27 +2361,27 @@
       </c>
       <c r="Q39" s="5">
         <f t="shared" ref="Q39:R39" si="17">Q27/$N39</f>
-        <v>71254000</v>
+        <v>71256000</v>
       </c>
       <c r="R39" s="5">
         <f t="shared" si="17"/>
-        <v>87172800</v>
+        <v>87174800</v>
       </c>
       <c r="U39" s="5">
         <f t="shared" ref="U39:V39" si="18">U27/$N39</f>
-        <v>195569600</v>
+        <v>195571600</v>
       </c>
       <c r="V39" s="5">
         <f t="shared" si="18"/>
-        <v>192978400</v>
+        <v>192980400</v>
       </c>
       <c r="Y39" s="5">
         <f t="shared" ref="Y39:Z39" si="19">Y27/$N39</f>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="Z39" s="5">
         <f t="shared" si="19"/>
-        <v>-1200</v>
+        <v>800</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.2">
@@ -2395,27 +2394,27 @@
       </c>
       <c r="Q40" s="5">
         <f t="shared" ref="Q40:R40" si="20">Q28/$N40</f>
-        <v>73957600</v>
+        <v>73961600</v>
       </c>
       <c r="R40" s="5">
         <f t="shared" si="20"/>
-        <v>66735200</v>
+        <v>66739200</v>
       </c>
       <c r="U40" s="5">
         <f t="shared" ref="U40:V40" si="21">U28/$N40</f>
-        <v>179397600</v>
+        <v>179401600</v>
       </c>
       <c r="V40" s="5">
         <f t="shared" si="21"/>
-        <v>234668000</v>
+        <v>234672000</v>
       </c>
       <c r="Y40" s="5">
         <f t="shared" ref="Y40:Z40" si="22">Y28/$N40</f>
-        <v>-3200</v>
+        <v>800</v>
       </c>
       <c r="Z40" s="5">
         <f t="shared" si="22"/>
-        <v>-800</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.2">
@@ -2428,27 +2427,27 @@
       </c>
       <c r="Q41" s="5">
         <f t="shared" ref="Q41:R41" si="23">Q29/$N41</f>
-        <v>79276800</v>
+        <v>79284800</v>
       </c>
       <c r="R41" s="5">
         <f t="shared" si="23"/>
-        <v>64987200</v>
+        <v>64995200</v>
       </c>
       <c r="U41" s="5">
         <f t="shared" ref="U41:V41" si="24">U29/$N41</f>
-        <v>165444800</v>
+        <v>165452800</v>
       </c>
       <c r="V41" s="5">
         <f t="shared" si="24"/>
-        <v>235024000</v>
+        <v>235032000</v>
       </c>
       <c r="Y41" s="5">
         <f t="shared" ref="Y41:Z41" si="25">Y29/$N41</f>
-        <v>-11200</v>
+        <v>-3200</v>
       </c>
       <c r="Z41" s="5">
         <f t="shared" si="25"/>
-        <v>-11200</v>
+        <v>-3200</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.2">
@@ -2461,27 +2460,27 @@
       </c>
       <c r="Q42" s="5">
         <f t="shared" ref="Q42:R42" si="26">Q30/$N42</f>
-        <v>97136000</v>
+        <v>97152000</v>
       </c>
       <c r="R42" s="5">
         <f t="shared" si="26"/>
-        <v>90809600</v>
+        <v>90825600</v>
       </c>
       <c r="U42" s="5">
         <f t="shared" ref="U42:V42" si="27">U30/$N42</f>
-        <v>235225600</v>
+        <v>235241600</v>
       </c>
       <c r="V42" s="5">
         <f t="shared" si="27"/>
-        <v>221987200</v>
+        <v>222003200</v>
       </c>
       <c r="Y42" s="5">
         <f t="shared" ref="Y42:Z42" si="28">Y30/$N42</f>
-        <v>3200</v>
+        <v>19200</v>
       </c>
       <c r="Z42" s="5">
         <f t="shared" si="28"/>
-        <v>-19200</v>
+        <v>-3200</v>
       </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.2">
@@ -2494,89 +2493,126 @@
       </c>
       <c r="Q43" s="5">
         <f t="shared" ref="Q43:R43" si="29">Q31/$N43</f>
-        <v>80748800</v>
+        <v>80780800</v>
       </c>
       <c r="R43" s="5">
         <f t="shared" si="29"/>
-        <v>142336000</v>
+        <v>142368000</v>
       </c>
       <c r="U43" s="5">
         <f t="shared" ref="U43:V43" si="30">U31/$N43</f>
-        <v>408000000</v>
+        <v>408032000</v>
       </c>
       <c r="V43" s="5">
         <f t="shared" si="30"/>
-        <v>279993600</v>
+        <v>280025600</v>
       </c>
       <c r="Y43" s="5">
         <f t="shared" ref="Y43:Z43" si="31">Y31/$N43</f>
-        <v>-32000</v>
+        <v>0</v>
       </c>
       <c r="Z43" s="5">
         <f t="shared" si="31"/>
-        <v>12800</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="Q44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="Q45" s="5">
         <f>AVERAGE(Q37:Q43)</f>
-        <v>80378857.142857149</v>
+        <v>80387928.571428567</v>
       </c>
       <c r="R45" s="5">
         <f>AVERAGE(R37:R43)</f>
-        <v>86258885.714285716</v>
+        <v>86267957.142857149</v>
       </c>
       <c r="U45" s="5">
         <f>AVERAGE(U37:U43)</f>
-        <v>229457957.14285713</v>
+        <v>229467028.57142857</v>
       </c>
       <c r="V45" s="5">
         <f>AVERAGE(V37:V43)</f>
-        <v>222816057.14285713</v>
+        <v>222825128.57142857</v>
       </c>
       <c r="Y45" s="5">
         <f>AVERAGE(Y37:Y43)</f>
-        <v>-5871.4285714285716</v>
+        <v>3200</v>
       </c>
       <c r="Z45" s="5">
         <f>AVERAGE(Z37:Z43)</f>
-        <v>-2771.4285714285716</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="Q46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Y46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="Q47" s="5">
         <f>AVERAGE(Q45:R45)</f>
-        <v>83318871.428571433</v>
+        <v>83327942.857142866</v>
       </c>
       <c r="U47" s="5">
         <f>AVERAGE(U45:V45)</f>
-        <v>226137007.14285713</v>
+        <v>226146078.57142857</v>
       </c>
       <c r="Y47" s="5">
         <f>AVERAGE(Y45:Z45)</f>
-        <v>-4321.4285714285716</v>
+        <v>4750</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="Q48" t="s">
+        <v>66</v>
+      </c>
+      <c r="U48" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="17:26" x14ac:dyDescent="0.2">
+      <c r="Q49" s="5">
+        <f>MEDIAN(Q37:Q43)</f>
+        <v>79824000</v>
+      </c>
+      <c r="R49" s="5">
+        <f>MEDIAN(R37:R43)</f>
+        <v>84700100</v>
+      </c>
+      <c r="U49" s="5">
+        <f>MEDIAN(U37:U43)</f>
+        <v>195571600</v>
+      </c>
+      <c r="V49" s="5">
+        <f>MEDIAN(V37:V43)</f>
+        <v>222003200</v>
+      </c>
+      <c r="Y49" s="5">
+        <f>MEDIAN(Y37:Y43)</f>
+        <v>800</v>
+      </c>
+      <c r="Z49" s="5">
+        <f>MEDIAN(Z37:Z43)</f>
+        <v>800</v>
       </c>
     </row>
   </sheetData>
@@ -2587,10 +2623,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE0FE0C5-4B20-4A31-800C-BDC3CDA40DD1}">
-  <dimension ref="A1:AA47"/>
+  <dimension ref="A1:AA49"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="P49" sqref="P49:P52"/>
+      <selection activeCell="S57" sqref="O51:S57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2720,7 +2756,7 @@
         <v>52</v>
       </c>
       <c r="N22" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
@@ -2764,10 +2800,10 @@
         <v>12</v>
       </c>
       <c r="N23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O23" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="P23" s="3">
         <v>1</v>
@@ -2847,59 +2883,58 @@
         <v>-1</v>
       </c>
       <c r="N24">
-        <f>AVERAGE(B24:M24)</f>
-        <v>6.416666666666667</v>
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>28</v>
       </c>
       <c r="P24">
         <f>B24-$N$24</f>
-        <v>3.583333333333333</v>
+        <v>10</v>
       </c>
       <c r="Q24">
         <f t="shared" ref="Q24:AA31" si="0">C24-$N$24</f>
-        <v>-1.416666666666667</v>
+        <v>5</v>
       </c>
       <c r="R24">
         <f t="shared" si="0"/>
-        <v>2.583333333333333</v>
+        <v>9</v>
       </c>
       <c r="S24">
         <f t="shared" si="0"/>
-        <v>-0.41666666666666696</v>
+        <v>6</v>
       </c>
       <c r="T24">
         <f t="shared" si="0"/>
-        <v>4.583333333333333</v>
+        <v>11</v>
       </c>
       <c r="U24">
         <f t="shared" si="0"/>
-        <v>-5.416666666666667</v>
+        <v>1</v>
       </c>
       <c r="V24">
         <f t="shared" si="0"/>
-        <v>0.58333333333333304</v>
+        <v>7</v>
       </c>
       <c r="W24">
         <f t="shared" si="0"/>
-        <v>3.583333333333333</v>
+        <v>10</v>
       </c>
       <c r="X24">
         <f t="shared" si="0"/>
-        <v>3.583333333333333</v>
+        <v>10</v>
       </c>
       <c r="Y24">
         <f t="shared" si="0"/>
-        <v>-2.416666666666667</v>
+        <v>4</v>
       </c>
       <c r="Z24">
         <f t="shared" si="0"/>
-        <v>-1.416666666666667</v>
+        <v>5</v>
       </c>
       <c r="AA24">
         <f t="shared" si="0"/>
-        <v>-7.416666666666667</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
@@ -2947,51 +2982,51 @@
       </c>
       <c r="P25">
         <f t="shared" ref="P25:P31" si="1">B25-$N$24</f>
-        <v>1662.5833333333333</v>
+        <v>1669</v>
       </c>
       <c r="Q25">
         <f t="shared" si="0"/>
-        <v>-3.416666666666667</v>
+        <v>3</v>
       </c>
       <c r="R25">
         <f t="shared" si="0"/>
-        <v>8.5833333333333321</v>
+        <v>15</v>
       </c>
       <c r="S25">
         <f t="shared" si="0"/>
-        <v>3640439.5833333335</v>
+        <v>3640446</v>
       </c>
       <c r="T25">
         <f t="shared" si="0"/>
-        <v>3659399.5833333335</v>
+        <v>3659406</v>
       </c>
       <c r="U25">
         <f t="shared" si="0"/>
-        <v>18.583333333333332</v>
+        <v>25</v>
       </c>
       <c r="V25">
         <f t="shared" si="0"/>
-        <v>7313025.583333333</v>
+        <v>7313032</v>
       </c>
       <c r="W25">
         <f t="shared" si="0"/>
-        <v>7047815.583333333</v>
+        <v>7047822</v>
       </c>
       <c r="X25">
         <f t="shared" si="0"/>
-        <v>-3.416666666666667</v>
+        <v>3</v>
       </c>
       <c r="Y25">
         <f t="shared" si="0"/>
-        <v>435265.58333333331</v>
+        <v>435272</v>
       </c>
       <c r="Z25">
         <f t="shared" si="0"/>
-        <v>423745.58333333331</v>
+        <v>423752</v>
       </c>
       <c r="AA25">
         <f t="shared" si="0"/>
-        <v>-2.416666666666667</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
@@ -3039,51 +3074,51 @@
       </c>
       <c r="P26">
         <f t="shared" si="1"/>
-        <v>0.58333333333333304</v>
+        <v>7</v>
       </c>
       <c r="Q26">
         <f t="shared" si="0"/>
-        <v>-2.416666666666667</v>
+        <v>4</v>
       </c>
       <c r="R26">
         <f t="shared" si="0"/>
-        <v>2.583333333333333</v>
+        <v>9</v>
       </c>
       <c r="S26">
         <f t="shared" si="0"/>
-        <v>1638483.5833333333</v>
+        <v>1638490</v>
       </c>
       <c r="T26">
         <f t="shared" si="0"/>
-        <v>1590933.5833333333</v>
+        <v>1590940</v>
       </c>
       <c r="U26">
         <f t="shared" si="0"/>
-        <v>7.583333333333333</v>
+        <v>14</v>
       </c>
       <c r="V26">
         <f t="shared" si="0"/>
-        <v>3197656.5833333335</v>
+        <v>3197663</v>
       </c>
       <c r="W26">
         <f t="shared" si="0"/>
-        <v>3008697.5833333335</v>
+        <v>3008704</v>
       </c>
       <c r="X26">
         <f t="shared" si="0"/>
-        <v>10.583333333333332</v>
+        <v>17</v>
       </c>
       <c r="Y26">
         <f t="shared" si="0"/>
-        <v>210351.58333333334</v>
+        <v>210358</v>
       </c>
       <c r="Z26">
         <f t="shared" si="0"/>
-        <v>219740.58333333334</v>
+        <v>219747</v>
       </c>
       <c r="AA26">
         <f t="shared" si="0"/>
-        <v>1.583333333333333</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
@@ -3131,51 +3166,51 @@
       </c>
       <c r="P27">
         <f t="shared" si="1"/>
-        <v>-2.416666666666667</v>
+        <v>4</v>
       </c>
       <c r="Q27">
         <f t="shared" si="0"/>
-        <v>-3.416666666666667</v>
+        <v>3</v>
       </c>
       <c r="R27">
         <f t="shared" si="0"/>
-        <v>-3.416666666666667</v>
+        <v>3</v>
       </c>
       <c r="S27">
         <f t="shared" si="0"/>
-        <v>864148.58333333337</v>
+        <v>864155</v>
       </c>
       <c r="T27">
         <f t="shared" si="0"/>
-        <v>810260.58333333337</v>
+        <v>810267</v>
       </c>
       <c r="U27">
         <f t="shared" si="0"/>
-        <v>77.583333333333329</v>
+        <v>84</v>
       </c>
       <c r="V27">
         <f t="shared" si="0"/>
-        <v>1436336.5833333333</v>
+        <v>1436343</v>
       </c>
       <c r="W27">
         <f t="shared" si="0"/>
-        <v>1408315.5833333333</v>
+        <v>1408322</v>
       </c>
       <c r="X27">
         <f t="shared" si="0"/>
-        <v>29.583333333333332</v>
+        <v>36</v>
       </c>
       <c r="Y27">
         <f t="shared" si="0"/>
-        <v>104641.58333333333</v>
+        <v>104648</v>
       </c>
       <c r="Z27">
         <f t="shared" si="0"/>
-        <v>129918.58333333333</v>
+        <v>129925</v>
       </c>
       <c r="AA27">
         <f t="shared" si="0"/>
-        <v>-1.416666666666667</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
@@ -3223,51 +3258,51 @@
       </c>
       <c r="P28">
         <f t="shared" si="1"/>
-        <v>-5.416666666666667</v>
+        <v>1</v>
       </c>
       <c r="Q28">
         <f t="shared" si="0"/>
-        <v>1.583333333333333</v>
+        <v>8</v>
       </c>
       <c r="R28">
         <f t="shared" si="0"/>
-        <v>2.583333333333333</v>
+        <v>9</v>
       </c>
       <c r="S28">
         <f t="shared" si="0"/>
-        <v>385465.58333333331</v>
+        <v>385472</v>
       </c>
       <c r="T28">
         <f t="shared" si="0"/>
-        <v>382854.58333333331</v>
+        <v>382861</v>
       </c>
       <c r="U28">
         <f t="shared" si="0"/>
-        <v>-6.416666666666667</v>
+        <v>0</v>
       </c>
       <c r="V28">
         <f t="shared" si="0"/>
-        <v>679507.58333333337</v>
+        <v>679514</v>
       </c>
       <c r="W28">
         <f t="shared" si="0"/>
-        <v>676583.58333333337</v>
+        <v>676590</v>
       </c>
       <c r="X28">
         <f t="shared" si="0"/>
-        <v>0.58333333333333304</v>
+        <v>7</v>
       </c>
       <c r="Y28">
         <f t="shared" si="0"/>
-        <v>54030.583333333336</v>
+        <v>54037</v>
       </c>
       <c r="Z28">
         <f t="shared" si="0"/>
-        <v>56544.583333333336</v>
+        <v>56551</v>
       </c>
       <c r="AA28">
         <f t="shared" si="0"/>
-        <v>-0.41666666666666696</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
@@ -3315,51 +3350,51 @@
       </c>
       <c r="P29">
         <f t="shared" si="1"/>
-        <v>-4.416666666666667</v>
+        <v>2</v>
       </c>
       <c r="Q29">
         <f t="shared" si="0"/>
-        <v>-2.416666666666667</v>
+        <v>4</v>
       </c>
       <c r="R29">
         <f t="shared" si="0"/>
-        <v>-5.416666666666667</v>
+        <v>1</v>
       </c>
       <c r="S29">
         <f t="shared" si="0"/>
-        <v>168560.58333333334</v>
+        <v>168567</v>
       </c>
       <c r="T29">
         <f t="shared" si="0"/>
-        <v>222317.58333333334</v>
+        <v>222324</v>
       </c>
       <c r="U29">
         <f t="shared" si="0"/>
-        <v>-5.416666666666667</v>
+        <v>1</v>
       </c>
       <c r="V29">
         <f t="shared" si="0"/>
-        <v>337211.58333333331</v>
+        <v>337218</v>
       </c>
       <c r="W29">
         <f t="shared" si="0"/>
-        <v>338049.58333333331</v>
+        <v>338056</v>
       </c>
       <c r="X29">
         <f t="shared" si="0"/>
-        <v>-0.41666666666666696</v>
+        <v>6</v>
       </c>
       <c r="Y29">
         <f t="shared" si="0"/>
-        <v>16844.583333333332</v>
+        <v>16851</v>
       </c>
       <c r="Z29">
         <f t="shared" si="0"/>
-        <v>20986.583333333332</v>
+        <v>20993</v>
       </c>
       <c r="AA29">
         <f t="shared" si="0"/>
-        <v>-2.416666666666667</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.2">
@@ -3407,51 +3442,51 @@
       </c>
       <c r="P30">
         <f t="shared" si="1"/>
-        <v>-3.416666666666667</v>
+        <v>3</v>
       </c>
       <c r="Q30">
         <f t="shared" si="0"/>
-        <v>-6.416666666666667</v>
+        <v>0</v>
       </c>
       <c r="R30">
         <f t="shared" si="0"/>
-        <v>-6.416666666666667</v>
+        <v>0</v>
       </c>
       <c r="S30">
         <f t="shared" si="0"/>
-        <v>89888.583333333328</v>
+        <v>89895</v>
       </c>
       <c r="T30">
         <f t="shared" si="0"/>
-        <v>125779.58333333333</v>
+        <v>125786</v>
       </c>
       <c r="U30">
         <f t="shared" si="0"/>
-        <v>-3.416666666666667</v>
+        <v>3</v>
       </c>
       <c r="V30">
         <f t="shared" si="0"/>
-        <v>187950.58333333334</v>
+        <v>187957</v>
       </c>
       <c r="W30">
         <f t="shared" si="0"/>
-        <v>179609.58333333334</v>
+        <v>179616</v>
       </c>
       <c r="X30">
         <f t="shared" si="0"/>
-        <v>4.583333333333333</v>
+        <v>11</v>
       </c>
       <c r="Y30">
         <f t="shared" si="0"/>
-        <v>4625.583333333333</v>
+        <v>4632</v>
       </c>
       <c r="Z30">
         <f t="shared" si="0"/>
-        <v>11816.583333333334</v>
+        <v>11823</v>
       </c>
       <c r="AA30">
         <f t="shared" si="0"/>
-        <v>1.583333333333333</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.2">
@@ -3499,51 +3534,51 @@
       </c>
       <c r="P31">
         <f t="shared" si="1"/>
-        <v>0.58333333333333304</v>
+        <v>7</v>
       </c>
       <c r="Q31">
         <f t="shared" si="0"/>
-        <v>-4.416666666666667</v>
+        <v>2</v>
       </c>
       <c r="R31">
         <f t="shared" si="0"/>
-        <v>-6.416666666666667</v>
+        <v>0</v>
       </c>
       <c r="S31">
         <f t="shared" si="0"/>
-        <v>62925.583333333336</v>
+        <v>62932</v>
       </c>
       <c r="T31">
         <f t="shared" si="0"/>
-        <v>83226.583333333328</v>
+        <v>83233</v>
       </c>
       <c r="U31">
         <f t="shared" si="0"/>
-        <v>-6.416666666666667</v>
+        <v>0</v>
       </c>
       <c r="V31">
         <f t="shared" si="0"/>
-        <v>138965.58333333334</v>
+        <v>138972</v>
       </c>
       <c r="W31">
         <f t="shared" si="0"/>
-        <v>141853.58333333334</v>
+        <v>141860</v>
       </c>
       <c r="X31">
         <f t="shared" si="0"/>
-        <v>-3.416666666666667</v>
+        <v>3</v>
       </c>
       <c r="Y31">
         <f t="shared" si="0"/>
-        <v>2827.5833333333335</v>
+        <v>2834</v>
       </c>
       <c r="Z31">
         <f t="shared" si="0"/>
-        <v>17816.583333333332</v>
+        <v>17823</v>
       </c>
       <c r="AA31">
         <f t="shared" si="0"/>
-        <v>-2.416666666666667</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.2">
@@ -3640,35 +3675,35 @@
       </c>
       <c r="P37" s="5">
         <f>P25/$N37</f>
-        <v>166258.33333333331</v>
+        <v>166900</v>
       </c>
       <c r="Q37" s="5">
         <f>Q25/$N37</f>
-        <v>-341.66666666666669</v>
+        <v>300</v>
       </c>
       <c r="S37" s="5">
         <f>S25/$N37</f>
-        <v>364043958.33333331</v>
+        <v>364044600</v>
       </c>
       <c r="T37" s="5">
         <f>T25/$N37</f>
-        <v>365939958.33333331</v>
+        <v>365940600</v>
       </c>
       <c r="V37" s="5">
         <f>V25/$N37</f>
-        <v>731302558.33333325</v>
+        <v>731303200</v>
       </c>
       <c r="W37" s="5">
         <f>W25/$N37</f>
-        <v>704781558.33333325</v>
+        <v>704782200</v>
       </c>
       <c r="Y37" s="5">
         <f>Y25/$N37</f>
-        <v>43526558.333333328</v>
+        <v>43527200</v>
       </c>
       <c r="Z37" s="5">
         <f>Z25/$N37</f>
-        <v>42374558.333333328</v>
+        <v>42375200</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.2">
@@ -3682,35 +3717,35 @@
       </c>
       <c r="P38" s="5">
         <f t="shared" ref="P38:Q43" si="3">P26/$N38</f>
-        <v>116.6666666666666</v>
+        <v>1400</v>
       </c>
       <c r="Q38" s="5">
         <f t="shared" si="3"/>
-        <v>-483.33333333333337</v>
+        <v>800</v>
       </c>
       <c r="S38" s="5">
         <f t="shared" ref="S38:T43" si="4">S26/$N38</f>
-        <v>327696716.66666663</v>
+        <v>327698000</v>
       </c>
       <c r="T38" s="5">
         <f t="shared" si="4"/>
-        <v>318186716.66666663</v>
+        <v>318188000</v>
       </c>
       <c r="V38" s="5">
         <f t="shared" ref="V38:W38" si="5">V26/$N38</f>
-        <v>639531316.66666663</v>
+        <v>639532600</v>
       </c>
       <c r="W38" s="5">
         <f t="shared" si="5"/>
-        <v>601739516.66666663</v>
+        <v>601740800</v>
       </c>
       <c r="Y38" s="5">
         <f t="shared" ref="Y38:Z43" si="6">Y26/$N38</f>
-        <v>42070316.666666664</v>
+        <v>42071600</v>
       </c>
       <c r="Z38" s="5">
         <f t="shared" si="6"/>
-        <v>43948116.666666664</v>
+        <v>43949400</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.2">
@@ -3724,35 +3759,35 @@
       </c>
       <c r="P39" s="5">
         <f t="shared" si="3"/>
-        <v>-966.66666666666674</v>
+        <v>1600</v>
       </c>
       <c r="Q39" s="5">
         <f t="shared" si="3"/>
-        <v>-1366.6666666666667</v>
+        <v>1200</v>
       </c>
       <c r="S39" s="5">
         <f t="shared" si="4"/>
-        <v>345659433.33333331</v>
+        <v>345662000</v>
       </c>
       <c r="T39" s="5">
         <f t="shared" si="4"/>
-        <v>324104233.33333331</v>
+        <v>324106800</v>
       </c>
       <c r="V39" s="5">
         <f t="shared" ref="V39:W39" si="7">V27/$N39</f>
-        <v>574534633.33333325</v>
+        <v>574537200</v>
       </c>
       <c r="W39" s="5">
         <f t="shared" si="7"/>
-        <v>563326233.33333325</v>
+        <v>563328800</v>
       </c>
       <c r="Y39" s="5">
         <f t="shared" si="6"/>
-        <v>41856633.333333328</v>
+        <v>41859200</v>
       </c>
       <c r="Z39" s="5">
         <f t="shared" si="6"/>
-        <v>51967433.333333328</v>
+        <v>51970000</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.2">
@@ -3766,35 +3801,35 @@
       </c>
       <c r="P40" s="5">
         <f t="shared" si="3"/>
-        <v>-4333.333333333333</v>
+        <v>800</v>
       </c>
       <c r="Q40" s="5">
         <f t="shared" si="3"/>
-        <v>1266.6666666666665</v>
+        <v>6400</v>
       </c>
       <c r="S40" s="5">
         <f t="shared" si="4"/>
-        <v>308372466.66666663</v>
+        <v>308377600</v>
       </c>
       <c r="T40" s="5">
         <f t="shared" si="4"/>
-        <v>306283666.66666663</v>
+        <v>306288800</v>
       </c>
       <c r="V40" s="5">
         <f t="shared" ref="V40:W40" si="8">V28/$N40</f>
-        <v>543606066.66666663</v>
+        <v>543611200</v>
       </c>
       <c r="W40" s="5">
         <f t="shared" si="8"/>
-        <v>541266866.66666663</v>
+        <v>541272000</v>
       </c>
       <c r="Y40" s="5">
         <f t="shared" si="6"/>
-        <v>43224466.666666664</v>
+        <v>43229600</v>
       </c>
       <c r="Z40" s="5">
         <f t="shared" si="6"/>
-        <v>45235666.666666664</v>
+        <v>45240800</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.2">
@@ -3808,35 +3843,35 @@
       </c>
       <c r="P41" s="5">
         <f t="shared" si="3"/>
-        <v>-7066.666666666667</v>
+        <v>3200</v>
       </c>
       <c r="Q41" s="5">
         <f t="shared" si="3"/>
-        <v>-3866.666666666667</v>
+        <v>6400</v>
       </c>
       <c r="S41" s="5">
         <f t="shared" si="4"/>
-        <v>269696933.33333331</v>
+        <v>269707200</v>
       </c>
       <c r="T41" s="5">
         <f t="shared" si="4"/>
-        <v>355708133.33333331</v>
+        <v>355718400</v>
       </c>
       <c r="V41" s="5">
         <f t="shared" ref="V41:W41" si="9">V29/$N41</f>
-        <v>539538533.33333325</v>
+        <v>539548800</v>
       </c>
       <c r="W41" s="5">
         <f t="shared" si="9"/>
-        <v>540879333.33333325</v>
+        <v>540889600</v>
       </c>
       <c r="Y41" s="5">
         <f t="shared" si="6"/>
-        <v>26951333.333333332</v>
+        <v>26961600</v>
       </c>
       <c r="Z41" s="5">
         <f t="shared" si="6"/>
-        <v>33578533.333333328</v>
+        <v>33588800</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.2">
@@ -3850,35 +3885,35 @@
       </c>
       <c r="P42" s="5">
         <f t="shared" si="3"/>
-        <v>-10933.333333333334</v>
+        <v>9600</v>
       </c>
       <c r="Q42" s="5">
         <f t="shared" si="3"/>
-        <v>-20533.333333333332</v>
+        <v>0</v>
       </c>
       <c r="S42" s="5">
         <f t="shared" si="4"/>
-        <v>287643466.66666663</v>
+        <v>287664000</v>
       </c>
       <c r="T42" s="5">
         <f t="shared" si="4"/>
-        <v>402494666.66666663</v>
+        <v>402515200</v>
       </c>
       <c r="V42" s="5">
         <f t="shared" ref="V42:W42" si="10">V30/$N42</f>
-        <v>601441866.66666663</v>
+        <v>601462400</v>
       </c>
       <c r="W42" s="5">
         <f t="shared" si="10"/>
-        <v>574750666.66666663</v>
+        <v>574771200</v>
       </c>
       <c r="Y42" s="5">
         <f t="shared" si="6"/>
-        <v>14801866.666666666</v>
+        <v>14822400</v>
       </c>
       <c r="Z42" s="5">
         <f t="shared" si="6"/>
-        <v>37813066.666666664</v>
+        <v>37833600</v>
       </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.2">
@@ -3892,116 +3927,164 @@
       </c>
       <c r="P43" s="5">
         <f t="shared" si="3"/>
-        <v>3733.3333333333312</v>
+        <v>44800</v>
       </c>
       <c r="Q43" s="5">
         <f t="shared" si="3"/>
-        <v>-28266.666666666668</v>
+        <v>12800</v>
       </c>
       <c r="S43" s="5">
         <f t="shared" si="4"/>
-        <v>402723733.33333331</v>
+        <v>402764800</v>
       </c>
       <c r="T43" s="5">
         <f t="shared" si="4"/>
-        <v>532650133.33333331</v>
+        <v>532691200</v>
       </c>
       <c r="V43" s="5">
         <f t="shared" ref="V43:W43" si="11">V31/$N43</f>
-        <v>889379733.33333337</v>
+        <v>889420800</v>
       </c>
       <c r="W43" s="5">
         <f t="shared" si="11"/>
-        <v>907862933.33333337</v>
+        <v>907904000</v>
       </c>
       <c r="Y43" s="5">
         <f t="shared" si="6"/>
-        <v>18096533.333333332</v>
+        <v>18137600</v>
       </c>
       <c r="Z43" s="5">
         <f t="shared" si="6"/>
-        <v>114026133.33333333</v>
+        <v>114067200</v>
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="P44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="L45" s="5"/>
       <c r="P45" s="5">
         <f>AVERAGE(P37:P43)</f>
-        <v>20972.619047619046</v>
+        <v>32614.285714285714</v>
       </c>
       <c r="Q45" s="5">
         <f>AVERAGE(Q37:Q43)</f>
-        <v>-7655.9523809523816</v>
+        <v>3985.7142857142858</v>
       </c>
       <c r="S45" s="5">
         <f>AVERAGE(S37:S43)</f>
-        <v>329405244.04761904</v>
+        <v>329416885.71428573</v>
       </c>
       <c r="T45" s="5">
         <f>AVERAGE(T37:T43)</f>
-        <v>372195358.33333337</v>
+        <v>372207000</v>
       </c>
       <c r="V45" s="5">
         <f>AVERAGE(V37:V43)</f>
-        <v>645619244.04761899</v>
+        <v>645630885.71428573</v>
       </c>
       <c r="W45" s="5">
         <f>AVERAGE(W37:W43)</f>
-        <v>633515301.19047618</v>
+        <v>633526942.85714281</v>
       </c>
       <c r="Y45" s="5">
         <f>AVERAGE(Y37:Y43)</f>
-        <v>32932529.761904765</v>
+        <v>32944171.428571429</v>
       </c>
       <c r="Z45" s="5">
         <f>AVERAGE(Z37:Z43)</f>
-        <v>52706215.47619047</v>
+        <v>52717857.142857142</v>
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="P46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="V46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Y46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="P47" s="5">
         <f>AVERAGE(P45:Q45)</f>
-        <v>6658.3333333333321</v>
+        <v>18300</v>
       </c>
       <c r="S47" s="5">
         <f>AVERAGE(S45:T45)</f>
-        <v>350800301.19047618</v>
+        <v>350811942.85714287</v>
       </c>
       <c r="V47" s="5">
         <f>AVERAGE(V45:W45)</f>
-        <v>639567272.61904764</v>
+        <v>639578914.28571427</v>
       </c>
       <c r="Y47" s="5">
         <f>AVERAGE(Y45:Z45)</f>
-        <v>42819372.619047619</v>
+        <v>42831014.285714284</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="P48" t="s">
+        <v>66</v>
+      </c>
+      <c r="S48" t="s">
+        <v>66</v>
+      </c>
+      <c r="V48" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="16:26" x14ac:dyDescent="0.2">
+      <c r="P49" s="5">
+        <f>MEDIAN(P37:P43)</f>
+        <v>3200</v>
+      </c>
+      <c r="Q49" s="5">
+        <f>MEDIAN(Q37:Q43)</f>
+        <v>1200</v>
+      </c>
+      <c r="S49" s="5">
+        <f>MEDIAN(S37:S43)</f>
+        <v>327698000</v>
+      </c>
+      <c r="T49" s="5">
+        <f>MEDIAN(T37:T43)</f>
+        <v>355718400</v>
+      </c>
+      <c r="V49" s="5">
+        <f>MEDIAN(V37:V43)</f>
+        <v>601462400</v>
+      </c>
+      <c r="W49" s="5">
+        <f>MEDIAN(W37:W43)</f>
+        <v>574771200</v>
+      </c>
+      <c r="Y49" s="5">
+        <f>MEDIAN(Y37:Y43)</f>
+        <v>41859200</v>
+      </c>
+      <c r="Z49" s="5">
+        <f>MEDIAN(Z37:Z43)</f>
+        <v>43949400</v>
       </c>
     </row>
   </sheetData>
@@ -4012,10 +4095,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88FD1ECF-0FCF-4686-86B8-8928FDB7A442}">
-  <dimension ref="A1:AA47"/>
+  <dimension ref="A1:AA49"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="P50" sqref="P50:P53"/>
+      <selection activeCell="R55" sqref="N51:R55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4145,7 +4228,7 @@
         <v>48</v>
       </c>
       <c r="N22" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
@@ -4189,10 +4272,10 @@
         <v>12</v>
       </c>
       <c r="N23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O23" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="P23" s="3">
         <v>1</v>
@@ -4272,59 +4355,58 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <f>AVERAGE(B24:M24)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>28</v>
       </c>
       <c r="P24">
         <f>B24-$N$24</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q24">
         <f t="shared" ref="Q24:AA31" si="0">C24-$N$24</f>
+        <v>8</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="R24">
-        <f t="shared" si="0"/>
-        <v>-8</v>
-      </c>
-      <c r="S24">
-        <f t="shared" si="0"/>
-        <v>-6</v>
-      </c>
-      <c r="T24">
+      <c r="Y24">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="U24">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="V24">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="W24">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="X24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="Z24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA24">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
@@ -4372,51 +4454,51 @@
       </c>
       <c r="P25">
         <f t="shared" ref="P25:P31" si="1">B25-$N$24</f>
-        <v>1621271</v>
+        <v>1621275</v>
       </c>
       <c r="Q25">
         <f t="shared" si="0"/>
-        <v>1459667</v>
+        <v>1459671</v>
       </c>
       <c r="R25">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="S25">
         <f t="shared" si="0"/>
-        <v>64130</v>
+        <v>64134</v>
       </c>
       <c r="T25">
         <f t="shared" si="0"/>
-        <v>62964</v>
+        <v>62968</v>
       </c>
       <c r="U25">
         <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="0"/>
+        <v>292192</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="0"/>
+        <v>338237</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="0"/>
+        <v>1662983</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="0"/>
+        <v>1837891</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="0"/>
         <v>5</v>
-      </c>
-      <c r="V25">
-        <f t="shared" si="0"/>
-        <v>292188</v>
-      </c>
-      <c r="W25">
-        <f t="shared" si="0"/>
-        <v>338233</v>
-      </c>
-      <c r="X25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y25">
-        <f t="shared" si="0"/>
-        <v>1662979</v>
-      </c>
-      <c r="Z25">
-        <f t="shared" si="0"/>
-        <v>1837887</v>
-      </c>
-      <c r="AA25">
-        <f t="shared" si="0"/>
-        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
@@ -4464,51 +4546,51 @@
       </c>
       <c r="P26">
         <f t="shared" si="1"/>
-        <v>850316</v>
+        <v>850320</v>
       </c>
       <c r="Q26">
         <f t="shared" si="0"/>
-        <v>553222</v>
+        <v>553226</v>
       </c>
       <c r="R26">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S26">
         <f t="shared" si="0"/>
-        <v>16535</v>
+        <v>16539</v>
       </c>
       <c r="T26">
         <f t="shared" si="0"/>
-        <v>33529</v>
+        <v>33533</v>
       </c>
       <c r="U26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="V26">
         <f t="shared" si="0"/>
-        <v>162250</v>
+        <v>162254</v>
       </c>
       <c r="W26">
         <f t="shared" si="0"/>
-        <v>147498</v>
+        <v>147502</v>
       </c>
       <c r="X26">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Y26">
         <f t="shared" si="0"/>
-        <v>722927</v>
+        <v>722931</v>
       </c>
       <c r="Z26">
         <f t="shared" si="0"/>
-        <v>893939</v>
+        <v>893943</v>
       </c>
       <c r="AA26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
@@ -4556,51 +4638,51 @@
       </c>
       <c r="P27">
         <f t="shared" si="1"/>
-        <v>415056</v>
+        <v>415060</v>
       </c>
       <c r="Q27">
         <f t="shared" si="0"/>
-        <v>316560</v>
+        <v>316564</v>
       </c>
       <c r="R27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S27">
         <f t="shared" si="0"/>
-        <v>8146</v>
+        <v>8150</v>
       </c>
       <c r="T27">
         <f t="shared" si="0"/>
-        <v>5676</v>
+        <v>5680</v>
       </c>
       <c r="U27">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="V27">
         <f t="shared" si="0"/>
-        <v>71576</v>
+        <v>71580</v>
       </c>
       <c r="W27">
         <f t="shared" si="0"/>
-        <v>61617</v>
+        <v>61621</v>
       </c>
       <c r="X27">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Y27">
         <f t="shared" si="0"/>
-        <v>457258</v>
+        <v>457262</v>
       </c>
       <c r="Z27">
         <f t="shared" si="0"/>
-        <v>414738</v>
+        <v>414742</v>
       </c>
       <c r="AA27">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
@@ -4648,51 +4730,51 @@
       </c>
       <c r="P28">
         <f t="shared" si="1"/>
-        <v>215641</v>
+        <v>215645</v>
       </c>
       <c r="Q28">
         <f t="shared" si="0"/>
-        <v>159188</v>
+        <v>159192</v>
       </c>
       <c r="R28">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="S28">
         <f t="shared" si="0"/>
-        <v>6133</v>
+        <v>6137</v>
       </c>
       <c r="T28">
         <f t="shared" si="0"/>
-        <v>14459</v>
+        <v>14463</v>
       </c>
       <c r="U28">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="V28">
         <f t="shared" si="0"/>
-        <v>45124</v>
+        <v>45128</v>
       </c>
       <c r="W28">
         <f t="shared" si="0"/>
-        <v>43190</v>
+        <v>43194</v>
       </c>
       <c r="X28">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="Y28">
         <f t="shared" si="0"/>
-        <v>211357</v>
+        <v>211361</v>
       </c>
       <c r="Z28">
         <f t="shared" si="0"/>
-        <v>235136</v>
+        <v>235140</v>
       </c>
       <c r="AA28">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
@@ -4740,51 +4822,51 @@
       </c>
       <c r="P29">
         <f t="shared" si="1"/>
-        <v>84257</v>
+        <v>84261</v>
       </c>
       <c r="Q29">
         <f t="shared" si="0"/>
-        <v>103081</v>
+        <v>103085</v>
       </c>
       <c r="R29">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="S29">
         <f t="shared" si="0"/>
-        <v>3243</v>
+        <v>3247</v>
       </c>
       <c r="T29">
         <f t="shared" si="0"/>
-        <v>12080</v>
+        <v>12084</v>
       </c>
       <c r="U29">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="V29">
         <f t="shared" si="0"/>
-        <v>9273</v>
+        <v>9277</v>
       </c>
       <c r="W29">
         <f t="shared" si="0"/>
-        <v>19884</v>
+        <v>19888</v>
       </c>
       <c r="X29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y29">
         <f t="shared" si="0"/>
-        <v>96573</v>
+        <v>96577</v>
       </c>
       <c r="Z29">
         <f t="shared" si="0"/>
-        <v>112416</v>
+        <v>112420</v>
       </c>
       <c r="AA29">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.2">
@@ -4832,51 +4914,51 @@
       </c>
       <c r="P30">
         <f t="shared" si="1"/>
-        <v>72711</v>
+        <v>72715</v>
       </c>
       <c r="Q30">
         <f t="shared" si="0"/>
-        <v>62297</v>
+        <v>62301</v>
       </c>
       <c r="R30">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S30">
         <f t="shared" si="0"/>
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="T30">
         <f t="shared" si="0"/>
-        <v>3192</v>
+        <v>3196</v>
       </c>
       <c r="U30">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="V30">
         <f t="shared" si="0"/>
-        <v>6340</v>
+        <v>6344</v>
       </c>
       <c r="W30">
         <f t="shared" si="0"/>
-        <v>9320</v>
+        <v>9324</v>
       </c>
       <c r="X30">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="Y30">
         <f t="shared" si="0"/>
-        <v>61852</v>
+        <v>61856</v>
       </c>
       <c r="Z30">
         <f t="shared" si="0"/>
-        <v>54532</v>
+        <v>54536</v>
       </c>
       <c r="AA30">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.2">
@@ -4924,51 +5006,51 @@
       </c>
       <c r="P31">
         <f t="shared" si="1"/>
-        <v>23194</v>
+        <v>23198</v>
       </c>
       <c r="Q31">
         <f t="shared" si="0"/>
-        <v>38865</v>
+        <v>38869</v>
       </c>
       <c r="R31">
         <f t="shared" si="0"/>
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="S31">
         <f t="shared" si="0"/>
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="T31">
         <f t="shared" si="0"/>
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="U31">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="V31">
         <f t="shared" si="0"/>
-        <v>7018</v>
+        <v>7022</v>
       </c>
       <c r="W31">
         <f t="shared" si="0"/>
-        <v>6795</v>
+        <v>6799</v>
       </c>
       <c r="X31">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="Y31">
         <f t="shared" si="0"/>
-        <v>39034</v>
+        <v>39038</v>
       </c>
       <c r="Z31">
         <f t="shared" si="0"/>
-        <v>51609</v>
+        <v>51613</v>
       </c>
       <c r="AA31">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.2">
@@ -5064,35 +5146,35 @@
       </c>
       <c r="P37" s="5">
         <f>P25/$N37</f>
-        <v>162127100</v>
+        <v>162127500</v>
       </c>
       <c r="Q37" s="5">
         <f>Q25/$N37</f>
-        <v>145966700</v>
+        <v>145967100</v>
       </c>
       <c r="S37" s="5">
         <f>S25/$N37</f>
-        <v>6413000</v>
+        <v>6413400</v>
       </c>
       <c r="T37" s="5">
         <f>T25/$N37</f>
-        <v>6296400</v>
+        <v>6296800</v>
       </c>
       <c r="V37" s="5">
         <f>V25/$N37</f>
-        <v>29218800</v>
+        <v>29219200</v>
       </c>
       <c r="W37" s="5">
         <f>W25/$N37</f>
-        <v>33823300</v>
+        <v>33823700</v>
       </c>
       <c r="Y37" s="5">
         <f>Y25/$N37</f>
-        <v>166297900</v>
+        <v>166298300</v>
       </c>
       <c r="Z37" s="5">
         <f>Z25/$N37</f>
-        <v>183788700</v>
+        <v>183789100</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.2">
@@ -5105,35 +5187,35 @@
       </c>
       <c r="P38" s="5">
         <f t="shared" ref="P38:Q43" si="3">P26/$N38</f>
-        <v>170063200</v>
+        <v>170064000</v>
       </c>
       <c r="Q38" s="5">
         <f t="shared" si="3"/>
-        <v>110644400</v>
+        <v>110645200</v>
       </c>
       <c r="S38" s="5">
         <f t="shared" ref="S38:T43" si="4">S26/$N38</f>
-        <v>3307000</v>
+        <v>3307800</v>
       </c>
       <c r="T38" s="5">
         <f t="shared" si="4"/>
-        <v>6705800</v>
+        <v>6706600</v>
       </c>
       <c r="V38" s="5">
         <f t="shared" ref="V38:W43" si="5">V26/$N38</f>
-        <v>32450000</v>
+        <v>32450800</v>
       </c>
       <c r="W38" s="5">
         <f t="shared" si="5"/>
-        <v>29499600</v>
+        <v>29500400</v>
       </c>
       <c r="Y38" s="5">
         <f t="shared" ref="Y38:Z43" si="6">Y26/$N38</f>
-        <v>144585400</v>
+        <v>144586200</v>
       </c>
       <c r="Z38" s="5">
         <f t="shared" si="6"/>
-        <v>178787800</v>
+        <v>178788600</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.2">
@@ -5146,35 +5228,35 @@
       </c>
       <c r="P39" s="5">
         <f t="shared" si="3"/>
-        <v>166022400</v>
+        <v>166024000</v>
       </c>
       <c r="Q39" s="5">
         <f t="shared" si="3"/>
-        <v>126624000</v>
+        <v>126625600</v>
       </c>
       <c r="S39" s="5">
         <f t="shared" si="4"/>
-        <v>3258400</v>
+        <v>3260000</v>
       </c>
       <c r="T39" s="5">
         <f t="shared" si="4"/>
-        <v>2270400</v>
+        <v>2272000</v>
       </c>
       <c r="V39" s="5">
         <f t="shared" si="5"/>
-        <v>28630400</v>
+        <v>28632000</v>
       </c>
       <c r="W39" s="5">
         <f t="shared" si="5"/>
-        <v>24646800</v>
+        <v>24648400</v>
       </c>
       <c r="Y39" s="5">
         <f t="shared" si="6"/>
-        <v>182903200</v>
+        <v>182904800</v>
       </c>
       <c r="Z39" s="5">
         <f t="shared" si="6"/>
-        <v>165895200</v>
+        <v>165896800</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.2">
@@ -5187,35 +5269,35 @@
       </c>
       <c r="P40" s="5">
         <f t="shared" si="3"/>
-        <v>172512800</v>
+        <v>172516000</v>
       </c>
       <c r="Q40" s="5">
         <f t="shared" si="3"/>
-        <v>127350400</v>
+        <v>127353600</v>
       </c>
       <c r="S40" s="5">
         <f t="shared" si="4"/>
-        <v>4906400</v>
+        <v>4909600</v>
       </c>
       <c r="T40" s="5">
         <f t="shared" si="4"/>
-        <v>11567200</v>
+        <v>11570400</v>
       </c>
       <c r="V40" s="5">
         <f t="shared" si="5"/>
-        <v>36099200</v>
+        <v>36102400</v>
       </c>
       <c r="W40" s="5">
         <f t="shared" si="5"/>
-        <v>34552000</v>
+        <v>34555200</v>
       </c>
       <c r="Y40" s="5">
         <f t="shared" si="6"/>
-        <v>169085600</v>
+        <v>169088800</v>
       </c>
       <c r="Z40" s="5">
         <f t="shared" si="6"/>
-        <v>188108800</v>
+        <v>188112000</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.2">
@@ -5228,35 +5310,35 @@
       </c>
       <c r="P41" s="5">
         <f t="shared" si="3"/>
-        <v>134811200</v>
+        <v>134817600</v>
       </c>
       <c r="Q41" s="5">
         <f t="shared" si="3"/>
-        <v>164929600</v>
+        <v>164936000</v>
       </c>
       <c r="S41" s="5">
         <f t="shared" si="4"/>
-        <v>5188800</v>
+        <v>5195200</v>
       </c>
       <c r="T41" s="5">
         <f t="shared" si="4"/>
-        <v>19328000</v>
+        <v>19334400</v>
       </c>
       <c r="V41" s="5">
         <f t="shared" si="5"/>
-        <v>14836800</v>
+        <v>14843200</v>
       </c>
       <c r="W41" s="5">
         <f t="shared" si="5"/>
-        <v>31814400</v>
+        <v>31820800</v>
       </c>
       <c r="Y41" s="5">
         <f t="shared" si="6"/>
-        <v>154516800</v>
+        <v>154523200</v>
       </c>
       <c r="Z41" s="5">
         <f t="shared" si="6"/>
-        <v>179865600</v>
+        <v>179872000</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.2">
@@ -5269,35 +5351,35 @@
       </c>
       <c r="P42" s="5">
         <f t="shared" si="3"/>
-        <v>232675200</v>
+        <v>232688000</v>
       </c>
       <c r="Q42" s="5">
         <f t="shared" si="3"/>
-        <v>199350400</v>
+        <v>199363200</v>
       </c>
       <c r="S42" s="5">
         <f t="shared" si="4"/>
-        <v>921600</v>
+        <v>934400</v>
       </c>
       <c r="T42" s="5">
         <f t="shared" si="4"/>
-        <v>10214400</v>
+        <v>10227200</v>
       </c>
       <c r="V42" s="5">
         <f t="shared" si="5"/>
-        <v>20288000</v>
+        <v>20300800</v>
       </c>
       <c r="W42" s="5">
         <f t="shared" si="5"/>
-        <v>29824000</v>
+        <v>29836800</v>
       </c>
       <c r="Y42" s="5">
         <f t="shared" si="6"/>
-        <v>197926400</v>
+        <v>197939200</v>
       </c>
       <c r="Z42" s="5">
         <f t="shared" si="6"/>
-        <v>174502400</v>
+        <v>174515200</v>
       </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.2">
@@ -5310,115 +5392,163 @@
       </c>
       <c r="P43" s="5">
         <f t="shared" si="3"/>
-        <v>148441600</v>
+        <v>148467200</v>
       </c>
       <c r="Q43" s="5">
         <f t="shared" si="3"/>
-        <v>248736000</v>
+        <v>248761600</v>
       </c>
       <c r="S43" s="5">
         <f t="shared" si="4"/>
-        <v>4825600</v>
+        <v>4851200</v>
       </c>
       <c r="T43" s="5">
         <f t="shared" si="4"/>
-        <v>1241600</v>
+        <v>1267200</v>
       </c>
       <c r="V43" s="5">
         <f t="shared" si="5"/>
-        <v>44915200</v>
+        <v>44940800</v>
       </c>
       <c r="W43" s="5">
         <f t="shared" si="5"/>
-        <v>43488000</v>
+        <v>43513600</v>
       </c>
       <c r="Y43" s="5">
         <f t="shared" si="6"/>
-        <v>249817600</v>
+        <v>249843200</v>
       </c>
       <c r="Z43" s="5">
         <f t="shared" si="6"/>
-        <v>330297600</v>
+        <v>330323200</v>
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="P44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="P45" s="5">
         <f>AVERAGE(P37:P43)</f>
-        <v>169521928.57142857</v>
+        <v>169529185.7142857</v>
       </c>
       <c r="Q45" s="5">
         <f>AVERAGE(Q37:Q43)</f>
-        <v>160514500</v>
+        <v>160521757.14285713</v>
       </c>
       <c r="S45" s="5">
         <f>AVERAGE(S37:S43)</f>
-        <v>4117257.1428571427</v>
+        <v>4124514.2857142859</v>
       </c>
       <c r="T45" s="5">
         <f>AVERAGE(T37:T43)</f>
-        <v>8231971.4285714282</v>
+        <v>8239228.5714285718</v>
       </c>
       <c r="V45" s="5">
         <f>AVERAGE(V37:V43)</f>
-        <v>29491200</v>
+        <v>29498457.142857142</v>
       </c>
       <c r="W45" s="5">
         <f>AVERAGE(W37:W43)</f>
-        <v>32521157.142857142</v>
+        <v>32528414.285714287</v>
       </c>
       <c r="Y45" s="5">
         <f>AVERAGE(Y37:Y43)</f>
-        <v>180733271.42857143</v>
+        <v>180740528.57142857</v>
       </c>
       <c r="Z45" s="5">
         <f>AVERAGE(Z37:Z43)</f>
-        <v>200178014.2857143</v>
+        <v>200185271.42857143</v>
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="P46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="V46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Y46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="P47" s="5">
         <f>AVERAGE(P45:Q45)</f>
-        <v>165018214.28571427</v>
+        <v>165025471.4285714</v>
       </c>
       <c r="S47" s="5">
         <f>AVERAGE(S45:T45)</f>
-        <v>6174614.2857142854</v>
+        <v>6181871.4285714291</v>
       </c>
       <c r="V47" s="5">
         <f>AVERAGE(V45:W45)</f>
-        <v>31006178.571428571</v>
+        <v>31013435.714285716</v>
       </c>
       <c r="Y47" s="5">
         <f>AVERAGE(Y45:Z45)</f>
-        <v>190455642.85714287</v>
+        <v>190462900</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="P48" t="s">
+        <v>66</v>
+      </c>
+      <c r="S48" t="s">
+        <v>66</v>
+      </c>
+      <c r="V48" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="16:26" x14ac:dyDescent="0.2">
+      <c r="P49" s="5">
+        <f>MEDIAN(P37:P43)</f>
+        <v>166024000</v>
+      </c>
+      <c r="Q49" s="5">
+        <f>MEDIAN(Q37:Q43)</f>
+        <v>145967100</v>
+      </c>
+      <c r="S49" s="5">
+        <f>MEDIAN(S37:S43)</f>
+        <v>4851200</v>
+      </c>
+      <c r="T49" s="5">
+        <f>MEDIAN(T37:T43)</f>
+        <v>6706600</v>
+      </c>
+      <c r="V49" s="5">
+        <f>MEDIAN(V37:V43)</f>
+        <v>29219200</v>
+      </c>
+      <c r="W49" s="5">
+        <f>MEDIAN(W37:W43)</f>
+        <v>31820800</v>
+      </c>
+      <c r="Y49" s="5">
+        <f>MEDIAN(Y37:Y43)</f>
+        <v>169088800</v>
+      </c>
+      <c r="Z49" s="5">
+        <f>MEDIAN(Z37:Z43)</f>
+        <v>179872000</v>
       </c>
     </row>
   </sheetData>
@@ -5429,10 +5559,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9057604-2C4E-4E98-AF9F-A64A93960B03}">
-  <dimension ref="A1:AA47"/>
+  <dimension ref="A1:AA49"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="P49" sqref="P49:P52"/>
+      <selection activeCell="N55" sqref="N55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5562,7 +5692,7 @@
         <v>44</v>
       </c>
       <c r="N22" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
@@ -5606,10 +5736,10 @@
         <v>12</v>
       </c>
       <c r="N23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O23" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="P23" s="3">
         <v>1</v>
@@ -5689,59 +5819,58 @@
         <v>13</v>
       </c>
       <c r="N24">
-        <f>AVERAGE(B24:M24)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>28</v>
       </c>
       <c r="P24">
         <f>B24-$N$24</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q24">
         <f t="shared" ref="Q24:AA31" si="0">C24-$N$24</f>
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R24">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="S24">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="T24">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="U24">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="V24">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="W24">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="X24">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="Y24">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Z24">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AA24">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
@@ -5789,51 +5918,51 @@
       </c>
       <c r="P25">
         <f t="shared" ref="P25:P31" si="1">B25-$N$24</f>
-        <v>3293493</v>
+        <v>3293498</v>
       </c>
       <c r="Q25">
         <f t="shared" si="0"/>
-        <v>3648068</v>
+        <v>3648073</v>
       </c>
       <c r="R25">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="S25">
         <f t="shared" si="0"/>
-        <v>5048150</v>
+        <v>5048155</v>
       </c>
       <c r="T25">
         <f t="shared" si="0"/>
-        <v>4794372</v>
+        <v>4794377</v>
       </c>
       <c r="U25">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="V25">
         <f t="shared" si="0"/>
-        <v>431200</v>
+        <v>431205</v>
       </c>
       <c r="W25">
         <f t="shared" si="0"/>
-        <v>409461</v>
+        <v>409466</v>
       </c>
       <c r="X25">
         <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="0"/>
+        <v>4015410</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="0"/>
+        <v>4314482</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="0"/>
         <v>4</v>
-      </c>
-      <c r="Y25">
-        <f t="shared" si="0"/>
-        <v>4015405</v>
-      </c>
-      <c r="Z25">
-        <f t="shared" si="0"/>
-        <v>4314477</v>
-      </c>
-      <c r="AA25">
-        <f t="shared" si="0"/>
-        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
@@ -5881,51 +6010,51 @@
       </c>
       <c r="P26">
         <f t="shared" si="1"/>
-        <v>2082297</v>
+        <v>2082302</v>
       </c>
       <c r="Q26">
         <f t="shared" si="0"/>
-        <v>1976328</v>
+        <v>1976333</v>
       </c>
       <c r="R26">
         <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="0"/>
+        <v>2209800</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="0"/>
+        <v>2214552</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="S26">
-        <f t="shared" si="0"/>
-        <v>2209795</v>
-      </c>
-      <c r="T26">
-        <f t="shared" si="0"/>
-        <v>2214547</v>
-      </c>
-      <c r="U26">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
       <c r="V26">
         <f t="shared" si="0"/>
-        <v>174097</v>
+        <v>174102</v>
       </c>
       <c r="W26">
         <f t="shared" si="0"/>
-        <v>216016</v>
+        <v>216021</v>
       </c>
       <c r="X26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Y26">
         <f t="shared" si="0"/>
-        <v>1697730</v>
+        <v>1697735</v>
       </c>
       <c r="Z26">
         <f t="shared" si="0"/>
-        <v>1831754</v>
+        <v>1831759</v>
       </c>
       <c r="AA26">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
@@ -5973,51 +6102,51 @@
       </c>
       <c r="P27">
         <f t="shared" si="1"/>
-        <v>1064813</v>
+        <v>1064818</v>
       </c>
       <c r="Q27">
         <f t="shared" si="0"/>
-        <v>956725</v>
+        <v>956730</v>
       </c>
       <c r="R27">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S27">
         <f t="shared" si="0"/>
-        <v>1148821</v>
+        <v>1148826</v>
       </c>
       <c r="T27">
         <f t="shared" si="0"/>
-        <v>1024824</v>
+        <v>1024829</v>
       </c>
       <c r="U27">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V27">
         <f t="shared" si="0"/>
-        <v>95855</v>
+        <v>95860</v>
       </c>
       <c r="W27">
         <f t="shared" si="0"/>
-        <v>93883</v>
+        <v>93888</v>
       </c>
       <c r="X27">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Y27">
         <f t="shared" si="0"/>
-        <v>838638</v>
+        <v>838643</v>
       </c>
       <c r="Z27">
         <f t="shared" si="0"/>
-        <v>817479</v>
+        <v>817484</v>
       </c>
       <c r="AA27">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
@@ -6065,51 +6194,51 @@
       </c>
       <c r="P28">
         <f t="shared" si="1"/>
-        <v>549837</v>
+        <v>549842</v>
       </c>
       <c r="Q28">
         <f t="shared" si="0"/>
-        <v>477466</v>
+        <v>477471</v>
       </c>
       <c r="R28">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="S28">
         <f t="shared" si="0"/>
-        <v>496624</v>
+        <v>496629</v>
       </c>
       <c r="T28">
         <f t="shared" si="0"/>
-        <v>607503</v>
+        <v>607508</v>
       </c>
       <c r="U28">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="V28">
         <f t="shared" si="0"/>
-        <v>50941</v>
+        <v>50946</v>
       </c>
       <c r="W28">
         <f t="shared" si="0"/>
-        <v>41289</v>
+        <v>41294</v>
       </c>
       <c r="X28">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y28">
         <f t="shared" si="0"/>
-        <v>440656</v>
+        <v>440661</v>
       </c>
       <c r="Z28">
         <f t="shared" si="0"/>
-        <v>479161</v>
+        <v>479166</v>
       </c>
       <c r="AA28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
@@ -6157,51 +6286,51 @@
       </c>
       <c r="P29">
         <f t="shared" si="1"/>
-        <v>276507</v>
+        <v>276512</v>
       </c>
       <c r="Q29">
         <f t="shared" si="0"/>
-        <v>231136</v>
+        <v>231141</v>
       </c>
       <c r="R29">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="S29">
         <f t="shared" si="0"/>
-        <v>303842</v>
+        <v>303847</v>
       </c>
       <c r="T29">
         <f t="shared" si="0"/>
-        <v>338403</v>
+        <v>338408</v>
       </c>
       <c r="U29">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="V29">
         <f t="shared" si="0"/>
-        <v>14405</v>
+        <v>14410</v>
       </c>
       <c r="W29">
         <f t="shared" si="0"/>
-        <v>32045</v>
+        <v>32050</v>
       </c>
       <c r="X29">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="Y29">
         <f t="shared" si="0"/>
-        <v>238092</v>
+        <v>238097</v>
       </c>
       <c r="Z29">
         <f t="shared" si="0"/>
-        <v>242899</v>
+        <v>242904</v>
       </c>
       <c r="AA29">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.2">
@@ -6249,51 +6378,51 @@
       </c>
       <c r="P30">
         <f t="shared" si="1"/>
-        <v>147890</v>
+        <v>147895</v>
       </c>
       <c r="Q30">
         <f t="shared" si="0"/>
-        <v>131354</v>
+        <v>131359</v>
       </c>
       <c r="R30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S30">
         <f t="shared" si="0"/>
-        <v>152724</v>
+        <v>152729</v>
       </c>
       <c r="T30">
         <f t="shared" si="0"/>
-        <v>109812</v>
+        <v>109817</v>
       </c>
       <c r="U30">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="V30">
         <f t="shared" si="0"/>
-        <v>18865</v>
+        <v>18870</v>
       </c>
       <c r="W30">
         <f t="shared" si="0"/>
-        <v>15212</v>
+        <v>15217</v>
       </c>
       <c r="X30">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="Y30">
         <f t="shared" si="0"/>
-        <v>137450</v>
+        <v>137455</v>
       </c>
       <c r="Z30">
         <f t="shared" si="0"/>
-        <v>101164</v>
+        <v>101169</v>
       </c>
       <c r="AA30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.2">
@@ -6341,51 +6470,51 @@
       </c>
       <c r="P31">
         <f t="shared" si="1"/>
-        <v>60678</v>
+        <v>60683</v>
       </c>
       <c r="Q31">
         <f t="shared" si="0"/>
-        <v>76079</v>
+        <v>76084</v>
       </c>
       <c r="R31">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="S31">
         <f t="shared" si="0"/>
-        <v>88943</v>
+        <v>88948</v>
       </c>
       <c r="T31">
         <f t="shared" si="0"/>
-        <v>96172</v>
+        <v>96177</v>
       </c>
       <c r="U31">
         <f t="shared" si="0"/>
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="V31">
         <f t="shared" si="0"/>
-        <v>4398</v>
+        <v>4403</v>
       </c>
       <c r="W31">
         <f t="shared" si="0"/>
-        <v>10737</v>
+        <v>10742</v>
       </c>
       <c r="X31">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Y31">
         <f t="shared" si="0"/>
-        <v>66930</v>
+        <v>66935</v>
       </c>
       <c r="Z31">
         <f t="shared" si="0"/>
-        <v>90585</v>
+        <v>90590</v>
       </c>
       <c r="AA31">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.2">
@@ -6481,35 +6610,35 @@
       </c>
       <c r="P37" s="5">
         <f>P25/$N37</f>
-        <v>329349300</v>
+        <v>329349800</v>
       </c>
       <c r="Q37" s="5">
         <f>Q25/$N37</f>
-        <v>364806800</v>
+        <v>364807300</v>
       </c>
       <c r="S37" s="5">
         <f>S25/$N37</f>
-        <v>504815000</v>
+        <v>504815500</v>
       </c>
       <c r="T37" s="5">
         <f>T25/$N37</f>
-        <v>479437200</v>
+        <v>479437700</v>
       </c>
       <c r="V37" s="5">
         <f>V25/$N37</f>
-        <v>43120000</v>
+        <v>43120500</v>
       </c>
       <c r="W37" s="5">
         <f>W25/$N37</f>
-        <v>40946100</v>
+        <v>40946600</v>
       </c>
       <c r="Y37" s="5">
         <f>Y25/$N37</f>
-        <v>401540500</v>
+        <v>401541000</v>
       </c>
       <c r="Z37" s="5">
         <f>Z25/$N37</f>
-        <v>431447700</v>
+        <v>431448200</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.2">
@@ -6522,35 +6651,35 @@
       </c>
       <c r="P38" s="5">
         <f t="shared" ref="P38:Q43" si="3">P26/$N38</f>
-        <v>416459400</v>
+        <v>416460400</v>
       </c>
       <c r="Q38" s="5">
         <f t="shared" si="3"/>
-        <v>395265600</v>
+        <v>395266600</v>
       </c>
       <c r="S38" s="5">
         <f t="shared" ref="S38:T43" si="4">S26/$N38</f>
-        <v>441959000</v>
+        <v>441960000</v>
       </c>
       <c r="T38" s="5">
         <f t="shared" si="4"/>
-        <v>442909400</v>
+        <v>442910400</v>
       </c>
       <c r="V38" s="5">
         <f t="shared" ref="V38:W43" si="5">V26/$N38</f>
-        <v>34819400</v>
+        <v>34820400</v>
       </c>
       <c r="W38" s="5">
         <f t="shared" si="5"/>
-        <v>43203200</v>
+        <v>43204200</v>
       </c>
       <c r="Y38" s="5">
         <f t="shared" ref="Y38:Z43" si="6">Y26/$N38</f>
-        <v>339546000</v>
+        <v>339547000</v>
       </c>
       <c r="Z38" s="5">
         <f t="shared" si="6"/>
-        <v>366350800</v>
+        <v>366351800</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.2">
@@ -6563,35 +6692,35 @@
       </c>
       <c r="P39" s="5">
         <f t="shared" si="3"/>
-        <v>425925200</v>
+        <v>425927200</v>
       </c>
       <c r="Q39" s="5">
         <f t="shared" si="3"/>
-        <v>382690000</v>
+        <v>382692000</v>
       </c>
       <c r="S39" s="5">
         <f t="shared" si="4"/>
-        <v>459528400</v>
+        <v>459530400</v>
       </c>
       <c r="T39" s="5">
         <f t="shared" si="4"/>
-        <v>409929600</v>
+        <v>409931600</v>
       </c>
       <c r="V39" s="5">
         <f t="shared" si="5"/>
-        <v>38342000</v>
+        <v>38344000</v>
       </c>
       <c r="W39" s="5">
         <f t="shared" si="5"/>
-        <v>37553200</v>
+        <v>37555200</v>
       </c>
       <c r="Y39" s="5">
         <f t="shared" si="6"/>
-        <v>335455200</v>
+        <v>335457200</v>
       </c>
       <c r="Z39" s="5">
         <f t="shared" si="6"/>
-        <v>326991600</v>
+        <v>326993600</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.2">
@@ -6604,35 +6733,35 @@
       </c>
       <c r="P40" s="5">
         <f t="shared" si="3"/>
-        <v>439869600</v>
+        <v>439873600</v>
       </c>
       <c r="Q40" s="5">
         <f t="shared" si="3"/>
-        <v>381972800</v>
+        <v>381976800</v>
       </c>
       <c r="S40" s="5">
         <f t="shared" si="4"/>
-        <v>397299200</v>
+        <v>397303200</v>
       </c>
       <c r="T40" s="5">
         <f t="shared" si="4"/>
-        <v>486002400</v>
+        <v>486006400</v>
       </c>
       <c r="V40" s="5">
         <f t="shared" si="5"/>
-        <v>40752800</v>
+        <v>40756800</v>
       </c>
       <c r="W40" s="5">
         <f t="shared" si="5"/>
-        <v>33031200</v>
+        <v>33035200</v>
       </c>
       <c r="Y40" s="5">
         <f t="shared" si="6"/>
-        <v>352524800</v>
+        <v>352528800</v>
       </c>
       <c r="Z40" s="5">
         <f t="shared" si="6"/>
-        <v>383328800</v>
+        <v>383332800</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.2">
@@ -6645,35 +6774,35 @@
       </c>
       <c r="P41" s="5">
         <f t="shared" si="3"/>
-        <v>442411200</v>
+        <v>442419200</v>
       </c>
       <c r="Q41" s="5">
         <f t="shared" si="3"/>
-        <v>369817600</v>
+        <v>369825600</v>
       </c>
       <c r="S41" s="5">
         <f t="shared" si="4"/>
-        <v>486147200</v>
+        <v>486155200</v>
       </c>
       <c r="T41" s="5">
         <f t="shared" si="4"/>
-        <v>541444800</v>
+        <v>541452800</v>
       </c>
       <c r="V41" s="5">
         <f t="shared" si="5"/>
-        <v>23048000</v>
+        <v>23056000</v>
       </c>
       <c r="W41" s="5">
         <f t="shared" si="5"/>
-        <v>51272000</v>
+        <v>51280000</v>
       </c>
       <c r="Y41" s="5">
         <f t="shared" si="6"/>
-        <v>380947200</v>
+        <v>380955200</v>
       </c>
       <c r="Z41" s="5">
         <f t="shared" si="6"/>
-        <v>388638400</v>
+        <v>388646400</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.2">
@@ -6686,35 +6815,35 @@
       </c>
       <c r="P42" s="5">
         <f t="shared" si="3"/>
-        <v>473248000</v>
+        <v>473264000</v>
       </c>
       <c r="Q42" s="5">
         <f t="shared" si="3"/>
-        <v>420332800</v>
+        <v>420348800</v>
       </c>
       <c r="S42" s="5">
         <f t="shared" si="4"/>
-        <v>488716800</v>
+        <v>488732800</v>
       </c>
       <c r="T42" s="5">
         <f t="shared" si="4"/>
-        <v>351398400</v>
+        <v>351414400</v>
       </c>
       <c r="V42" s="5">
         <f t="shared" si="5"/>
-        <v>60368000</v>
+        <v>60384000</v>
       </c>
       <c r="W42" s="5">
         <f t="shared" si="5"/>
-        <v>48678400</v>
+        <v>48694400</v>
       </c>
       <c r="Y42" s="5">
         <f t="shared" si="6"/>
-        <v>439840000</v>
+        <v>439856000</v>
       </c>
       <c r="Z42" s="5">
         <f t="shared" si="6"/>
-        <v>323724800</v>
+        <v>323740800</v>
       </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.2">
@@ -6727,115 +6856,163 @@
       </c>
       <c r="P43" s="5">
         <f t="shared" si="3"/>
-        <v>388339200</v>
+        <v>388371200</v>
       </c>
       <c r="Q43" s="5">
         <f t="shared" si="3"/>
-        <v>486905600</v>
+        <v>486937600</v>
       </c>
       <c r="S43" s="5">
         <f t="shared" si="4"/>
-        <v>569235200</v>
+        <v>569267200</v>
       </c>
       <c r="T43" s="5">
         <f t="shared" si="4"/>
-        <v>615500800</v>
+        <v>615532800</v>
       </c>
       <c r="V43" s="5">
         <f t="shared" si="5"/>
-        <v>28147200</v>
+        <v>28179200</v>
       </c>
       <c r="W43" s="5">
         <f t="shared" si="5"/>
-        <v>68716800</v>
+        <v>68748800</v>
       </c>
       <c r="Y43" s="5">
         <f t="shared" si="6"/>
-        <v>428352000</v>
+        <v>428384000</v>
       </c>
       <c r="Z43" s="5">
         <f t="shared" si="6"/>
-        <v>579744000</v>
+        <v>579776000</v>
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="P44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="P45" s="5">
         <f>AVERAGE(P37:P43)</f>
-        <v>416514557.14285713</v>
+        <v>416523628.5714286</v>
       </c>
       <c r="Q45" s="5">
         <f>AVERAGE(Q37:Q43)</f>
-        <v>400255885.71428573</v>
+        <v>400264957.14285713</v>
       </c>
       <c r="S45" s="5">
         <f>AVERAGE(S37:S43)</f>
-        <v>478242971.4285714</v>
+        <v>478252042.85714287</v>
       </c>
       <c r="T45" s="5">
         <f>AVERAGE(T37:T43)</f>
-        <v>475231800</v>
+        <v>475240871.4285714</v>
       </c>
       <c r="V45" s="5">
         <f>AVERAGE(V37:V43)</f>
-        <v>38371057.142857142</v>
+        <v>38380128.571428575</v>
       </c>
       <c r="W45" s="5">
         <f>AVERAGE(W37:W43)</f>
-        <v>46200128.571428575</v>
+        <v>46209200</v>
       </c>
       <c r="Y45" s="5">
         <f>AVERAGE(Y37:Y43)</f>
-        <v>382600814.28571427</v>
+        <v>382609885.71428573</v>
       </c>
       <c r="Z45" s="5">
         <f>AVERAGE(Z37:Z43)</f>
-        <v>400032300</v>
+        <v>400041371.4285714</v>
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="P46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="V46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Y46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="P47" s="5">
         <f>AVERAGE(P45:Q45)</f>
-        <v>408385221.42857146</v>
+        <v>408394292.85714287</v>
       </c>
       <c r="S47" s="5">
         <f>AVERAGE(S45:T45)</f>
-        <v>476737385.71428573</v>
+        <v>476746457.14285713</v>
       </c>
       <c r="V47" s="5">
         <f>AVERAGE(V45:W45)</f>
-        <v>42285592.857142858</v>
+        <v>42294664.285714284</v>
       </c>
       <c r="Y47" s="5">
         <f>AVERAGE(Y45:Z45)</f>
-        <v>391316557.14285713</v>
+        <v>391325628.57142854</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="P48" t="s">
+        <v>66</v>
+      </c>
+      <c r="S48" t="s">
+        <v>66</v>
+      </c>
+      <c r="V48" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="16:26" x14ac:dyDescent="0.2">
+      <c r="P49" s="5">
+        <f>MEDIAN(P37:P43)</f>
+        <v>425927200</v>
+      </c>
+      <c r="Q49" s="5">
+        <f>MEDIAN(Q37:Q43)</f>
+        <v>382692000</v>
+      </c>
+      <c r="S49" s="5">
+        <f>MEDIAN(S37:S43)</f>
+        <v>486155200</v>
+      </c>
+      <c r="T49" s="5">
+        <f>MEDIAN(T37:T43)</f>
+        <v>479437700</v>
+      </c>
+      <c r="V49" s="5">
+        <f>MEDIAN(V37:V43)</f>
+        <v>38344000</v>
+      </c>
+      <c r="W49" s="5">
+        <f>MEDIAN(W37:W43)</f>
+        <v>43204200</v>
+      </c>
+      <c r="Y49" s="5">
+        <f>MEDIAN(Y37:Y43)</f>
+        <v>380955200</v>
+      </c>
+      <c r="Z49" s="5">
+        <f>MEDIAN(Z37:Z43)</f>
+        <v>383332800</v>
       </c>
     </row>
   </sheetData>
@@ -6846,10 +7023,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63EFB9D7-6E60-4C2D-8098-FCA035AB52BF}">
-  <dimension ref="A1:AA47"/>
+  <dimension ref="A1:AA49"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="P49" sqref="P49:P52"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="R58" sqref="M51:R58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6979,7 +7156,7 @@
         <v>40</v>
       </c>
       <c r="N22" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
@@ -7023,10 +7200,10 @@
         <v>12</v>
       </c>
       <c r="N23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O23" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="P23" s="3">
         <v>1</v>
@@ -7106,7 +7283,6 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <f>MAX(0, AVERAGE(B24:M24))</f>
         <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
@@ -8177,16 +8353,16 @@
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="P44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.2">
@@ -8225,16 +8401,16 @@
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="P46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="V46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Y46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.2">
@@ -8253,6 +8429,54 @@
       <c r="Y47" s="5">
         <f>AVERAGE(Y45:Z45)</f>
         <v>43498085.714285716</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="P48" t="s">
+        <v>66</v>
+      </c>
+      <c r="S48" t="s">
+        <v>66</v>
+      </c>
+      <c r="V48" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="16:26" x14ac:dyDescent="0.2">
+      <c r="P49" s="5">
+        <f>MEDIAN(P37:P43)</f>
+        <v>294278200</v>
+      </c>
+      <c r="Q49" s="5">
+        <f>MEDIAN(Q37:Q43)</f>
+        <v>230166400</v>
+      </c>
+      <c r="S49" s="5">
+        <f>MEDIAN(S37:S43)</f>
+        <v>107374200</v>
+      </c>
+      <c r="T49" s="5">
+        <f>MEDIAN(T37:T43)</f>
+        <v>111993000</v>
+      </c>
+      <c r="V49" s="5">
+        <f>MEDIAN(V37:V43)</f>
+        <v>43172400</v>
+      </c>
+      <c r="W49" s="5">
+        <f>MEDIAN(W37:W43)</f>
+        <v>42281200</v>
+      </c>
+      <c r="Y49" s="5">
+        <f>MEDIAN(Y37:Y43)</f>
+        <v>49775200</v>
+      </c>
+      <c r="Z49" s="5">
+        <f>MEDIAN(Z37:Z43)</f>
+        <v>39028000</v>
       </c>
     </row>
   </sheetData>
@@ -8263,10 +8487,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27FE5241-38BE-4DAB-B42C-1399CFD01C4D}">
-  <dimension ref="A1:AA47"/>
+  <dimension ref="A1:AA49"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="V48" sqref="V48"/>
+      <selection activeCell="R55" sqref="N51:R55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8396,7 +8620,7 @@
         <v>26</v>
       </c>
       <c r="N22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
@@ -8440,10 +8664,10 @@
         <v>12</v>
       </c>
       <c r="N23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O23" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="P23" s="3">
         <v>1</v>
@@ -8523,59 +8747,58 @@
         <v>8</v>
       </c>
       <c r="N24">
-        <f>MAX(0, AVERAGE(B24:M24))</f>
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>28</v>
       </c>
       <c r="P24">
         <f>B24-$N$24</f>
-        <v>1.75</v>
+        <v>4</v>
       </c>
       <c r="Q24">
         <f t="shared" ref="Q24:AA31" si="0">C24-$N$24</f>
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="R24">
         <f t="shared" si="0"/>
-        <v>-2.25</v>
+        <v>0</v>
       </c>
       <c r="S24">
         <f t="shared" si="0"/>
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="T24">
         <f t="shared" si="0"/>
-        <v>-0.25</v>
+        <v>2</v>
       </c>
       <c r="U24">
         <f t="shared" si="0"/>
-        <v>-3.25</v>
+        <v>-1</v>
       </c>
       <c r="V24">
         <f t="shared" si="0"/>
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="W24">
         <f t="shared" si="0"/>
-        <v>-5.25</v>
+        <v>-3</v>
       </c>
       <c r="X24">
         <f t="shared" si="0"/>
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="Y24">
         <f t="shared" si="0"/>
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="Z24">
         <f t="shared" si="0"/>
-        <v>-0.25</v>
+        <v>2</v>
       </c>
       <c r="AA24">
         <f t="shared" si="0"/>
-        <v>5.75</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
@@ -8623,51 +8846,51 @@
       </c>
       <c r="P25">
         <f t="shared" ref="P25:P31" si="1">B25-$N$24</f>
-        <v>3981606.75</v>
+        <v>3981609</v>
       </c>
       <c r="Q25">
         <f t="shared" si="0"/>
-        <v>3937160.75</v>
+        <v>3937163</v>
       </c>
       <c r="R25">
         <f t="shared" si="0"/>
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="S25">
         <f t="shared" si="0"/>
-        <v>1765696.75</v>
+        <v>1765699</v>
       </c>
       <c r="T25">
         <f t="shared" si="0"/>
-        <v>1799840.75</v>
+        <v>1799843</v>
       </c>
       <c r="U25">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="V25">
         <f t="shared" si="0"/>
-        <v>2924562.75</v>
+        <v>2924565</v>
       </c>
       <c r="W25">
         <f t="shared" si="0"/>
-        <v>2087433.75</v>
+        <v>2087436</v>
       </c>
       <c r="X25">
         <f t="shared" si="0"/>
-        <v>-2.25</v>
+        <v>0</v>
       </c>
       <c r="Y25">
         <f t="shared" si="0"/>
-        <v>663224.75</v>
+        <v>663227</v>
       </c>
       <c r="Z25">
         <f t="shared" si="0"/>
-        <v>624483.75</v>
+        <v>624486</v>
       </c>
       <c r="AA25">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
@@ -8715,51 +8938,51 @@
       </c>
       <c r="P26">
         <f t="shared" si="1"/>
-        <v>1920669.75</v>
+        <v>1920672</v>
       </c>
       <c r="Q26">
         <f t="shared" si="0"/>
-        <v>1866718.75</v>
+        <v>1866721</v>
       </c>
       <c r="R26">
         <f t="shared" si="0"/>
-        <v>1.75</v>
+        <v>4</v>
       </c>
       <c r="S26">
         <f t="shared" si="0"/>
-        <v>971865.75</v>
+        <v>971868</v>
       </c>
       <c r="T26">
         <f t="shared" si="0"/>
-        <v>949709.75</v>
+        <v>949712</v>
       </c>
       <c r="U26">
         <f t="shared" si="0"/>
-        <v>7.75</v>
+        <v>10</v>
       </c>
       <c r="V26">
         <f t="shared" si="0"/>
-        <v>1553452.75</v>
+        <v>1553455</v>
       </c>
       <c r="W26">
         <f t="shared" si="0"/>
-        <v>1128645.75</v>
+        <v>1128648</v>
       </c>
       <c r="X26">
         <f t="shared" si="0"/>
-        <v>5.75</v>
+        <v>8</v>
       </c>
       <c r="Y26">
         <f t="shared" si="0"/>
-        <v>323458.75</v>
+        <v>323461</v>
       </c>
       <c r="Z26">
         <f t="shared" si="0"/>
-        <v>351509.75</v>
+        <v>351512</v>
       </c>
       <c r="AA26">
         <f t="shared" si="0"/>
-        <v>2.75</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
@@ -8807,51 +9030,51 @@
       </c>
       <c r="P27">
         <f t="shared" si="1"/>
-        <v>959042.75</v>
+        <v>959045</v>
       </c>
       <c r="Q27">
         <f t="shared" si="0"/>
-        <v>838207.75</v>
+        <v>838210</v>
       </c>
       <c r="R27">
         <f t="shared" si="0"/>
-        <v>7.75</v>
+        <v>10</v>
       </c>
       <c r="S27">
         <f t="shared" si="0"/>
-        <v>416445.75</v>
+        <v>416448</v>
       </c>
       <c r="T27">
         <f t="shared" si="0"/>
-        <v>453675.75</v>
+        <v>453678</v>
       </c>
       <c r="U27">
         <f t="shared" si="0"/>
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="V27">
         <f t="shared" si="0"/>
-        <v>710630.75</v>
+        <v>710633</v>
       </c>
       <c r="W27">
         <f t="shared" si="0"/>
-        <v>527935.75</v>
+        <v>527938</v>
       </c>
       <c r="X27">
         <f t="shared" si="0"/>
-        <v>8.75</v>
+        <v>11</v>
       </c>
       <c r="Y27">
         <f t="shared" si="0"/>
-        <v>125413.75</v>
+        <v>125416</v>
       </c>
       <c r="Z27">
         <f t="shared" si="0"/>
-        <v>136326.75</v>
+        <v>136329</v>
       </c>
       <c r="AA27">
         <f t="shared" si="0"/>
-        <v>2.75</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
@@ -8899,51 +9122,51 @@
       </c>
       <c r="P28">
         <f t="shared" si="1"/>
-        <v>521030.75</v>
+        <v>521033</v>
       </c>
       <c r="Q28">
         <f t="shared" si="0"/>
-        <v>472085.75</v>
+        <v>472088</v>
       </c>
       <c r="R28">
         <f t="shared" si="0"/>
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="S28">
         <f t="shared" si="0"/>
-        <v>233499.75</v>
+        <v>233502</v>
       </c>
       <c r="T28">
         <f t="shared" si="0"/>
-        <v>260490.75</v>
+        <v>260493</v>
       </c>
       <c r="U28">
         <f t="shared" si="0"/>
-        <v>5.75</v>
+        <v>8</v>
       </c>
       <c r="V28">
         <f t="shared" si="0"/>
-        <v>357095.75</v>
+        <v>357098</v>
       </c>
       <c r="W28">
         <f t="shared" si="0"/>
-        <v>250694.75</v>
+        <v>250697</v>
       </c>
       <c r="X28">
         <f t="shared" si="0"/>
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="Y28">
         <f t="shared" si="0"/>
-        <v>95087.75</v>
+        <v>95090</v>
       </c>
       <c r="Z28">
         <f t="shared" si="0"/>
-        <v>56967.75</v>
+        <v>56970</v>
       </c>
       <c r="AA28">
         <f t="shared" si="0"/>
-        <v>-7.25</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
@@ -8991,51 +9214,51 @@
       </c>
       <c r="P29">
         <f t="shared" si="1"/>
-        <v>217041.75</v>
+        <v>217044</v>
       </c>
       <c r="Q29">
         <f t="shared" si="0"/>
-        <v>221566.75</v>
+        <v>221569</v>
       </c>
       <c r="R29">
         <f t="shared" si="0"/>
-        <v>-3.25</v>
+        <v>-1</v>
       </c>
       <c r="S29">
         <f t="shared" si="0"/>
-        <v>118481.75</v>
+        <v>118484</v>
       </c>
       <c r="T29">
         <f t="shared" si="0"/>
-        <v>93285.75</v>
+        <v>93288</v>
       </c>
       <c r="U29">
         <f t="shared" si="0"/>
-        <v>-0.25</v>
+        <v>2</v>
       </c>
       <c r="V29">
         <f t="shared" si="0"/>
-        <v>193816.75</v>
+        <v>193819</v>
       </c>
       <c r="W29">
         <f t="shared" si="0"/>
-        <v>122335.75</v>
+        <v>122338</v>
       </c>
       <c r="X29">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="Y29">
         <f t="shared" si="0"/>
-        <v>50593.75</v>
+        <v>50596</v>
       </c>
       <c r="Z29">
         <f t="shared" si="0"/>
-        <v>28432.75</v>
+        <v>28435</v>
       </c>
       <c r="AA29">
         <f t="shared" si="0"/>
-        <v>-2.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.2">
@@ -9083,51 +9306,51 @@
       </c>
       <c r="P30">
         <f t="shared" si="1"/>
-        <v>157138.75</v>
+        <v>157141</v>
       </c>
       <c r="Q30">
         <f t="shared" si="0"/>
-        <v>112031.75</v>
+        <v>112034</v>
       </c>
       <c r="R30">
         <f t="shared" si="0"/>
-        <v>-4.25</v>
+        <v>-2</v>
       </c>
       <c r="S30">
         <f t="shared" si="0"/>
-        <v>70644.75</v>
+        <v>70647</v>
       </c>
       <c r="T30">
         <f t="shared" si="0"/>
-        <v>73468.75</v>
+        <v>73471</v>
       </c>
       <c r="U30">
         <f t="shared" si="0"/>
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="V30">
         <f t="shared" si="0"/>
-        <v>93707.75</v>
+        <v>93710</v>
       </c>
       <c r="W30">
         <f t="shared" si="0"/>
-        <v>47524.75</v>
+        <v>47527</v>
       </c>
       <c r="X30">
         <f t="shared" si="0"/>
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="Y30">
         <f t="shared" si="0"/>
-        <v>25953.75</v>
+        <v>25956</v>
       </c>
       <c r="Z30">
         <f t="shared" si="0"/>
-        <v>13452.75</v>
+        <v>13455</v>
       </c>
       <c r="AA30">
         <f t="shared" si="0"/>
-        <v>-2.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.2">
@@ -9175,51 +9398,51 @@
       </c>
       <c r="P31">
         <f t="shared" si="1"/>
-        <v>57919.75</v>
+        <v>57922</v>
       </c>
       <c r="Q31">
         <f t="shared" si="0"/>
-        <v>64394.75</v>
+        <v>64397</v>
       </c>
       <c r="R31">
         <f t="shared" si="0"/>
-        <v>1.75</v>
+        <v>4</v>
       </c>
       <c r="S31">
         <f t="shared" si="0"/>
-        <v>50252.75</v>
+        <v>50255</v>
       </c>
       <c r="T31">
         <f t="shared" si="0"/>
-        <v>32653.75</v>
+        <v>32656</v>
       </c>
       <c r="U31">
         <f t="shared" si="0"/>
-        <v>-2.25</v>
+        <v>0</v>
       </c>
       <c r="V31">
         <f t="shared" si="0"/>
-        <v>54408.75</v>
+        <v>54411</v>
       </c>
       <c r="W31">
         <f t="shared" si="0"/>
-        <v>40127.75</v>
+        <v>40130</v>
       </c>
       <c r="X31">
         <f t="shared" si="0"/>
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="Y31">
         <f t="shared" si="0"/>
-        <v>13963.75</v>
+        <v>13966</v>
       </c>
       <c r="Z31">
         <f t="shared" si="0"/>
-        <v>7685.75</v>
+        <v>7688</v>
       </c>
       <c r="AA31">
         <f t="shared" si="0"/>
-        <v>-5.25</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.2">
@@ -9315,35 +9538,35 @@
       </c>
       <c r="P37" s="5">
         <f>P25/$N37</f>
-        <v>398160675</v>
+        <v>398160900</v>
       </c>
       <c r="Q37" s="5">
         <f>Q25/$N37</f>
-        <v>393716075</v>
+        <v>393716300</v>
       </c>
       <c r="S37" s="5">
         <f>S25/$N37</f>
-        <v>176569675</v>
+        <v>176569900</v>
       </c>
       <c r="T37" s="5">
         <f>T25/$N37</f>
-        <v>179984075</v>
+        <v>179984300</v>
       </c>
       <c r="V37" s="5">
         <f>V25/$N37</f>
-        <v>292456275</v>
+        <v>292456500</v>
       </c>
       <c r="W37" s="5">
         <f>W25/$N37</f>
-        <v>208743375</v>
+        <v>208743600</v>
       </c>
       <c r="Y37" s="5">
         <f>Y25/$N37</f>
-        <v>66322475</v>
+        <v>66322700</v>
       </c>
       <c r="Z37" s="5">
         <f>Z25/$N37</f>
-        <v>62448375</v>
+        <v>62448600</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.2">
@@ -9356,35 +9579,35 @@
       </c>
       <c r="P38" s="5">
         <f>P26/$N38</f>
-        <v>384133950</v>
+        <v>384134400</v>
       </c>
       <c r="Q38" s="5">
-        <f t="shared" ref="P38:R43" si="3">Q26/$N38</f>
-        <v>373343750</v>
+        <f t="shared" ref="P38:Q43" si="3">Q26/$N38</f>
+        <v>373344200</v>
       </c>
       <c r="S38" s="5">
         <f t="shared" ref="S38:T43" si="4">S26/$N38</f>
-        <v>194373150</v>
+        <v>194373600</v>
       </c>
       <c r="T38" s="5">
         <f t="shared" si="4"/>
-        <v>189941950</v>
+        <v>189942400</v>
       </c>
       <c r="V38" s="5">
         <f t="shared" ref="V38:W43" si="5">V26/$N38</f>
-        <v>310690550</v>
+        <v>310691000</v>
       </c>
       <c r="W38" s="5">
         <f t="shared" si="5"/>
-        <v>225729150</v>
+        <v>225729600</v>
       </c>
       <c r="Y38" s="5">
         <f t="shared" ref="Y38:Z43" si="6">Y26/$N38</f>
-        <v>64691750</v>
+        <v>64692200</v>
       </c>
       <c r="Z38" s="5">
         <f t="shared" si="6"/>
-        <v>70301950</v>
+        <v>70302400</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.2">
@@ -9397,35 +9620,35 @@
       </c>
       <c r="P39" s="5">
         <f t="shared" si="3"/>
-        <v>383617100</v>
+        <v>383618000</v>
       </c>
       <c r="Q39" s="5">
         <f t="shared" si="3"/>
-        <v>335283100</v>
+        <v>335284000</v>
       </c>
       <c r="S39" s="5">
         <f t="shared" si="4"/>
-        <v>166578300</v>
+        <v>166579200</v>
       </c>
       <c r="T39" s="5">
         <f t="shared" si="4"/>
-        <v>181470300</v>
+        <v>181471200</v>
       </c>
       <c r="V39" s="5">
         <f t="shared" si="5"/>
-        <v>284252300</v>
+        <v>284253200</v>
       </c>
       <c r="W39" s="5">
         <f t="shared" si="5"/>
-        <v>211174300</v>
+        <v>211175200</v>
       </c>
       <c r="Y39" s="5">
         <f t="shared" si="6"/>
-        <v>50165500</v>
+        <v>50166400</v>
       </c>
       <c r="Z39" s="5">
         <f t="shared" si="6"/>
-        <v>54530700</v>
+        <v>54531600</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.2">
@@ -9438,35 +9661,35 @@
       </c>
       <c r="P40" s="5">
         <f t="shared" si="3"/>
-        <v>416824600</v>
+        <v>416826400</v>
       </c>
       <c r="Q40" s="5">
         <f t="shared" si="3"/>
-        <v>377668600</v>
+        <v>377670400</v>
       </c>
       <c r="S40" s="5">
         <f t="shared" si="4"/>
-        <v>186799800</v>
+        <v>186801600</v>
       </c>
       <c r="T40" s="5">
         <f t="shared" si="4"/>
-        <v>208392600</v>
+        <v>208394400</v>
       </c>
       <c r="V40" s="5">
         <f t="shared" si="5"/>
-        <v>285676600</v>
+        <v>285678400</v>
       </c>
       <c r="W40" s="5">
         <f t="shared" si="5"/>
-        <v>200555800</v>
+        <v>200557600</v>
       </c>
       <c r="Y40" s="5">
         <f t="shared" si="6"/>
-        <v>76070200</v>
+        <v>76072000</v>
       </c>
       <c r="Z40" s="5">
         <f t="shared" si="6"/>
-        <v>45574200</v>
+        <v>45576000</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.2">
@@ -9479,35 +9702,35 @@
       </c>
       <c r="P41" s="5">
         <f t="shared" si="3"/>
-        <v>347266800</v>
+        <v>347270400</v>
       </c>
       <c r="Q41" s="5">
         <f t="shared" si="3"/>
-        <v>354506800</v>
+        <v>354510400</v>
       </c>
       <c r="S41" s="5">
         <f t="shared" si="4"/>
-        <v>189570800</v>
+        <v>189574400</v>
       </c>
       <c r="T41" s="5">
         <f t="shared" si="4"/>
-        <v>149257200</v>
+        <v>149260800</v>
       </c>
       <c r="V41" s="5">
         <f t="shared" si="5"/>
-        <v>310106800</v>
+        <v>310110400</v>
       </c>
       <c r="W41" s="5">
         <f t="shared" si="5"/>
-        <v>195737200</v>
+        <v>195740800</v>
       </c>
       <c r="Y41" s="5">
         <f t="shared" si="6"/>
-        <v>80950000</v>
+        <v>80953600</v>
       </c>
       <c r="Z41" s="5">
         <f t="shared" si="6"/>
-        <v>45492400</v>
+        <v>45496000</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.2">
@@ -9520,35 +9743,35 @@
       </c>
       <c r="P42" s="5">
         <f t="shared" si="3"/>
-        <v>502844000</v>
+        <v>502851200</v>
       </c>
       <c r="Q42" s="5">
         <f t="shared" si="3"/>
-        <v>358501600</v>
+        <v>358508800</v>
       </c>
       <c r="S42" s="5">
         <f t="shared" si="4"/>
-        <v>226063200</v>
+        <v>226070400</v>
       </c>
       <c r="T42" s="5">
         <f t="shared" si="4"/>
-        <v>235100000</v>
+        <v>235107200</v>
       </c>
       <c r="V42" s="5">
         <f t="shared" si="5"/>
-        <v>299864800</v>
+        <v>299872000</v>
       </c>
       <c r="W42" s="5">
         <f t="shared" si="5"/>
-        <v>152079200</v>
+        <v>152086400</v>
       </c>
       <c r="Y42" s="5">
         <f t="shared" si="6"/>
-        <v>83052000</v>
+        <v>83059200</v>
       </c>
       <c r="Z42" s="5">
         <f t="shared" si="6"/>
-        <v>43048800</v>
+        <v>43056000</v>
       </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.2">
@@ -9561,115 +9784,163 @@
       </c>
       <c r="P43" s="5">
         <f t="shared" si="3"/>
-        <v>370686400</v>
+        <v>370700800</v>
       </c>
       <c r="Q43" s="5">
         <f t="shared" si="3"/>
-        <v>412126400</v>
+        <v>412140800</v>
       </c>
       <c r="S43" s="5">
         <f t="shared" si="4"/>
-        <v>321617600</v>
+        <v>321632000</v>
       </c>
       <c r="T43" s="5">
         <f t="shared" si="4"/>
-        <v>208984000</v>
+        <v>208998400</v>
       </c>
       <c r="V43" s="5">
         <f t="shared" si="5"/>
-        <v>348216000</v>
+        <v>348230400</v>
       </c>
       <c r="W43" s="5">
         <f t="shared" si="5"/>
-        <v>256817600</v>
+        <v>256832000</v>
       </c>
       <c r="Y43" s="5">
         <f t="shared" si="6"/>
-        <v>89368000</v>
+        <v>89382400</v>
       </c>
       <c r="Z43" s="5">
         <f t="shared" si="6"/>
-        <v>49188800</v>
+        <v>49203200</v>
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="P44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="P45" s="5">
         <f>AVERAGE(P37:P43)</f>
-        <v>400504789.28571427</v>
+        <v>400508871.4285714</v>
       </c>
       <c r="Q45" s="5">
         <f>AVERAGE(Q37:Q43)</f>
-        <v>372163760.71428573</v>
+        <v>372167842.85714287</v>
       </c>
       <c r="S45" s="5">
         <f>AVERAGE(S37:S43)</f>
-        <v>208796075</v>
+        <v>208800157.14285713</v>
       </c>
       <c r="T45" s="5">
         <f>AVERAGE(T37:T43)</f>
-        <v>193304303.57142857</v>
+        <v>193308385.7142857</v>
       </c>
       <c r="V45" s="5">
         <f>AVERAGE(V37:V43)</f>
-        <v>304466189.28571427</v>
+        <v>304470271.4285714</v>
       </c>
       <c r="W45" s="5">
         <f>AVERAGE(W37:W43)</f>
-        <v>207262375</v>
+        <v>207266457.14285713</v>
       </c>
       <c r="Y45" s="5">
         <f>AVERAGE(Y37:Y43)</f>
-        <v>72945703.571428567</v>
+        <v>72949785.714285716</v>
       </c>
       <c r="Z45" s="5">
         <f>AVERAGE(Z37:Z43)</f>
-        <v>52940746.428571425</v>
+        <v>52944828.571428575</v>
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="P46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="V46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Y46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="P47" s="5">
         <f>AVERAGE(P45:Q45)</f>
-        <v>386334275</v>
+        <v>386338357.14285713</v>
       </c>
       <c r="S47" s="5">
         <f>AVERAGE(S45:T45)</f>
-        <v>201050189.28571427</v>
+        <v>201054271.4285714</v>
       </c>
       <c r="V47" s="5">
         <f>AVERAGE(V45:W45)</f>
-        <v>255864282.14285713</v>
+        <v>255868364.28571427</v>
       </c>
       <c r="Y47" s="5">
         <f>AVERAGE(Y45:Z45)</f>
-        <v>62943225</v>
+        <v>62947307.142857149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="P48" t="s">
+        <v>66</v>
+      </c>
+      <c r="S48" t="s">
+        <v>66</v>
+      </c>
+      <c r="V48" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="16:26" x14ac:dyDescent="0.2">
+      <c r="P49" s="5">
+        <f>MEDIAN(P37:P43)</f>
+        <v>384134400</v>
+      </c>
+      <c r="Q49" s="5">
+        <f>MEDIAN(Q37:Q43)</f>
+        <v>373344200</v>
+      </c>
+      <c r="S49" s="5">
+        <f>MEDIAN(S37:S43)</f>
+        <v>189574400</v>
+      </c>
+      <c r="T49" s="5">
+        <f>MEDIAN(T37:T43)</f>
+        <v>189942400</v>
+      </c>
+      <c r="V49" s="5">
+        <f>MEDIAN(V37:V43)</f>
+        <v>299872000</v>
+      </c>
+      <c r="W49" s="5">
+        <f>MEDIAN(W37:W43)</f>
+        <v>208743600</v>
+      </c>
+      <c r="Y49" s="5">
+        <f>MEDIAN(Y37:Y43)</f>
+        <v>76072000</v>
+      </c>
+      <c r="Z49" s="5">
+        <f>MEDIAN(Z37:Z43)</f>
+        <v>49203200</v>
       </c>
     </row>
   </sheetData>
